--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0309FCA4-912C-43AD-ABBE-193F4C2E9896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F03CB9-85AB-418E-89A8-3A9CE71240BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="374" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="03-01" sheetId="7" r:id="rId3"/>
     <sheet name="04-01" sheetId="8" r:id="rId4"/>
     <sheet name="05-01" sheetId="9" r:id="rId5"/>
+    <sheet name="06-01" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -761,7 +762,189 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF9C0006"/>
+        <name val="Times New Roman"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <name val="Times New Roman"/>
@@ -1881,106 +2064,176 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10215</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>185939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30974F8E-CDA7-4E6D-A8B4-2AD416152B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2334315" y="9004079"/>
+          <a:ext cx="2644775" cy="5764635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4643,7 +4896,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,7 +5711,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5712,15 +5965,13 @@
         <f>H11*$E$26</f>
         <v>1110000</v>
       </c>
-      <c r="J11" s="41" t="s">
-        <v>72</v>
+      <c r="J11" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="41" t="s">
-        <v>72</v>
-      </c>
+      <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -5920,13 +6171,11 @@
         <f>H17*$E$26</f>
         <v>1248000</v>
       </c>
-      <c r="J17" s="41" t="s">
-        <v>72</v>
+      <c r="J17" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="41" t="s">
-        <v>72</v>
-      </c>
+      <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6173,6 +6422,750 @@
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402FAFB7-43B3-4827-82E2-B32EE531640B}">
+  <dimension ref="A2:M56"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>38096003688</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B23" si="0">B7 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91203011680</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>89078016404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>89099008054</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91088020664</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8">
+        <v>89082022656</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42088019031</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8">
+        <v>49202008987</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>93097001330</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8">
+        <v>95095009661</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8">
+        <v>80083017871</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42094001136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8">
+        <v>38085004911</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="49"/>
+      <c r="J27" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F03CB9-85AB-418E-89A8-3A9CE71240BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082EDABB-A0F9-4099-809B-17699680E580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="374" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="04-01" sheetId="8" r:id="rId4"/>
     <sheet name="05-01" sheetId="9" r:id="rId5"/>
     <sheet name="06-01" sheetId="10" r:id="rId6"/>
+    <sheet name="07-01" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -327,6 +328,18 @@
   </si>
   <si>
     <t>DOANH THU 05/01/2026</t>
+  </si>
+  <si>
+    <t>Sau 6-1 nghỉ luôn</t>
+  </si>
+  <si>
+    <t>DOANH THU 06/01/2026</t>
+  </si>
+  <si>
+    <t>THỪA ĐỖ (Sun)</t>
+  </si>
+  <si>
+    <t>DOANH THU 07/01/2026</t>
   </si>
 </sst>
 </file>
@@ -336,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,8 +517,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +645,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -743,6 +768,12 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,7 +793,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="105">
     <dxf>
       <font>
         <name val="Times New Roman"/>
@@ -1855,8 +1886,195 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF9C0006"/>
+        <name val="Times New Roman"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2113,127 +2331,197 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10215</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>185939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBFD11D-6C15-48BF-A22F-AF308A14FD86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2334315" y="9004079"/>
+          <a:ext cx="2644775" cy="5764635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="99" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="98" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="97" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="96" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="95" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="94" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="93" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="92" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="91" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="90" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8B1983FB-CAD9-4F22-8DE7-E134AE6A9F70}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{498B51D9-B2C9-4D7B-BBBD-082B2067379C}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{C63756CC-CCDE-4370-8B2E-B494A7DC813D}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6B166947-75EF-4D67-92F8-79B3BFFB2F5E}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{133865C5-3727-420D-8494-5560F77B5277}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{2270A241-369C-4D02-A8E4-2AAB5F44362E}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{45C5A9A4-B5C2-4DE5-B6E1-557D6B332D47}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{8CB9BE29-AE4B-4972-B577-50C9BE6F5188}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{D6FC356D-48E7-4DA9-B7CD-69A2C3E105E5}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{EC0104D6-C23A-4791-8BD0-03B669770D6D}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2505,8 +2793,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,32 +2816,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -3124,20 +3412,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="49"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -3232,1667 +3520,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EA5E95-9A1F-428C-A980-7358A9B2F390}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:M56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J4" s="26"/>
-    </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>38096003688</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1720000</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1020000</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <f>B7 +1</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>91203011680</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2500000</v>
-      </c>
-      <c r="I8" s="10">
-        <f>H8*$E$26</f>
-        <v>1500000</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <f>B8 +1</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>89078016404</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2080000</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1250000</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <f t="shared" ref="B10:B24" si="0">B9 +1</f>
-        <v>4</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>89099008054</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1760000</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" ref="I10:I21" si="1">H10*$E$26</f>
-        <v>1056000</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4">
-        <v>91088020664</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1950000</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="1"/>
-        <v>1170000</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="8">
-        <v>89082022656</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1975000</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="1"/>
-        <v>1185000</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8">
-        <v>42088019031</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="10">
-        <v>2050000</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="1"/>
-        <v>1230000</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8">
-        <v>49202008987</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2200000</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="1"/>
-        <v>1320000</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="8">
-        <v>93097001330</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1870000</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="1"/>
-        <v>1122000</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="8">
-        <v>95095009661</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2130000</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="1"/>
-        <v>1278000</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="8">
-        <v>80083017871</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1730000</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1080000</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="8">
-        <v>42094001136</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2190000</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1315000</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="10">
-        <v>2080000</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1250000</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="31">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="8">
-        <v>38085004911</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1750000</v>
-      </c>
-      <c r="I20" s="10">
-        <v>880000</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="31">
-        <f>B20 +1</f>
-        <v>15</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3">
-        <v>89201007075</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1150000</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="1"/>
-        <v>690000</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="9">
-        <f>SUM(H7:H1001)</f>
-        <v>29135000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="9">
-        <f>SUM(I7:I1001)</f>
-        <v>17346000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-  </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002816DB-42BB-432B-9938-04B7FA91672A}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:M56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J4" s="26"/>
-    </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>38096003688</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2420000</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1390000</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <f>B7 +1</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>91203011680</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2610000</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1570000</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <f>B8 +1</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>89078016404</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2080000</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1250000</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <f t="shared" ref="B10:B24" si="0">B9 +1</f>
-        <v>4</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>89099008054</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1850000</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" ref="I10:I17" si="1">H10*$E$26</f>
-        <v>1110000</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4">
-        <v>91088020664</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2500000</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="1"/>
-        <v>1500000</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="8">
-        <v>89082022656</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2220000</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="1"/>
-        <v>1332000</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8">
-        <v>42088019031</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1880000</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="1"/>
-        <v>1128000</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8">
-        <v>49202008987</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2245000</v>
-      </c>
-      <c r="I14" s="10">
-        <v>1392000</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="8">
-        <v>93097001330</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1780000</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="1"/>
-        <v>1068000</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="8">
-        <v>95095009661</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2130000</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="1"/>
-        <v>1278000</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="8">
-        <v>80083017871</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="10">
-        <v>2245000</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="1"/>
-        <v>1347000</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="8">
-        <v>42094001136</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2520000</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1510000</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1880000</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1130000</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="8">
-        <v>38085004911</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="10">
-        <v>2100000</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1050000</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="3">
-        <f>B20 +1</f>
-        <v>15</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3">
-        <v>89201007075</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1710000</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1020000</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="9">
-        <f>SUM(H7:H1001)</f>
-        <v>32170000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="9">
-        <f>SUM(I7:I1001)</f>
-        <v>19075000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5ED9B6-886A-446F-AED9-2F677C1B01AE}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4918,32 +3545,1693 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>38096003688</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1720000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1020000</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f>B7 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91203011680</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="I8" s="10">
+        <f>H8*$E$26</f>
+        <v>1500000</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f>B8 +1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>89078016404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2080000</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1250000</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" ref="B10:B24" si="0">B9 +1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>89099008054</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1760000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" ref="I10:I21" si="1">H10*$E$26</f>
+        <v>1056000</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91088020664</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1950000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>1170000</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8">
+        <v>89082022656</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1975000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>1185000</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42088019031</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2050000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>1230000</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8">
+        <v>49202008987</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2200000</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>1320000</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>93097001330</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1870000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>1122000</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8">
+        <v>95095009661</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2130000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>1278000</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8">
+        <v>80083017871</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1730000</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1080000</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42094001136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2190000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1315000</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="35"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2080000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1250000</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8">
+        <v>38085004911</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1750000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>880000</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="31">
+        <f>B20 +1</f>
+        <v>15</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3">
+        <v>89201007075</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1150000</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>690000</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>29135000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>17346000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002816DB-42BB-432B-9938-04B7FA91672A}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:M56"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>38096003688</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2420000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1390000</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f>B7 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91203011680</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2610000</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1570000</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f>B8 +1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>89078016404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2080000</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1250000</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" ref="B10:B24" si="0">B9 +1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>89099008054</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1850000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" ref="I10:I17" si="1">H10*$E$26</f>
+        <v>1110000</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91088020664</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8">
+        <v>89082022656</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2220000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>1332000</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42088019031</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1880000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>1128000</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8">
+        <v>49202008987</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2245000</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1392000</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>93097001330</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1780000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>1068000</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8">
+        <v>95095009661</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2130000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>1278000</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8">
+        <v>80083017871</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2245000</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>1347000</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42094001136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2520000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1510000</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1880000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1130000</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8">
+        <v>38085004911</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2100000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1050000</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3">
+        <f>B20 +1</f>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3">
+        <v>89201007075</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1710000</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1020000</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>32170000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>19075000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5ED9B6-886A-446F-AED9-2F677C1B01AE}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A2:M56"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5595,20 +5883,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="49"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -5710,8 +5998,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5733,32 +6021,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -6405,20 +6693,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="49"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -6520,10 +6808,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402FAFB7-43B3-4827-82E2-B32EE531640B}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I21"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6545,32 +6834,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -6632,8 +6921,13 @@
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="10">
+        <v>2600000</v>
+      </c>
+      <c r="I7" s="10">
+        <f>H7*$E$26</f>
+        <v>1560000</v>
+      </c>
       <c r="J7" s="16" t="s">
         <v>69</v>
       </c>
@@ -6661,9 +6955,14 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="29" t="s">
+      <c r="H8" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:I15" si="1">H8*$E$26</f>
+        <v>1200000</v>
+      </c>
+      <c r="J8" s="47" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="33" t="s">
@@ -6692,8 +6991,13 @@
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10">
+        <v>2270000</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>1362000</v>
+      </c>
       <c r="J9" s="16" t="s">
         <v>69</v>
       </c>
@@ -6721,8 +7025,13 @@
       <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="10">
+        <v>1770000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>1062000</v>
+      </c>
       <c r="J10" s="16" t="s">
         <v>69</v>
       </c>
@@ -6752,9 +7061,14 @@
       <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="29" t="s">
+      <c r="H11" s="10">
+        <v>1800000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>1080000</v>
+      </c>
+      <c r="J11" s="47" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="33" t="s">
@@ -6783,8 +7097,13 @@
       <c r="G12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="10">
+        <v>2200000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>1320000</v>
+      </c>
       <c r="J12" s="16" t="s">
         <v>69</v>
       </c>
@@ -6812,8 +7131,13 @@
       <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="10">
+        <v>1830000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>1098000</v>
+      </c>
       <c r="J13" s="16" t="s">
         <v>69</v>
       </c>
@@ -6843,8 +7167,13 @@
       <c r="G14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="10">
+        <v>1770000</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>1062000</v>
+      </c>
       <c r="J14" s="16" t="s">
         <v>69</v>
       </c>
@@ -6872,8 +7201,13 @@
       <c r="G15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="10">
+        <v>1720000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>1032000</v>
+      </c>
       <c r="J15" s="16" t="s">
         <v>69</v>
       </c>
@@ -6901,8 +7235,13 @@
       <c r="G16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="10">
+        <v>1720000</v>
+      </c>
+      <c r="I16" s="10">
+        <f>H16*$E$26</f>
+        <v>1032000</v>
+      </c>
       <c r="J16" s="16" t="s">
         <v>69</v>
       </c>
@@ -6930,13 +7269,19 @@
       <c r="G17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="10">
+        <v>1700000</v>
+      </c>
+      <c r="I17" s="10">
+        <v>850000</v>
+      </c>
       <c r="J17" s="16" t="s">
         <v>69</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="46" t="s">
+        <v>96</v>
+      </c>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -6959,9 +7304,14 @@
       <c r="G18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="29" t="s">
+      <c r="H18" s="10">
+        <v>2270000</v>
+      </c>
+      <c r="I18" s="10">
+        <f>H18*$E$26</f>
+        <v>1362000</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="33" t="s">
@@ -6990,8 +7340,12 @@
       <c r="G19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="10">
+        <v>3616000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2160000</v>
+      </c>
       <c r="J19" s="16" t="s">
         <v>69</v>
       </c>
@@ -7020,9 +7374,13 @@
       <c r="G20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="29" t="s">
+      <c r="H20" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="J20" s="47" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="35"/>
@@ -7050,13 +7408,18 @@
       <c r="G21" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="10">
+        <v>2300000</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" ref="I21" si="2">H21*$E$26</f>
+        <v>1380000</v>
+      </c>
       <c r="J21" s="16" t="s">
         <v>69</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -7149,20 +7512,772 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>31566000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>18560000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36846DE2-8720-468A-A331-5A4BA5FA2ECB}">
+  <dimension ref="A2:M56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>38096003688</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B23" si="0">B7 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91203011680</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>89078016404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>89099008054</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91088020664</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8">
+        <v>89082022656</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42088019031</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8">
+        <v>49202008987</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>93097001330</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8">
+        <v>95095009661</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8">
+        <v>80083017871</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42094001136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8">
+        <v>38085004911</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="51"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="49"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>0</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082EDABB-A0F9-4099-809B-17699680E580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6216EB1-EE5C-4CFC-9BAA-646BCA681526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="05-01" sheetId="9" r:id="rId5"/>
     <sheet name="06-01" sheetId="10" r:id="rId6"/>
     <sheet name="07-01" sheetId="11" r:id="rId7"/>
+    <sheet name="08-01" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -340,6 +341,12 @@
   </si>
   <si>
     <t>DOANH THU 07/01/2026</t>
+  </si>
+  <si>
+    <t>ĐẠT</t>
+  </si>
+  <si>
+    <t>BÁC THAO</t>
   </si>
 </sst>
 </file>
@@ -645,7 +652,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -786,6 +793,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -793,7 +803,189 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="120">
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF9C0006"/>
+        <name val="Times New Roman"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <name val="Times New Roman"/>
@@ -2380,148 +2572,218 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10215</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>185939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2A9CBF-BD05-4005-9C59-0DBBCC2D19D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2334315" y="9004079"/>
+          <a:ext cx="2644775" cy="5764635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="99" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="98" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="97" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="96" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="95" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="94" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="93" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="92" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="91" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="90" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="116" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="115" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="114" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="113" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="112" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="111" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="110" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="109" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="108" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="107" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="106" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="105" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="99" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="98" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="97" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="96" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="95" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="94" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="93" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="92" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="91" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="90" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8B1983FB-CAD9-4F22-8DE7-E134AE6A9F70}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{498B51D9-B2C9-4D7B-BBBD-082B2067379C}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{C63756CC-CCDE-4370-8B2E-B494A7DC813D}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{6B166947-75EF-4D67-92F8-79B3BFFB2F5E}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{133865C5-3727-420D-8494-5560F77B5277}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{2270A241-369C-4D02-A8E4-2AAB5F44362E}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{45C5A9A4-B5C2-4DE5-B6E1-557D6B332D47}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{8CB9BE29-AE4B-4972-B577-50C9BE6F5188}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{D6FC356D-48E7-4DA9-B7CD-69A2C3E105E5}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{EC0104D6-C23A-4791-8BD0-03B669770D6D}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8B1983FB-CAD9-4F22-8DE7-E134AE6A9F70}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{498B51D9-B2C9-4D7B-BBBD-082B2067379C}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{C63756CC-CCDE-4370-8B2E-B494A7DC813D}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6B166947-75EF-4D67-92F8-79B3BFFB2F5E}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{133865C5-3727-420D-8494-5560F77B5277}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{2270A241-369C-4D02-A8E4-2AAB5F44362E}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{45C5A9A4-B5C2-4DE5-B6E1-557D6B332D47}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{8CB9BE29-AE4B-4972-B577-50C9BE6F5188}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{D6FC356D-48E7-4DA9-B7CD-69A2C3E105E5}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{EC0104D6-C23A-4791-8BD0-03B669770D6D}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{3F06EBB4-066C-4D70-BCDB-6385DD5521D0}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{6716FF64-CBA6-41E2-AC66-8E6674578FB1}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{E9AF3165-7AF3-4802-8A2B-C4778B4E6C54}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{68CEAC9B-947C-49B6-A2BB-6DE884DDEBFB}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{4F868D74-6BC9-4BE1-B4C6-159BCF2EDA47}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D5E9904F-827E-445C-B51C-F330CC45F31E}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{11E0E58A-8F57-4240-A051-39E671386B4D}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{1CB6152F-EB83-4348-AC14-5DFBE58A8396}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{94A817A4-0B58-40F9-974C-34BF9DC3FEC2}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{31980D75-0507-4AF0-9CE2-8238A4185BB5}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6812,7 +7074,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I7" sqref="I7:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6925,8 +7187,8 @@
         <v>2600000</v>
       </c>
       <c r="I7" s="10">
-        <f>H7*$E$26</f>
-        <v>1560000</v>
+        <f>Table145245678[[#This Row],[THỰC LÃNH]]</f>
+        <v>1200000</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>69</v>
@@ -7528,7 +7790,7 @@
       <c r="I27" s="51"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>18560000</v>
+        <v>18200000</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -7627,10 +7889,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36846DE2-8720-468A-A331-5A4BA5FA2ECB}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7739,6 +8002,826 @@
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="H7" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="I7" s="10">
+        <f>H7*$E$26</f>
+        <v>1200000</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B23" si="0">B7 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91203011680</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2040000</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:I22" si="1">H8*$E$26</f>
+        <v>1224000</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>89078016404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1720000</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>1032000</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>89099008054</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1800000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>1080000</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91088020664</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1900000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>1140000</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8">
+        <v>89082022656</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1760000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>1056000</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42088019031</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2550000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>1530000</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8">
+        <v>49202008987</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1930000</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>1158000</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>93097001330</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2400000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>1440000</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8">
+        <v>95095009661</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1730000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>1038000</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1830000</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>1098000</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42094001136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2180000</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>1308000</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2230000</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
+        <v>1338000</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8">
+        <v>38085004911</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2700000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1350000</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1800000</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>1080000</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="10">
+        <v>930000</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="1"/>
+        <v>558000</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>31500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>18630000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3712A8A-B885-4334-962B-CB7B56D25DB0}">
+  <dimension ref="A2:P56"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>38096003688</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="16" t="s">
@@ -7747,8 +8830,11 @@
       <c r="K7" s="2"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="P7" s="47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -7770,18 +8856,19 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="45" t="s">
-        <v>72</v>
+      <c r="J8" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="P8" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7810,7 +8897,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7841,7 +8928,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7869,12 +8956,10 @@
       <c r="K11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="45" t="s">
-        <v>72</v>
-      </c>
+      <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7900,10 +8985,10 @@
         <v>69</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7934,7 +9019,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7960,10 +9045,10 @@
         <v>69</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7992,7 +9077,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8018,7 +9103,7 @@
         <v>69</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="35"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -8032,12 +9117,10 @@
       <c r="D17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="8">
-        <v>80083017871</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="E17" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="37"/>
       <c r="G17" s="8" t="s">
         <v>57</v>
       </c>
@@ -8072,15 +9155,13 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="45" t="s">
-        <v>72</v>
+      <c r="J18" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="45" t="s">
-        <v>72</v>
-      </c>
+      <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -8135,13 +9216,11 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="45" t="s">
-        <v>72</v>
+      <c r="J20" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K20" s="35"/>
-      <c r="L20" s="45" t="s">
-        <v>72</v>
-      </c>
+      <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -8179,8 +9258,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
+      <c r="C22" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
@@ -8194,14 +9273,10 @@
       <c r="G22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>6</v>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -8212,8 +9287,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
+      <c r="C23" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6216EB1-EE5C-4CFC-9BAA-646BCA681526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3CD10-79E2-4B11-8C95-D310B99A44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -347,6 +347,27 @@
   </si>
   <si>
     <t>BÁC THAO</t>
+  </si>
+  <si>
+    <t>DOANH THU 08/01/2026</t>
+  </si>
+  <si>
+    <t>0926 066 166</t>
+  </si>
+  <si>
+    <t>BÌNH DƯƠNG</t>
+  </si>
+  <si>
+    <t>MAI BÁ ĐẠT (Vin)</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN THẠO (Vin)</t>
+  </si>
+  <si>
+    <t>GIA LAI</t>
+  </si>
+  <si>
+    <t>0975 617 376</t>
   </si>
 </sst>
 </file>
@@ -356,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +551,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF101828"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -585,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -645,6 +672,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -652,7 +690,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -781,6 +819,15 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,9 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2585,7 +2629,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>185939</xdr:rowOff>
+      <xdr:rowOff>118704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2770,7 +2814,13 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*(Vin)"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
@@ -3078,32 +3128,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -3674,20 +3724,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="51"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -3807,32 +3857,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -4501,20 +4551,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -4640,32 +4690,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5330,20 +5380,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -5468,32 +5518,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -6145,20 +6195,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -6283,32 +6333,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -6955,20 +7005,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -7096,32 +7146,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -7774,20 +7824,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -7892,8 +7942,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7915,32 +7965,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -8592,20 +8642,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18630000</v>
@@ -8707,10 +8757,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3712A8A-B885-4334-962B-CB7B56D25DB0}">
-  <dimension ref="A2:P56"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8732,32 +8783,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -8799,11 +8850,11 @@
       <c r="M6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -8822,8 +8873,12 @@
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="10">
+        <v>1710000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1020000</v>
+      </c>
       <c r="J7" s="16" t="s">
         <v>69</v>
       </c>
@@ -8854,10 +8909,15 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="47" t="s">
-        <v>26</v>
+      <c r="H8" s="10">
+        <v>2400000</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:I23" si="1">H8*$E$26</f>
+        <v>1440000</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>72</v>
@@ -8868,7 +8928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8888,16 +8948,21 @@
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="16" t="s">
-        <v>69</v>
+      <c r="H9" s="10">
+        <v>700000</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>420000</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8917,8 +8982,13 @@
       <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="10">
+        <v>1920000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>1152000</v>
+      </c>
       <c r="J10" s="16" t="s">
         <v>69</v>
       </c>
@@ -8948,8 +9018,13 @@
       <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="10">
+        <v>1850000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>1110000</v>
+      </c>
       <c r="J11" s="45" t="s">
         <v>72</v>
       </c>
@@ -8959,7 +9034,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8979,8 +9054,13 @@
       <c r="G12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="10">
+        <v>2010000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>1206000</v>
+      </c>
       <c r="J12" s="16" t="s">
         <v>69</v>
       </c>
@@ -8988,7 +9068,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9008,8 +9088,13 @@
       <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="10">
+        <v>1720000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>1032000</v>
+      </c>
       <c r="J13" s="16" t="s">
         <v>69</v>
       </c>
@@ -9019,7 +9104,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9039,8 +9124,13 @@
       <c r="G14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="10">
+        <v>2080000</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>1248000</v>
+      </c>
       <c r="J14" s="16" t="s">
         <v>69</v>
       </c>
@@ -9048,7 +9138,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9068,16 +9158,21 @@
       <c r="G15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="16" t="s">
-        <v>69</v>
+      <c r="H15" s="10">
+        <v>1750000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>1050000</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9097,8 +9192,13 @@
       <c r="G16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="10">
+        <v>1830000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>1098000</v>
+      </c>
       <c r="J16" s="16" t="s">
         <v>69</v>
       </c>
@@ -9106,7 +9206,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9117,15 +9217,21 @@
       <c r="D17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="37"/>
+      <c r="E17" s="50">
+        <v>91085001515</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="10">
+        <v>1830000</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1116000</v>
+      </c>
       <c r="J17" s="16" t="s">
         <v>69</v>
       </c>
@@ -9153,10 +9259,15 @@
       <c r="G18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="47" t="s">
-        <v>26</v>
+      <c r="H18" s="10">
+        <v>2340000</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>1404000</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>72</v>
@@ -9164,7 +9275,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9184,8 +9295,13 @@
       <c r="G19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="10">
+        <v>2380000</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
+        <v>1428000</v>
+      </c>
       <c r="J19" s="16" t="s">
         <v>69</v>
       </c>
@@ -9214,8 +9330,12 @@
       <c r="G20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="10">
+        <v>1800000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>900000</v>
+      </c>
       <c r="J20" s="47" t="s">
         <v>26</v>
       </c>
@@ -9223,7 +9343,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -9244,10 +9364,15 @@
       <c r="G21" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="16" t="s">
-        <v>69</v>
+      <c r="H21" s="10">
+        <v>3810000</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>2286000</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="12"/>
@@ -9258,23 +9383,28 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>100</v>
+      <c r="C22" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="E22" s="3">
+        <v>70081001153</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="H22" s="10">
+        <v>900000</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="1"/>
+        <v>540000</v>
+      </c>
       <c r="J22" s="47" t="s">
         <v>26</v>
       </c>
@@ -9287,35 +9417,36 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>101</v>
+      <c r="C23" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27068001194</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1100000</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="1"/>
+        <v>660000</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9339,23 +9470,23 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
-        <v>0</v>
+        <v>32130000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>0</v>
+        <v>19110000</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -9436,6 +9567,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3CD10-79E2-4B11-8C95-D310B99A44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF870B79-E4FD-4327-A28E-8BAF405ED486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <color rgb="FF101828"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -825,9 +825,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,6 +836,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2814,13 +2814,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*(Vin)"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
@@ -3128,32 +3122,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -3724,20 +3718,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="54"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -3857,32 +3851,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -4551,20 +4545,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -4690,32 +4684,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5380,20 +5374,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -5518,32 +5512,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -6195,20 +6189,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -6333,32 +6327,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -7005,20 +6999,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -7146,32 +7140,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -7824,20 +7818,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -7965,32 +7959,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -8642,20 +8636,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18630000</v>
@@ -8760,8 +8754,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8779,36 +8773,38 @@
     <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -8854,7 +8850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -8916,8 +8912,8 @@
         <f t="shared" ref="I8:I23" si="1">H8*$E$26</f>
         <v>1440000</v>
       </c>
-      <c r="J8" s="45" t="s">
-        <v>72</v>
+      <c r="J8" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>72</v>
@@ -8928,7 +8924,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8955,14 +8951,14 @@
         <f t="shared" si="1"/>
         <v>420000</v>
       </c>
-      <c r="J9" s="45" t="s">
-        <v>72</v>
+      <c r="J9" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9025,8 +9021,8 @@
         <f t="shared" si="1"/>
         <v>1110000</v>
       </c>
-      <c r="J11" s="45" t="s">
-        <v>72</v>
+      <c r="J11" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>72</v>
@@ -9034,7 +9030,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9068,7 +9064,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9104,7 +9100,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9138,7 +9134,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9165,14 +9161,14 @@
         <f t="shared" si="1"/>
         <v>1050000</v>
       </c>
-      <c r="J15" s="45" t="s">
-        <v>72</v>
+      <c r="J15" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9206,7 +9202,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9217,7 +9213,7 @@
       <c r="D17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="54">
         <v>91085001515</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -9266,8 +9262,8 @@
         <f t="shared" si="1"/>
         <v>1404000</v>
       </c>
-      <c r="J18" s="45" t="s">
-        <v>72</v>
+      <c r="J18" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>72</v>
@@ -9275,7 +9271,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9343,7 +9339,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -9446,7 +9442,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9470,20 +9466,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF870B79-E4FD-4327-A28E-8BAF405ED486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A4B614-8488-4B8A-96EE-7616193C6F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8754,8 +8754,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A4B614-8488-4B8A-96EE-7616193C6F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9D6E47-2F86-4865-899B-C0B57F3F1DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="439" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -21,27 +21,19 @@
     <sheet name="06-01" sheetId="10" r:id="rId6"/>
     <sheet name="07-01" sheetId="11" r:id="rId7"/>
     <sheet name="08-01" sheetId="12" r:id="rId8"/>
+    <sheet name="09-01" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -368,6 +360,9 @@
   </si>
   <si>
     <t>0975 617 376</t>
+  </si>
+  <si>
+    <t>DOANH THU 09/01/2026</t>
   </si>
 </sst>
 </file>
@@ -825,6 +820,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,9 +835,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -847,7 +842,189 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="135">
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF9C0006"/>
+        <name val="Times New Roman"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <name val="Times New Roman"/>
@@ -2665,169 +2842,239 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10215</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>118704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01362463-7AC2-4BA7-AC4F-6E808A298476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2402895" y="8826914"/>
+          <a:ext cx="2719070" cy="5609770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="116" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="115" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="114" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="113" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="112" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="111" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="110" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="109" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="108" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="107" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="106" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="105" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="131" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="130" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="129" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="128" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="127" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="126" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="125" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="124" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="123" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="122" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="121" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="120" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="99" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="98" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="97" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="96" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="95" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="94" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="93" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="92" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="91" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="90" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="116" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="115" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="114" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="113" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="112" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="111" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="110" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="109" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="108" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="107" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="106" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="105" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="99" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="98" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="97" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="96" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="95" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="94" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="93" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="92" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="91" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="90" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8B1983FB-CAD9-4F22-8DE7-E134AE6A9F70}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{498B51D9-B2C9-4D7B-BBBD-082B2067379C}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{C63756CC-CCDE-4370-8B2E-B494A7DC813D}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{6B166947-75EF-4D67-92F8-79B3BFFB2F5E}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{133865C5-3727-420D-8494-5560F77B5277}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{2270A241-369C-4D02-A8E4-2AAB5F44362E}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{45C5A9A4-B5C2-4DE5-B6E1-557D6B332D47}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{8CB9BE29-AE4B-4972-B577-50C9BE6F5188}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{D6FC356D-48E7-4DA9-B7CD-69A2C3E105E5}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{EC0104D6-C23A-4791-8BD0-03B669770D6D}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8B1983FB-CAD9-4F22-8DE7-E134AE6A9F70}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{498B51D9-B2C9-4D7B-BBBD-082B2067379C}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{C63756CC-CCDE-4370-8B2E-B494A7DC813D}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6B166947-75EF-4D67-92F8-79B3BFFB2F5E}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{133865C5-3727-420D-8494-5560F77B5277}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{2270A241-369C-4D02-A8E4-2AAB5F44362E}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{45C5A9A4-B5C2-4DE5-B6E1-557D6B332D47}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{8CB9BE29-AE4B-4972-B577-50C9BE6F5188}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{D6FC356D-48E7-4DA9-B7CD-69A2C3E105E5}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{EC0104D6-C23A-4791-8BD0-03B669770D6D}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{3F06EBB4-066C-4D70-BCDB-6385DD5521D0}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{6716FF64-CBA6-41E2-AC66-8E6674578FB1}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{E9AF3165-7AF3-4802-8A2B-C4778B4E6C54}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{68CEAC9B-947C-49B6-A2BB-6DE884DDEBFB}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{4F868D74-6BC9-4BE1-B4C6-159BCF2EDA47}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{D5E9904F-827E-445C-B51C-F330CC45F31E}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{11E0E58A-8F57-4240-A051-39E671386B4D}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{1CB6152F-EB83-4348-AC14-5DFBE58A8396}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{94A817A4-0B58-40F9-974C-34BF9DC3FEC2}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{31980D75-0507-4AF0-9CE2-8238A4185BB5}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{3F06EBB4-066C-4D70-BCDB-6385DD5521D0}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{6716FF64-CBA6-41E2-AC66-8E6674578FB1}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{E9AF3165-7AF3-4802-8A2B-C4778B4E6C54}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{68CEAC9B-947C-49B6-A2BB-6DE884DDEBFB}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{4F868D74-6BC9-4BE1-B4C6-159BCF2EDA47}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D5E9904F-827E-445C-B51C-F330CC45F31E}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{11E0E58A-8F57-4240-A051-39E671386B4D}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{1CB6152F-EB83-4348-AC14-5DFBE58A8396}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{94A817A4-0B58-40F9-974C-34BF9DC3FEC2}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{31980D75-0507-4AF0-9CE2-8238A4185BB5}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D2417A03-54AF-4CD5-ACE5-D93CFF57121A}" name="Table145245678910" displayName="Table145245678910" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{46F63323-68E0-4510-BA08-C9DB0457E239}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{DFFE4649-68A2-46AF-9EB2-F9BCC12F0326}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{044325E6-629C-47E6-AD1F-1668BE3F6282}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{EBF1E448-4F61-4D59-A0A4-4A4CD1B729A0}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{61DE7A23-28E7-447B-BC88-192F90C3530C}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{FB3C372D-64BB-4DE7-9784-B0486D1440AE}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{8E94CCD3-47C5-495A-8218-D190EA4CC0F9}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{A2A5BB41-6A08-4052-8051-0822BDE7DF81}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{B22F578A-3E37-45C7-921C-CE20D5830508}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{84F487C4-8284-4D17-8D43-13F61D066D7B}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{5178B337-902A-48D7-96F7-964B735DEEC3}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{C25FF628-EA2A-4D04-B390-A6CA292E6FF9}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3103,56 +3350,56 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -3224,7 +3471,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -3257,7 +3504,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3291,7 +3538,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3325,7 +3572,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3359,7 +3606,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3393,7 +3640,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3426,7 +3673,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3460,7 +3707,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3494,7 +3741,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3528,7 +3775,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3562,7 +3809,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3596,7 +3843,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3630,7 +3877,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3647,7 +3894,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3664,7 +3911,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3686,7 +3933,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3708,7 +3955,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="25" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D25" s="23" t="s">
         <v>65</v>
       </c>
@@ -3718,20 +3965,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="53"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="53" t="s">
+    <row r="26" spans="2:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H26" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -3742,67 +3989,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
         <v>35</v>
       </c>
@@ -3832,56 +4079,56 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3919,7 +4166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -3951,7 +4198,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -3987,7 +4234,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -4020,7 +4267,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -4054,7 +4301,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4090,7 +4337,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4124,7 +4371,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4160,7 +4407,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4194,7 +4441,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4228,7 +4475,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4262,7 +4509,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4295,7 +4542,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4330,7 +4577,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4363,7 +4610,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>71</v>
       </c>
@@ -4399,7 +4646,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>71</v>
       </c>
@@ -4436,7 +4683,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4469,7 +4716,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4502,7 +4749,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4535,7 +4782,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -4545,20 +4792,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="53" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -4574,67 +4821,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -4665,56 +4912,56 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -4752,7 +4999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -4784,7 +5031,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -4819,7 +5066,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -4852,7 +5099,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -4888,7 +5135,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4924,7 +5171,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4958,7 +5205,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4994,7 +5241,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5027,7 +5274,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5061,7 +5308,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5095,7 +5342,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5129,7 +5376,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5164,7 +5411,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5197,7 +5444,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -5231,7 +5478,7 @@
       <c r="L20" s="43"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -5265,7 +5512,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5298,7 +5545,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5331,7 +5578,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5364,7 +5611,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -5374,20 +5621,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="53" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -5403,67 +5650,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -5493,56 +5740,56 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -5580,7 +5827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -5613,7 +5860,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -5649,7 +5896,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -5682,7 +5929,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B23" si="0">B9 +1</f>
         <v>4</v>
@@ -5717,7 +5964,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5753,7 +6000,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5787,7 +6034,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5823,7 +6070,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5857,7 +6104,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5891,7 +6138,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5925,7 +6172,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5959,7 +6206,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5997,7 +6244,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6031,7 +6278,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -6065,7 +6312,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -6099,7 +6346,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6132,7 +6379,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6165,7 +6412,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6179,7 +6426,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -6189,20 +6436,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="53" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -6218,67 +6465,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -6308,56 +6555,56 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -6395,7 +6642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -6427,7 +6674,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -6463,7 +6710,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6496,7 +6743,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6532,7 +6779,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6568,7 +6815,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6602,7 +6849,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6637,7 +6884,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6671,7 +6918,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6705,7 +6952,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6738,7 +6985,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6772,7 +7019,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6807,7 +7054,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6840,7 +7087,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -6874,7 +7121,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -6909,7 +7156,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6942,7 +7189,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6975,7 +7222,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6989,7 +7236,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -6999,20 +7246,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="53" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -7028,22 +7275,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -7051,47 +7298,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -7121,56 +7368,56 @@
       <selection activeCell="I7" sqref="I7:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -7208,7 +7455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -7241,7 +7488,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -7277,7 +7524,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7311,7 +7558,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7347,7 +7594,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7383,7 +7630,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7417,7 +7664,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7453,7 +7700,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7487,7 +7734,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7521,7 +7768,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7555,7 +7802,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7590,7 +7837,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7626,7 +7873,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7659,7 +7906,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -7693,7 +7940,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -7728,7 +7975,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7761,7 +8008,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7794,7 +8041,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7808,7 +8055,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -7818,20 +8065,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="53" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -7847,22 +8094,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -7870,47 +8117,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -7940,56 +8187,56 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -8027,7 +8274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -8060,7 +8307,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -8096,7 +8343,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8130,7 +8377,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8166,7 +8413,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8202,7 +8449,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8236,7 +8483,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8272,7 +8519,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8306,7 +8553,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8340,7 +8587,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8374,7 +8621,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8406,7 +8653,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8442,7 +8689,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8476,7 +8723,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -8510,7 +8757,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -8545,7 +8792,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8579,7 +8826,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8612,7 +8859,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -8626,7 +8873,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -8636,20 +8883,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="53" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18630000</v>
@@ -8665,22 +8912,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -8688,47 +8935,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -8754,62 +9001,62 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A5" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -8850,7 +9097,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -8885,7 +9132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -8924,7 +9171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8958,7 +9205,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8994,7 +9241,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9030,7 +9277,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9064,7 +9311,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9100,7 +9347,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9134,7 +9381,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9168,7 +9415,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9202,7 +9449,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9213,7 +9460,7 @@
       <c r="D17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="50">
         <v>91085001515</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -9235,7 +9482,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9271,7 +9518,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9305,7 +9552,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -9339,7 +9586,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -9367,14 +9614,14 @@
         <f t="shared" si="1"/>
         <v>2286000</v>
       </c>
-      <c r="J21" s="45" t="s">
-        <v>72</v>
+      <c r="J21" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9408,7 +9655,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9442,7 +9689,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9456,7 +9703,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -9466,20 +9713,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="53" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -9495,22 +9742,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -9518,62 +9765,820 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B548C305-7CC5-4E0E-A313-9D8AB40EB321}">
+  <dimension ref="A2:P59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>38096003688</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="P7" s="47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B23" si="0">B7 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91203011680</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="P8" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>89078016404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>89099008054</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91088020664</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8">
+        <v>89082022656</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42088019031</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8">
+        <v>49202008987</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>93097001330</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8">
+        <v>95095009661</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="50">
+        <v>91085001515</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42094001136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8">
+        <v>38085004911</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3">
+        <v>70081001153</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27068001194</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Theo dõi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9D6E47-2F86-4865-899B-C0B57F3F1DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728A953-6CAA-4CBD-BDA0-64A6A3E1BC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="439" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -22,18 +22,28 @@
     <sheet name="07-01" sheetId="11" r:id="rId7"/>
     <sheet name="08-01" sheetId="12" r:id="rId8"/>
     <sheet name="09-01" sheetId="13" r:id="rId9"/>
+    <sheet name="10-01" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -364,6 +374,18 @@
   <si>
     <t>DOANH THU 09/01/2026</t>
   </si>
+  <si>
+    <t>xin nghỉ thay đèn</t>
+  </si>
+  <si>
+    <t>xin nghỉ chịu tang</t>
+  </si>
+  <si>
+    <t>DOANH THU 10/01/2026</t>
+  </si>
+  <si>
+    <t>HUỲNH HOÀNG VŨ (Sun)</t>
+  </si>
 </sst>
 </file>
 
@@ -685,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -823,6 +845,36 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,7 +894,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="150">
     <dxf>
       <font>
         <name val="Times New Roman"/>
@@ -876,6 +928,22 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -892,6 +960,172 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF9C0006"/>
+        <name val="Times New Roman"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2891,190 +3125,264 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10215</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>118704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF65E46-EAB2-40AD-8E1F-E309462A1F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2334315" y="9004079"/>
+          <a:ext cx="2644775" cy="5754550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148" tableBorderDxfId="147" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="131" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="130" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="129" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="128" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="127" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="126" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="125" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="124" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="123" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="122" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="121" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="120" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="146" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="145" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{6BCA469E-875E-4DB8-B8F1-4CEF36B099CF}" name="SDT" dataDxfId="144" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{D9F1E73A-B9F0-40EF-AFAA-8EA36E51E6E5}" name="CCCD" dataDxfId="143" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{14CA9924-9789-4C5A-9CF8-07EBE7D52A04}" name="ĐỊA CHỈ" dataDxfId="142" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6C450420-5538-4DFE-9199-B536E9A8E96F}" name="BIỂN SỐ" dataDxfId="141" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{AC3D7AF1-8B94-4F38-AB66-E23F1838615A}" name="DOANH THU" dataDxfId="140" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{EFCE95F7-84BE-4DDC-8F47-D72FEE60EEAF}" name="THỰC LÃNH" dataDxfId="139" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8C4F1F4F-862F-4F19-89BC-03E1A18529D1}" name="HÌNH THỨC" dataDxfId="138" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{C632D7F3-C2D1-4A7E-8E44-63D7A4528237}" name="BILL" dataDxfId="137" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{41EE3F26-FB65-4525-BED8-40D96AC73E16}" name="NOTE" dataDxfId="136" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{95690A3D-EBB8-4295-8DD1-172792A9523E}" name="TIME" dataDxfId="135" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F9C32991-C196-45AC-9CCE-343DDDFF9042}" name="Table14524567891011" displayName="Table14524567891011" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{FF62048D-BC3D-4279-AE9D-CFA904ACD01C}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{354DE058-CC1B-4595-88E9-5E5FB7322C9C}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{A8265EBA-DEE0-4D4D-A2DF-8DAA96F62658}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{906819BD-C97A-4455-A5C0-685D9A531CE9}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{9974C645-EE2D-4159-ACBD-8B42C422DEB8}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{304DB0C4-51FF-4ED4-AD3D-43AE1EEAFB78}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{DEB339AA-9214-4D9C-AF89-49BA203D0C97}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{618AF904-1F91-4D32-96CF-8BEA69AF2EF1}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal">
+      <calculatedColumnFormula>H7*$E$26</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{F5F25720-672F-4226-89F8-CE1E5D920957}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{53BF063A-70F2-45AF-80E2-A347591C3884}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{6D42694B-8634-42D7-8AAA-77404E5558C9}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B2912CD1-2E6D-4459-AF0A-8735D4975982}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="116" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="115" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="114" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="113" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="112" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="111" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="110" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="109" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="108" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="107" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="106" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="105" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="131" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="130" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{55163D38-55AB-49C5-AFDB-11106B1FB5EA}" name="SDT" dataDxfId="129" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{9DEEAE65-0EE6-4FDE-B947-A5EF76C2BD87}" name="CCCD" dataDxfId="128" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{5AFA717A-7A2A-4331-928B-98CBBDCDA0A2}" name="ĐỊA CHỈ" dataDxfId="127" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F2FCA384-1F8E-40F4-BB65-79B0B14C2A89}" name="BIỂN SỐ" dataDxfId="126" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{FAE54719-B24E-4B85-BE9E-FBF95DD0E092}" name="DOANH THU" dataDxfId="125" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{36C3D2A6-4BF9-4A93-AD0A-18E2598162BA}" name="THỰC LÃNH" dataDxfId="124" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{BE0DF11B-4989-41AA-BEA3-81D6A56606B1}" name="HÌNH THỨC" dataDxfId="123" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E428066A-6A33-430A-95DD-8E25B28D626C}" name="BILL" dataDxfId="122" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{928FFCBD-7074-4A5E-93E9-512B6CDBAC46}" name="NOTE" dataDxfId="121" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{054F524A-B0EB-4441-9D2F-48D3D98CB664}" name="TIME" dataDxfId="120" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="99" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="98" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="97" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="96" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="95" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="94" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="93" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="92" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="91" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="90" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="116" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="115" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{5C330DB0-1E19-466E-AB2C-E562D46DC243}" name="SDT" dataDxfId="114" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{AB7FBF00-4E37-4D6D-A82A-571965487148}" name="CCCD" dataDxfId="113" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{25AD663F-C9DC-45FA-87E3-EC98289C695D}" name="ĐỊA CHỈ" dataDxfId="112" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{0C05E7D7-64B8-43E4-BC46-95EB52EF87B4}" name="BIỂN SỐ" dataDxfId="111" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{DCE2CCF7-5F06-4F7F-8168-BF276332F656}" name="DOANH THU" dataDxfId="110" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D07BFE34-76E9-4F19-A23E-07516BD1AFC9}" name="THỰC LÃNH" dataDxfId="109" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{F536DCC4-4F00-4248-B00E-1B801BDDEBBD}" name="HÌNH THỨC" dataDxfId="108" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E474DC06-F263-48D8-BAD2-21F369101CD6}" name="BILL" dataDxfId="107" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{569676A8-F060-4B81-9319-D9A824EB8B46}" name="NOTE" dataDxfId="106" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{4C9FE953-00AF-4D77-B446-CBEC0FFE32D6}" name="TIME" dataDxfId="105" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E973C6FC-7D49-4C09-A7B8-491118C8F7ED}" name="SDT" dataDxfId="99" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{99802D82-09B1-4FB0-9F42-DB0D0E4E1880}" name="CCCD" dataDxfId="98" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{545E75FC-89EF-4EBD-8E8A-E21A7C5DD983}" name="ĐỊA CHỈ" dataDxfId="97" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{C61AD627-F01B-49BC-BE72-C4BA72782E0C}" name="BIỂN SỐ" dataDxfId="96" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{F71F42D2-0017-499B-BD73-6CA3452798B2}" name="DOANH THU" dataDxfId="95" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{17E776BC-FFDB-49A9-BA7F-F74CA3FA1E79}" name="THỰC LÃNH" dataDxfId="94" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{83DA542A-3997-424B-A7B2-D25B6B1B1F4A}" name="HÌNH THỨC" dataDxfId="93" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{94F40CAA-EBD9-440E-B930-2150A3120D38}" name="BILL" dataDxfId="92" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{6AB0CF3E-D0A0-4DAB-B8CE-54B1CB07881A}" name="NOTE" dataDxfId="91" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{2C692775-6E51-48EE-92EB-4FB2B57D99B9}" name="TIME" dataDxfId="90" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{CBAF7620-956C-46F1-B90E-FF881C020840}" name="SDT" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{5AA80C72-14CD-4ECA-B274-7E6DB4C710F0}" name="CCCD" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{BBDC8231-A509-4F67-9641-21E894B6F3BB}" name="ĐỊA CHỈ" dataDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{4E5C67CA-7F62-46A7-B67B-D1F0D77BC2D0}" name="BIỂN SỐ" dataDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{7828CFFD-4ACF-4B8C-87C1-9BA98BDD2B3B}" name="DOANH THU" dataDxfId="80" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{C4C0E649-5B5C-4262-A054-DC4554985799}" name="THỰC LÃNH" dataDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{246DAA9C-7CDE-43CE-A7E0-A306769DE0F8}" name="HÌNH THỨC" dataDxfId="78" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{FEAFBFBE-1AF4-43B8-891C-A417A9898E29}" name="BILL" dataDxfId="77" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{74D4B397-CBE7-4110-8F80-F23CDA73BBFE}" name="NOTE" dataDxfId="76" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{BF91805E-61E6-49C9-9C35-3B13279CADD4}" name="TIME" dataDxfId="75" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F2807F19-50E8-43E8-AAA8-2736AB34EA40}" name="SDT" dataDxfId="69" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{A9CAB30F-7177-438D-BC24-B95AE3E4F2E1}" name="CCCD" dataDxfId="68" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{79CCA633-E92E-4399-8A6F-9187CFA8C624}" name="ĐỊA CHỈ" dataDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{920798EF-484E-41FD-B789-6C522DE8129F}" name="BIỂN SỐ" dataDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{E1C353DD-B746-4FDC-8D04-BDA2D046D60D}" name="DOANH THU" dataDxfId="65" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{9C97F9DB-7299-4176-861A-6A82D87978B7}" name="THỰC LÃNH" dataDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{DE161CA4-4F2C-42F2-ACFF-92650F7DAAEB}" name="HÌNH THỨC" dataDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{96EECF95-D222-4AB7-920D-12768887EF5B}" name="BILL" dataDxfId="62" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{39B7E33C-421D-41BB-9FB6-ECF9EB938AB4}" name="NOTE" dataDxfId="61" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{83A24DE4-F137-463F-9772-3D3919BAE1E9}" name="TIME" dataDxfId="60" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8B1983FB-CAD9-4F22-8DE7-E134AE6A9F70}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{498B51D9-B2C9-4D7B-BBBD-082B2067379C}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{C63756CC-CCDE-4370-8B2E-B494A7DC813D}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{6B166947-75EF-4D67-92F8-79B3BFFB2F5E}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{133865C5-3727-420D-8494-5560F77B5277}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{2270A241-369C-4D02-A8E4-2AAB5F44362E}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{45C5A9A4-B5C2-4DE5-B6E1-557D6B332D47}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{8CB9BE29-AE4B-4972-B577-50C9BE6F5188}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{D6FC356D-48E7-4DA9-B7CD-69A2C3E105E5}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{EC0104D6-C23A-4791-8BD0-03B669770D6D}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8B1983FB-CAD9-4F22-8DE7-E134AE6A9F70}" name="SDT" dataDxfId="54" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{498B51D9-B2C9-4D7B-BBBD-082B2067379C}" name="CCCD" dataDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{C63756CC-CCDE-4370-8B2E-B494A7DC813D}" name="ĐỊA CHỈ" dataDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{6B166947-75EF-4D67-92F8-79B3BFFB2F5E}" name="BIỂN SỐ" dataDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{133865C5-3727-420D-8494-5560F77B5277}" name="DOANH THU" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{2270A241-369C-4D02-A8E4-2AAB5F44362E}" name="THỰC LÃNH" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{45C5A9A4-B5C2-4DE5-B6E1-557D6B332D47}" name="HÌNH THỨC" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{8CB9BE29-AE4B-4972-B577-50C9BE6F5188}" name="BILL" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{D6FC356D-48E7-4DA9-B7CD-69A2C3E105E5}" name="NOTE" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{EC0104D6-C23A-4791-8BD0-03B669770D6D}" name="TIME" dataDxfId="45" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{3F06EBB4-066C-4D70-BCDB-6385DD5521D0}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{6716FF64-CBA6-41E2-AC66-8E6674578FB1}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{E9AF3165-7AF3-4802-8A2B-C4778B4E6C54}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{68CEAC9B-947C-49B6-A2BB-6DE884DDEBFB}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{4F868D74-6BC9-4BE1-B4C6-159BCF2EDA47}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{D5E9904F-827E-445C-B51C-F330CC45F31E}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{11E0E58A-8F57-4240-A051-39E671386B4D}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{1CB6152F-EB83-4348-AC14-5DFBE58A8396}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{94A817A4-0B58-40F9-974C-34BF9DC3FEC2}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{31980D75-0507-4AF0-9CE2-8238A4185BB5}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{3F06EBB4-066C-4D70-BCDB-6385DD5521D0}" name="SDT" dataDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{6716FF64-CBA6-41E2-AC66-8E6674578FB1}" name="CCCD" dataDxfId="38" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{E9AF3165-7AF3-4802-8A2B-C4778B4E6C54}" name="ĐỊA CHỈ" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{68CEAC9B-947C-49B6-A2BB-6DE884DDEBFB}" name="BIỂN SỐ" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{4F868D74-6BC9-4BE1-B4C6-159BCF2EDA47}" name="DOANH THU" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D5E9904F-827E-445C-B51C-F330CC45F31E}" name="THỰC LÃNH" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{11E0E58A-8F57-4240-A051-39E671386B4D}" name="HÌNH THỨC" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{1CB6152F-EB83-4348-AC14-5DFBE58A8396}" name="BILL" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{94A817A4-0B58-40F9-974C-34BF9DC3FEC2}" name="NOTE" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{31980D75-0507-4AF0-9CE2-8238A4185BB5}" name="TIME" dataDxfId="30" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D2417A03-54AF-4CD5-ACE5-D93CFF57121A}" name="Table145245678910" displayName="Table145245678910" ref="B6:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D2417A03-54AF-4CD5-ACE5-D93CFF57121A}" name="Table145245678910" displayName="Table145245678910" ref="B6:M24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{46F63323-68E0-4510-BA08-C9DB0457E239}" name="STT" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{DFFE4649-68A2-46AF-9EB2-F9BCC12F0326}" name="HỌ TÊN" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{044325E6-629C-47E6-AD1F-1668BE3F6282}" name="SDT" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{EBF1E448-4F61-4D59-A0A4-4A4CD1B729A0}" name="CCCD" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{61DE7A23-28E7-447B-BC88-192F90C3530C}" name="ĐỊA CHỈ" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{FB3C372D-64BB-4DE7-9784-B0486D1440AE}" name="BIỂN SỐ" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{8E94CCD3-47C5-495A-8218-D190EA4CC0F9}" name="DOANH THU" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{A2A5BB41-6A08-4052-8051-0822BDE7DF81}" name="THỰC LÃNH" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{B22F578A-3E37-45C7-921C-CE20D5830508}" name="HÌNH THỨC" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{84F487C4-8284-4D17-8D43-13F61D066D7B}" name="BILL" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{5178B337-902A-48D7-96F7-964B735DEEC3}" name="NOTE" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{C25FF628-EA2A-4D04-B390-A6CA292E6FF9}" name="TIME" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{46F63323-68E0-4510-BA08-C9DB0457E239}" name="STT" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{DFFE4649-68A2-46AF-9EB2-F9BCC12F0326}" name="HỌ TÊN" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{044325E6-629C-47E6-AD1F-1668BE3F6282}" name="SDT" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{EBF1E448-4F61-4D59-A0A4-4A4CD1B729A0}" name="CCCD" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{61DE7A23-28E7-447B-BC88-192F90C3530C}" name="ĐỊA CHỈ" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{FB3C372D-64BB-4DE7-9784-B0486D1440AE}" name="BIỂN SỐ" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{8E94CCD3-47C5-495A-8218-D190EA4CC0F9}" name="DOANH THU" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{A2A5BB41-6A08-4052-8051-0822BDE7DF81}" name="THỰC LÃNH" dataDxfId="19" dataCellStyle="Normal">
+      <calculatedColumnFormula>H7*$E$26</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B22F578A-3E37-45C7-921C-CE20D5830508}" name="HÌNH THỨC" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{84F487C4-8284-4D17-8D43-13F61D066D7B}" name="BILL" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{5178B337-902A-48D7-96F7-964B735DEEC3}" name="NOTE" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{C25FF628-EA2A-4D04-B390-A6CA292E6FF9}" name="TIME" dataDxfId="15" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3347,59 +3655,59 @@
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3437,7 +3745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -3471,7 +3779,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -3504,7 +3812,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3538,7 +3846,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3572,7 +3880,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3606,7 +3914,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3640,7 +3948,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3673,7 +3981,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3707,7 +4015,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3741,7 +4049,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3775,7 +4083,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3809,7 +4117,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3843,7 +4151,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3877,7 +4185,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3894,7 +4202,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3911,7 +4219,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3933,7 +4241,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3955,7 +4263,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="25" spans="2:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D25" s="23" t="s">
         <v>65</v>
       </c>
@@ -3965,20 +4273,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="54"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H26" s="54" t="s">
+    <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H26" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -3989,67 +4297,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
         <v>35</v>
       </c>
@@ -4070,65 +4378,829 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25421AD-4B15-4CE5-B032-F166D9527995}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A2:P59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J4" s="26"/>
+    </row>
+    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>38096003688</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="P7" s="47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B23" si="0">B7 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91203011680</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="P8" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>89078016404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="58">
+        <v>89099008054</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="56"/>
+    </row>
+    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f>B10 +1</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91088020664</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8">
+        <v>89082022656</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42088019031</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8">
+        <v>49202008987</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>93097001330</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8">
+        <v>95095009661</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="50">
+        <v>91085001515</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42094001136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8">
+        <v>38085004911</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3">
+        <v>70081001153</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27068001194</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="10">
+        <f>H24*$E$26</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="64"/>
+      <c r="J26" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="64"/>
+      <c r="J27" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EA5E95-9A1F-428C-A980-7358A9B2F390}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -4166,7 +5238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -4198,7 +5270,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -4234,7 +5306,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -4267,7 +5339,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -4301,7 +5373,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4337,7 +5409,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4371,7 +5443,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4407,7 +5479,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4441,7 +5513,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4475,7 +5547,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4509,7 +5581,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4542,7 +5614,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4577,7 +5649,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4610,7 +5682,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>71</v>
       </c>
@@ -4646,7 +5718,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>71</v>
       </c>
@@ -4655,7 +5727,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>76</v>
@@ -4683,7 +5755,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4716,7 +5788,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4749,7 +5821,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4782,7 +5854,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -4792,20 +5864,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="54" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -4821,67 +5893,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -4908,60 +5980,60 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +6071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -5031,7 +6103,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -5066,7 +6138,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -5099,7 +6171,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -5135,7 +6207,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5171,7 +6243,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5205,7 +6277,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5241,7 +6313,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5274,7 +6346,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5308,7 +6380,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5342,7 +6414,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5376,7 +6448,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5411,7 +6483,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5444,7 +6516,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -5478,7 +6550,7 @@
       <c r="L20" s="43"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -5512,7 +6584,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5545,7 +6617,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5578,7 +6650,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5611,7 +6683,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -5621,20 +6693,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="54" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -5650,67 +6722,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -5737,59 +6809,59 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -5827,7 +6899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -5860,7 +6932,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -5896,7 +6968,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -5929,7 +7001,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B23" si="0">B9 +1</f>
         <v>4</v>
@@ -5964,7 +7036,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6000,7 +7072,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6034,7 +7106,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6070,7 +7142,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6104,7 +7176,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6138,7 +7210,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6172,7 +7244,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6206,7 +7278,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6244,7 +7316,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6278,7 +7350,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -6312,7 +7384,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -6346,7 +7418,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6379,7 +7451,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6412,7 +7484,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6426,7 +7498,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -6436,20 +7508,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="54" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -6465,67 +7537,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -6551,60 +7623,60 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -6642,7 +7714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -6674,7 +7746,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -6710,7 +7782,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6743,7 +7815,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6779,7 +7851,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6815,7 +7887,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6849,7 +7921,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6884,7 +7956,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6918,7 +7990,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6952,7 +8024,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6985,7 +8057,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7019,7 +8091,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7054,7 +8126,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7087,7 +8159,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -7121,7 +8193,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -7156,7 +8228,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7189,7 +8261,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7222,7 +8294,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7236,7 +8308,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -7246,20 +8318,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="54" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -7275,22 +8347,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -7298,47 +8370,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -7365,59 +8437,59 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I21"/>
+      <selection activeCell="H21" sqref="H21:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -7455,7 +8527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -7488,7 +8560,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -7524,7 +8596,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7558,7 +8630,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7594,7 +8666,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7630,7 +8702,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7664,7 +8736,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7700,7 +8772,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7734,7 +8806,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7768,7 +8840,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7802,7 +8874,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7837,7 +8909,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7873,7 +8945,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7906,7 +8978,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -7940,7 +9012,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -7975,7 +9047,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8008,7 +9080,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8041,7 +9113,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -8055,7 +9127,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -8065,20 +9137,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="54" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -8094,22 +9166,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -8117,47 +9189,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -8184,59 +9256,59 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H22" sqref="H22:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -8274,7 +9346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -8297,7 +9369,6 @@
         <v>2000000</v>
       </c>
       <c r="I7" s="10">
-        <f>H7*$E$26</f>
         <v>1200000</v>
       </c>
       <c r="J7" s="16" t="s">
@@ -8307,7 +9378,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -8343,7 +9414,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8377,7 +9448,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8413,7 +9484,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8449,7 +9520,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8483,7 +9554,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8519,7 +9590,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8553,7 +9624,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8587,7 +9658,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8621,7 +9692,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8653,7 +9724,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8689,7 +9760,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8723,7 +9794,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -8757,7 +9828,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -8792,7 +9863,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8826,7 +9897,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8859,7 +9930,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -8873,7 +9944,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -8883,20 +9954,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="54" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18630000</v>
@@ -8912,22 +9983,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -8935,47 +10006,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -9001,62 +10072,62 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -9097,7 +10168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -9132,7 +10203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -9171,7 +10242,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9205,7 +10276,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9241,7 +10312,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9277,7 +10348,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9311,7 +10382,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9347,7 +10418,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9381,7 +10452,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9415,7 +10486,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9449,7 +10520,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9482,7 +10553,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9518,7 +10589,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9552,7 +10623,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -9586,7 +10657,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -9621,7 +10692,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9645,7 +10716,7 @@
         <v>900000</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="1"/>
+        <f>H22*$E$26</f>
         <v>540000</v>
       </c>
       <c r="J22" s="47" t="s">
@@ -9655,7 +10726,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9689,7 +10760,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9703,7 +10774,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -9713,20 +10784,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="54" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -9742,22 +10813,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -9765,63 +10836,64 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -9839,64 +10911,65 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B548C305-7CC5-4E0E-A313-9D8AB40EB321}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -9937,7 +11010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -9956,8 +11029,12 @@
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="10">
+        <v>1930000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1150000</v>
+      </c>
       <c r="J7" s="16" t="s">
         <v>69</v>
       </c>
@@ -9968,7 +11045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -9988,8 +11065,13 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="10">
+        <v>1850000</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:I19" si="1">H8*$E$26</f>
+        <v>1110000</v>
+      </c>
       <c r="J8" s="47" t="s">
         <v>26</v>
       </c>
@@ -10002,7 +11084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -10022,8 +11104,13 @@
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10">
+        <v>1400000</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>840000</v>
+      </c>
       <c r="J9" s="16" t="s">
         <v>69</v>
       </c>
@@ -10031,7 +11118,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10051,8 +11138,13 @@
       <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="10">
+        <v>3310000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>1986000</v>
+      </c>
       <c r="J10" s="16" t="s">
         <v>69</v>
       </c>
@@ -10062,7 +11154,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10082,8 +11174,13 @@
       <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="10">
+        <v>1900000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>1140000</v>
+      </c>
       <c r="J11" s="47" t="s">
         <v>26</v>
       </c>
@@ -10093,7 +11190,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10113,8 +11210,13 @@
       <c r="G12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="10">
+        <v>1810000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>1086000</v>
+      </c>
       <c r="J12" s="16" t="s">
         <v>69</v>
       </c>
@@ -10122,7 +11224,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10142,8 +11244,13 @@
       <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="10">
+        <v>2360000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>1416000</v>
+      </c>
       <c r="J13" s="16" t="s">
         <v>69</v>
       </c>
@@ -10153,7 +11260,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10173,8 +11280,13 @@
       <c r="G14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="10">
+        <v>1390000</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>834000</v>
+      </c>
       <c r="J14" s="16" t="s">
         <v>69</v>
       </c>
@@ -10182,7 +11294,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10202,8 +11314,13 @@
       <c r="G15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="10">
+        <v>1400000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>840000</v>
+      </c>
       <c r="J15" s="16" t="s">
         <v>69</v>
       </c>
@@ -10211,36 +11328,41 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="52">
         <v>95095009661</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="12"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="55"/>
+      <c r="L16" s="54" t="s">
+        <v>110</v>
+      </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10260,8 +11382,13 @@
       <c r="G17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="10">
+        <v>1740000</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>1044000</v>
+      </c>
       <c r="J17" s="16" t="s">
         <v>69</v>
       </c>
@@ -10269,7 +11396,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10289,8 +11416,13 @@
       <c r="G18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="10">
+        <v>1690000</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>1014000</v>
+      </c>
       <c r="J18" s="47" t="s">
         <v>26</v>
       </c>
@@ -10300,7 +11432,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10320,16 +11452,21 @@
       <c r="G19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="16" t="s">
+      <c r="H19" s="10">
+        <v>1750000</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
+        <v>1050000</v>
+      </c>
+      <c r="J19" s="48" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -10350,16 +11487,20 @@
       <c r="G20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="47" t="s">
-        <v>26</v>
+      <c r="H20" s="10">
+        <v>1750000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>875000</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K20" s="35"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -10380,8 +11521,13 @@
       <c r="G21" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="10">
+        <v>1510000</v>
+      </c>
+      <c r="I21" s="10">
+        <f>H21*$E$26</f>
+        <v>906000</v>
+      </c>
       <c r="J21" s="16" t="s">
         <v>69</v>
       </c>
@@ -10389,7 +11535,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10409,8 +11555,12 @@
       <c r="G22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="10">
+        <v>1360000</v>
+      </c>
+      <c r="I22" s="10">
+        <v>817000</v>
+      </c>
       <c r="J22" s="47" t="s">
         <v>26</v>
       </c>
@@ -10418,7 +11568,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10438,8 +11588,13 @@
       <c r="G23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="10">
+        <v>1350000</v>
+      </c>
+      <c r="I23" s="10">
+        <f>H23*$E$26</f>
+        <v>810000</v>
+      </c>
       <c r="J23" s="47" t="s">
         <v>26</v>
       </c>
@@ -10447,7 +11602,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10455,13 +11610,16 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="10">
+        <f>H24*$E$26</f>
+        <v>0</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -10471,23 +11629,23 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="54" t="s">
+        <v>28500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>0</v>
+        <v>16918000</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -10500,22 +11658,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -10523,62 +11681,62 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728A953-6CAA-4CBD-BDA0-64A6A3E1BC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC5DEE7-EE71-4474-9198-B8FD9D5D2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="116">
   <si>
     <t>STT</t>
   </si>
@@ -345,12 +345,6 @@
     <t>DOANH THU 07/01/2026</t>
   </si>
   <si>
-    <t>ĐẠT</t>
-  </si>
-  <si>
-    <t>BÁC THAO</t>
-  </si>
-  <si>
     <t>DOANH THU 08/01/2026</t>
   </si>
   <si>
@@ -385,6 +379,19 @@
   </si>
   <si>
     <t>HUỲNH HOÀNG VŨ (Sun)</t>
+  </si>
+  <si>
+    <t>QUANG HÀ (Vin)</t>
+  </si>
+  <si>
+    <t>ĐẠT (Vin)</t>
+  </si>
+  <si>
+    <t>BÁC THAO (Vin)</t>
+  </si>
+  <si>
+    <t>Đức anh nhận 
+chuyển khoản</t>
   </si>
 </sst>
 </file>
@@ -707,7 +714,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -886,6 +893,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2991,7 +3001,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>185939</xdr:rowOff>
+      <xdr:rowOff>185940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3176,7 +3186,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148" tableBorderDxfId="147" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}"/>
+  <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*(Vin)"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="146" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="145" dataCellStyle="Normal"/>
@@ -3220,7 +3236,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*(Vin)"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="131" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="130" dataCellStyle="Normal"/>
@@ -3241,7 +3263,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*(Vin)"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="116" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="115" dataCellStyle="Normal"/>
@@ -3262,7 +3290,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*(Vin)"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
@@ -3283,7 +3317,13 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*(Vin)"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
@@ -3304,7 +3344,13 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*(Vin)"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
@@ -3325,7 +3371,13 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*(Vin)*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
@@ -3346,7 +3398,13 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*vin*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
@@ -3655,7 +3713,7 @@
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="I18" sqref="I8:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,7 +3803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -3812,7 +3870,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3846,7 +3904,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3914,7 +3972,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3948,7 +4006,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3981,7 +4039,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4015,7 +4073,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4049,7 +4107,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4083,7 +4141,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4151,7 +4209,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4185,7 +4243,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4202,7 +4260,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4219,7 +4277,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4241,7 +4299,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4363,7 +4421,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -4383,8 +4440,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4392,9 +4449,9 @@
     <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
@@ -4423,7 +4480,7 @@
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -4596,13 +4653,13 @@
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
       <c r="J10" s="60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K10" s="59" t="s">
         <v>86</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M10" s="56"/>
     </row>
@@ -4939,16 +4996,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3">
         <v>70081001153</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>83</v>
@@ -4968,16 +5025,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E23" s="3">
         <v>27068001194</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>82</v>
@@ -5148,7 +5205,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:XFD17"/>
+      <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,7 +5295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -5306,7 +5363,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -5339,7 +5396,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -5409,7 +5466,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5443,7 +5500,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5479,7 +5536,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5513,7 +5570,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5547,7 +5604,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5581,7 +5638,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5620,7 +5677,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>28</v>
@@ -5649,7 +5706,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5718,7 +5775,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>71</v>
       </c>
@@ -5727,7 +5784,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>76</v>
@@ -5755,7 +5812,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5788,7 +5845,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5821,7 +5878,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5981,7 +6038,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I17"/>
+      <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6071,7 +6128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -6138,7 +6195,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -6171,7 +6228,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -6243,7 +6300,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6277,7 +6334,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6313,7 +6370,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6346,7 +6403,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6380,7 +6437,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6414,7 +6471,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6454,7 +6511,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>28</v>
@@ -6483,7 +6540,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6550,7 +6607,7 @@
       <c r="L20" s="43"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -6584,7 +6641,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6617,7 +6674,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6650,7 +6707,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6809,7 +6866,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6899,7 +6956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -6968,7 +7025,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -7001,7 +7058,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B23" si="0">B9 +1</f>
         <v>4</v>
@@ -7072,7 +7129,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7106,7 +7163,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7142,7 +7199,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7176,7 +7233,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7210,7 +7267,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7244,7 +7301,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7316,7 +7373,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7384,7 +7441,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -7418,7 +7475,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7451,7 +7508,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7484,7 +7541,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7624,7 +7681,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7714,7 +7771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -7782,7 +7839,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7815,7 +7872,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7887,7 +7944,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7921,7 +7978,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7956,7 +8013,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7990,7 +8047,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8024,7 +8081,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8057,7 +8114,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8126,7 +8183,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8193,7 +8250,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -8228,7 +8285,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8261,7 +8318,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8294,7 +8351,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -8437,7 +8494,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:I21"/>
+      <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8527,7 +8584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -8596,7 +8653,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8630,7 +8687,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8702,7 +8759,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8736,7 +8793,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8772,7 +8829,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8806,7 +8863,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8840,7 +8897,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8874,7 +8931,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8945,7 +9002,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9012,7 +9069,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -9047,7 +9104,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9080,7 +9137,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9113,7 +9170,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9346,7 +9403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -9402,7 +9459,7 @@
         <v>2040000</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" ref="I8:I22" si="1">H8*$E$26</f>
+        <f t="shared" ref="I8:I21" si="1">H8*$E$26</f>
         <v>1224000</v>
       </c>
       <c r="J8" s="47" t="s">
@@ -9414,7 +9471,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9448,7 +9505,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9520,7 +9577,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9554,7 +9611,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9590,7 +9647,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9624,7 +9681,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9658,7 +9715,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9692,7 +9749,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9760,7 +9817,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9828,7 +9885,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -9869,7 +9926,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
@@ -9887,8 +9944,7 @@
         <v>930000</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="1"/>
-        <v>558000</v>
+        <v>540000</v>
       </c>
       <c r="J22" s="47" t="s">
         <v>26</v>
@@ -9903,7 +9959,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
@@ -9930,7 +9986,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9970,7 +10026,7 @@
       <c r="I27" s="64"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>18630000</v>
+        <v>18612000</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -10073,7 +10129,7 @@
   <dimension ref="A2:P59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:I21"/>
+      <selection activeCell="I8" sqref="I8:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10112,7 +10168,7 @@
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -10168,7 +10224,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -10242,7 +10298,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -10276,7 +10332,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10348,7 +10404,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10382,7 +10438,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10418,7 +10474,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10452,7 +10508,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10486,7 +10542,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10520,7 +10576,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10589,7 +10645,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10657,7 +10713,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -10698,16 +10754,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3">
         <v>70081001153</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>83</v>
@@ -10732,16 +10788,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E23" s="3">
         <v>27068001194</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>82</v>
@@ -10760,7 +10816,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10893,7 +10949,6 @@
     </row>
     <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -10914,8 +10969,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10954,7 +11009,7 @@
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -11354,11 +11409,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K16" s="55"/>
       <c r="L16" s="54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M16" s="12"/>
     </row>
@@ -11466,7 +11521,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -11493,11 +11548,13 @@
       <c r="I20" s="10">
         <v>875000</v>
       </c>
-      <c r="J20" s="45" t="s">
-        <v>72</v>
+      <c r="J20" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K20" s="35"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="65" t="s">
+        <v>115</v>
+      </c>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -11541,16 +11598,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3">
         <v>70081001153</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>83</v>
@@ -11574,16 +11631,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E23" s="3">
         <v>27068001194</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>82</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC5DEE7-EE71-4474-9198-B8FD9D5D2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EDD3AE-EC33-409B-B058-35B4FCC175EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="07-01" sheetId="11" r:id="rId7"/>
     <sheet name="08-01" sheetId="12" r:id="rId8"/>
     <sheet name="09-01" sheetId="13" r:id="rId9"/>
-    <sheet name="10-01" sheetId="14" r:id="rId10"/>
+    <sheet name="10-01" sheetId="14" state="hidden" r:id="rId10"/>
+    <sheet name="10-01 (1)" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -372,9 +373,6 @@
     <t>xin nghỉ thay đèn</t>
   </si>
   <si>
-    <t>xin nghỉ chịu tang</t>
-  </si>
-  <si>
     <t>DOANH THU 10/01/2026</t>
   </si>
   <si>
@@ -393,6 +391,24 @@
     <t>Đức anh nhận 
 chuyển khoản</t>
   </si>
+  <si>
+    <t>THỰC NHẬN</t>
+  </si>
+  <si>
+    <t>CÒN THIẾU</t>
+  </si>
+  <si>
+    <t>TỔNG THỰC NHẬN</t>
+  </si>
+  <si>
+    <t>NAM ĐẢO</t>
+  </si>
+  <si>
+    <t>BẮC ĐẢO</t>
+  </si>
+  <si>
+    <t>KHÔNG ĐI LÀM</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,8 +597,43 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,8 +686,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -707,6 +788,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -714,7 +849,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -867,19 +1002,180 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="16" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -894,7 +1190,19 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3001,7 +3309,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>185940</xdr:rowOff>
+      <xdr:rowOff>185939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3186,13 +3494,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}" name="Table1453" displayName="Table1453" ref="B6:M23" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148" tableBorderDxfId="147" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*(Vin)"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M23" xr:uid="{8259D2E9-CBBA-448C-8826-9D32D86A1C8E}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{E4641425-2A19-4B49-9673-70283C00A0C9}" name="STT" dataDxfId="146" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{025A0EEF-1CDF-4C0C-B939-08C1DD0A727D}" name="HỌ TÊN" dataDxfId="145" dataCellStyle="Normal"/>
@@ -3236,13 +3538,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0BE112E-9FFD-4DE3-AB43-DC2522DF0F97}" name="Table1452" displayName="Table1452" ref="B6:M24" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*(Vin)"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{A0647350-C5C2-4A5A-9CE6-9C91A4BF1448}" name="STT" dataDxfId="131" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{E5CB0A83-0EE8-4763-BEA5-F47D20895CEB}" name="HỌ TÊN" dataDxfId="130" dataCellStyle="Normal"/>
@@ -3263,13 +3559,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{811EE2EE-55E9-4D50-8E60-6BD69129A816}" name="Table14524" displayName="Table14524" ref="B6:M24" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*(Vin)"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{984C32DA-9CD0-4E13-B865-6EAED834D984}" name="STT" dataDxfId="116" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{F1DCB155-1D62-4027-A3DA-A9FBDBBDFC4D}" name="HỌ TÊN" dataDxfId="115" dataCellStyle="Normal"/>
@@ -3290,13 +3580,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{49B02BE1-C610-460C-B461-D64E7BB29649}" name="Table145245" displayName="Table145245" ref="B6:M24" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*(Vin)"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DF404508-0107-419A-8FEC-EFB55BF001F1}" name="STT" dataDxfId="101" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{2D3FD697-D6D5-47C8-8441-D73D89975778}" name="HỌ TÊN" dataDxfId="100" dataCellStyle="Normal"/>
@@ -3317,13 +3601,7 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6D51770-D13F-4F99-B376-86240AE4A636}" name="Table1452456" displayName="Table1452456" ref="B6:M24" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*(Vin)"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{021C7381-52B0-487C-BDC0-1BFAE6723B42}" name="STT" dataDxfId="86" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{FCC93C85-2562-4DEC-8FE4-78554E01B098}" name="HỌ TÊN" dataDxfId="85" dataCellStyle="Normal"/>
@@ -3344,13 +3622,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{704C3A58-D406-453F-8AC1-A5B4A47BB0C4}" name="Table14524567" displayName="Table14524567" ref="B6:M24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*(Vin)"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{395E0AEF-65DD-4F52-8E14-3F35D9FC3368}" name="STT" dataDxfId="71" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{9AE4DC19-F9B6-43F0-A90F-B4F19B4ECECB}" name="HỌ TÊN" dataDxfId="70" dataCellStyle="Normal"/>
@@ -3371,13 +3643,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{500679E0-EE2D-4EE0-8D49-BD93EAE287BF}" name="Table145245678" displayName="Table145245678" ref="B6:M24" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*(Vin)*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{FE5E9CEF-58C1-4672-8B6E-C5046C4F970F}" name="STT" dataDxfId="56" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{A2DA5362-86C1-4D95-969F-62FCF30900C9}" name="HỌ TÊN" dataDxfId="55" dataCellStyle="Normal"/>
@@ -3398,13 +3664,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F6B294FA-FBE8-4560-9B90-DC686FD21438}" name="Table1452456789" displayName="Table1452456789" ref="B6:M24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="*vin*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:M24" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{AF0208C4-E4FE-4DFD-BAF4-BF1165EEA465}" name="STT" dataDxfId="41" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{CDE784D9-BEC1-45FE-9CFA-FBFFA9772F9D}" name="HỌ TÊN" dataDxfId="40" dataCellStyle="Normal"/>
@@ -3713,7 +3973,7 @@
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I8:I18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,32 +3995,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -3803,7 +4063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -3870,7 +4130,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3904,7 +4164,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3972,7 +4232,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4006,7 +4266,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4039,7 +4299,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4073,7 +4333,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4107,7 +4367,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4141,7 +4401,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4209,7 +4469,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4243,7 +4503,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4260,7 +4520,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4277,7 +4537,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4299,7 +4559,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4331,20 +4591,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="64" t="s">
+      <c r="H25" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="64"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -4441,7 +4701,7 @@
   <dimension ref="A2:P59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,13 +4709,13 @@
     <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
@@ -4465,32 +4725,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="B3" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -4543,22 +4803,26 @@
       <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="57">
         <v>38096003688</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="45" t="s">
-        <v>72</v>
+      <c r="H7" s="10">
+        <v>2060000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1230000</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="12"/>
@@ -4575,22 +4839,26 @@
       <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="57">
         <v>91203011680</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="45" t="s">
-        <v>72</v>
+      <c r="H8" s="10">
+        <v>1890000</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1135000</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>72</v>
@@ -4609,20 +4877,25 @@
       <c r="C9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="57">
         <v>89078016404</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10">
+        <v>1810000</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" ref="I9:I23" si="1">H9*$E$26</f>
+        <v>1086000</v>
+      </c>
       <c r="J9" s="45" t="s">
         <v>72</v>
       </c>
@@ -4635,33 +4908,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <v>89099008054</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" s="56"/>
+      <c r="H10" s="10">
+        <v>2980000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>1788000</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -4671,22 +4945,27 @@
       <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="57">
         <v>91088020664</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="45" t="s">
-        <v>72</v>
+      <c r="H11" s="10">
+        <v>750000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>72</v>
@@ -4702,21 +4981,26 @@
       <c r="C12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="58">
         <v>89082022656</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="16" t="s">
+      <c r="H12" s="10">
+        <v>1630000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>978000</v>
+      </c>
+      <c r="J12" s="62" t="s">
         <v>69</v>
       </c>
       <c r="K12" s="2"/>
@@ -4731,21 +5015,26 @@
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="58">
         <v>42088019031</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="16" t="s">
+      <c r="H13" s="10">
+        <v>1960000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>1176000</v>
+      </c>
+      <c r="J13" s="48" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="33" t="s">
@@ -4762,22 +5051,26 @@
       <c r="C14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="58">
         <v>49202008987</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="45" t="s">
-        <v>72</v>
+      <c r="H14" s="10">
+        <v>3249000</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1950000</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="12"/>
@@ -4791,22 +5084,27 @@
       <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="58">
         <v>93097001330</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="45" t="s">
-        <v>72</v>
+      <c r="H15" s="10">
+        <v>1800000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>1080000</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="12"/>
@@ -4820,21 +5118,26 @@
       <c r="C16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="58">
         <v>95095009661</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="16" t="s">
+      <c r="H16" s="10">
+        <v>1950000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>1170000</v>
+      </c>
+      <c r="J16" s="62" t="s">
         <v>69</v>
       </c>
       <c r="K16" s="2"/>
@@ -4849,21 +5152,26 @@
       <c r="C17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="59">
         <v>91085001515</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="16" t="s">
+      <c r="H17" s="10">
+        <v>1780000</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>1068000</v>
+      </c>
+      <c r="J17" s="62" t="s">
         <v>69</v>
       </c>
       <c r="K17" s="2"/>
@@ -4878,22 +5186,27 @@
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="58">
         <v>42094001136</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="45" t="s">
-        <v>72</v>
+      <c r="H18" s="10">
+        <v>1550000</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>930000</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>72</v>
@@ -4909,21 +5222,25 @@
       <c r="C19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="48" t="s">
+      <c r="H19" s="10">
+        <v>2110000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1260000</v>
+      </c>
+      <c r="J19" s="62" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="12"/>
@@ -4939,22 +5256,25 @@
       <c r="C20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="58">
         <v>38085004911</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="61" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="47" t="s">
-        <v>26</v>
+      <c r="I20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K20" s="35"/>
       <c r="L20" s="12"/>
@@ -4969,22 +5289,25 @@
       <c r="C21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="44" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="60" t="s">
         <v>93</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="16" t="s">
-        <v>69</v>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="12"/>
@@ -4998,20 +5321,25 @@
       <c r="C22" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="44">
         <v>70081001153</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="10">
+        <v>1550000</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="1"/>
+        <v>930000</v>
+      </c>
       <c r="J22" s="47" t="s">
         <v>26</v>
       </c>
@@ -5027,22 +5355,27 @@
       <c r="C23" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="44">
         <v>27068001194</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="45" t="s">
-        <v>72</v>
+      <c r="H23" s="10">
+        <v>1800000</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="1"/>
+        <v>1080000</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -5066,7 +5399,7 @@
       <c r="M24" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="24">
@@ -5075,23 +5408,23 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
-        <v>0</v>
+        <v>28869000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>0</v>
+        <v>17311000</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -5118,13 +5451,13 @@
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="D46" s="45" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5196,6 +5529,1009 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9E8C80-CBE2-48BF-843C-1350BA3E0031}">
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="98">
+        <v>1</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="101">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="102">
+        <v>1890000</v>
+      </c>
+      <c r="I7" s="102">
+        <v>1135000</v>
+      </c>
+      <c r="J7" s="102">
+        <v>1135000</v>
+      </c>
+      <c r="K7" s="108">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="123"/>
+      <c r="B8" s="70">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="72">
+        <v>91088020664</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="74">
+        <v>750000</v>
+      </c>
+      <c r="I8" s="74">
+        <f>H8*$N$4</f>
+        <v>450000</v>
+      </c>
+      <c r="J8" s="74">
+        <v>450000</v>
+      </c>
+      <c r="K8" s="108">
+        <f t="shared" ref="K8:K26" si="0">I8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="123"/>
+      <c r="B9" s="64">
+        <f t="shared" ref="B9:B12" si="1">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="68">
+        <v>1550000</v>
+      </c>
+      <c r="I9" s="68">
+        <f>H9*$N$4</f>
+        <v>930000</v>
+      </c>
+      <c r="J9" s="74">
+        <v>930000</v>
+      </c>
+      <c r="K9" s="108">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="123"/>
+      <c r="B10" s="70">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="111">
+        <v>38085004911</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112">
+        <f>H10*$N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="115"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="123"/>
+      <c r="B11" s="64">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="68">
+        <v>1550000</v>
+      </c>
+      <c r="I11" s="68">
+        <f>H11*$N$4</f>
+        <v>930000</v>
+      </c>
+      <c r="J11" s="74">
+        <v>930000</v>
+      </c>
+      <c r="K11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="83"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="123"/>
+      <c r="B12" s="70">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="74">
+        <v>1800000</v>
+      </c>
+      <c r="I12" s="74">
+        <f>H12*$N$4</f>
+        <v>1080000</v>
+      </c>
+      <c r="J12" s="74">
+        <v>1080000</v>
+      </c>
+      <c r="K12" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="84"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="123"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="124"/>
+      <c r="B16" s="64">
+        <v>1</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="68">
+        <v>2060000</v>
+      </c>
+      <c r="I16" s="68">
+        <v>1230000</v>
+      </c>
+      <c r="J16" s="68">
+        <v>1230000</v>
+      </c>
+      <c r="K16" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="124"/>
+      <c r="B17" s="64">
+        <f>B16+1</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="68">
+        <v>1810000</v>
+      </c>
+      <c r="I17" s="68">
+        <v>1086000</v>
+      </c>
+      <c r="J17" s="68">
+        <v>1086000</v>
+      </c>
+      <c r="K17" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="124"/>
+      <c r="B18" s="64">
+        <f t="shared" ref="B18:B26" si="2">B17+1</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="74">
+        <v>2980000</v>
+      </c>
+      <c r="I18" s="74">
+        <v>1788000</v>
+      </c>
+      <c r="J18" s="74">
+        <v>1788000</v>
+      </c>
+      <c r="K18" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="124"/>
+      <c r="B19" s="64">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="75">
+        <v>89082022656</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="68">
+        <v>1630000</v>
+      </c>
+      <c r="I19" s="68">
+        <v>978000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>978000</v>
+      </c>
+      <c r="K19" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="76"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="124"/>
+      <c r="B20" s="64">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="68">
+        <v>1960000</v>
+      </c>
+      <c r="I20" s="68">
+        <v>1176000</v>
+      </c>
+      <c r="J20" s="74">
+        <v>1176000</v>
+      </c>
+      <c r="K20" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="124"/>
+      <c r="B21" s="64">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="68">
+        <v>3249000</v>
+      </c>
+      <c r="I21" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="J21" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="K21" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="124"/>
+      <c r="B22" s="64">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="75">
+        <v>93097001330</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="68">
+        <v>1800000</v>
+      </c>
+      <c r="I22" s="68">
+        <v>1080000</v>
+      </c>
+      <c r="J22" s="74">
+        <v>1080000</v>
+      </c>
+      <c r="K22" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="124"/>
+      <c r="B23" s="64">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F23" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="I23" s="68">
+        <v>1170000</v>
+      </c>
+      <c r="J23" s="74">
+        <v>1170000</v>
+      </c>
+      <c r="K23" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="80"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="124"/>
+      <c r="B24" s="64">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="68">
+        <v>1780000</v>
+      </c>
+      <c r="I24" s="68">
+        <v>1068000</v>
+      </c>
+      <c r="J24" s="74">
+        <v>1068000</v>
+      </c>
+      <c r="K24" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="124"/>
+      <c r="B25" s="64">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="68">
+        <v>2110000</v>
+      </c>
+      <c r="I25" s="68">
+        <v>1260000</v>
+      </c>
+      <c r="J25" s="68">
+        <v>1260000</v>
+      </c>
+      <c r="K25" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="83"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="124"/>
+      <c r="B26" s="64">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="74">
+        <v>700000</v>
+      </c>
+      <c r="I26" s="74">
+        <f>H26*$N$4</f>
+        <v>420000</v>
+      </c>
+      <c r="J26" s="74">
+        <v>420000</v>
+      </c>
+      <c r="K26" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="84"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="121"/>
+      <c r="J28" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>29569000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="121"/>
+      <c r="J29" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>17731000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="121"/>
+      <c r="J30" s="63">
+        <f>SUM(J7:J26)</f>
+        <v>17731000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H28:I28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5227,32 +6563,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5295,7 +6631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -5363,7 +6699,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -5396,7 +6732,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -5466,7 +6802,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5500,7 +6836,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5536,7 +6872,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5570,7 +6906,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5604,7 +6940,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5638,7 +6974,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5677,7 +7013,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>28</v>
@@ -5706,7 +7042,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5775,7 +7111,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>71</v>
       </c>
@@ -5784,7 +7120,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>76</v>
@@ -5812,7 +7148,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5845,7 +7181,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5878,7 +7214,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5921,20 +7257,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -6038,7 +7374,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6060,32 +7396,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -6128,7 +7464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -6195,7 +7531,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -6228,7 +7564,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -6300,7 +7636,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6334,7 +7670,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6370,7 +7706,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6403,7 +7739,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6437,7 +7773,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6471,7 +7807,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6511,7 +7847,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>28</v>
@@ -6540,7 +7876,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6607,7 +7943,7 @@
       <c r="L20" s="43"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -6641,7 +7977,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6674,7 +8010,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6707,7 +8043,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6750,20 +8086,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -6866,7 +8202,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6888,32 +8224,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -6956,7 +8292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -7025,7 +8361,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -7058,7 +8394,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B23" si="0">B9 +1</f>
         <v>4</v>
@@ -7129,7 +8465,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7163,7 +8499,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7199,7 +8535,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7233,7 +8569,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7267,7 +8603,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7301,7 +8637,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7373,7 +8709,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7441,7 +8777,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -7475,7 +8811,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7508,7 +8844,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7541,7 +8877,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -7565,20 +8901,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -7681,7 +9017,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7703,32 +9039,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -7771,7 +9107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -7839,7 +9175,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7872,7 +9208,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7944,7 +9280,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7978,7 +9314,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8013,7 +9349,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8047,7 +9383,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8081,7 +9417,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8114,7 +9450,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8183,7 +9519,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8250,7 +9586,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -8285,7 +9621,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8318,7 +9654,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8351,7 +9687,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -8375,20 +9711,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -8494,7 +9830,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8516,32 +9852,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -8584,7 +9920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -8653,7 +9989,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8687,7 +10023,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8759,7 +10095,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8793,7 +10129,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8829,7 +10165,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8863,7 +10199,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8897,7 +10233,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8931,7 +10267,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9002,7 +10338,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9069,7 +10405,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -9104,7 +10440,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9137,7 +10473,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9170,7 +10506,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -9194,20 +10530,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -9313,7 +10649,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9335,32 +10671,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -9403,7 +10739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -9471,7 +10807,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9505,7 +10841,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9577,7 +10913,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9611,7 +10947,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9647,7 +10983,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9681,7 +11017,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9715,7 +11051,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9749,7 +11085,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9817,7 +11153,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9885,7 +11221,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -9926,7 +11262,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
@@ -9959,7 +11295,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
@@ -9986,7 +11322,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10010,20 +11346,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18612000</v>
@@ -10153,32 +11489,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -10224,7 +11560,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -10298,7 +11634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -10332,7 +11668,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10404,7 +11740,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10438,7 +11774,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10474,7 +11810,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10508,7 +11844,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10542,7 +11878,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10576,7 +11912,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10645,7 +11981,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10713,7 +12049,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -10816,7 +12152,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10840,20 +12176,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -10969,8 +12305,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10994,32 +12330,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -11552,8 +12888,8 @@
         <v>26</v>
       </c>
       <c r="K20" s="35"/>
-      <c r="L20" s="65" t="s">
-        <v>115</v>
+      <c r="L20" s="56" t="s">
+        <v>114</v>
       </c>
       <c r="M20" s="12"/>
     </row>
@@ -11686,20 +13022,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>16918000</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EDD3AE-EC33-409B-B058-35B4FCC175EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53654D15-6217-472D-B228-0AC127CC50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="09-01" sheetId="13" r:id="rId9"/>
     <sheet name="10-01" sheetId="14" state="hidden" r:id="rId10"/>
     <sheet name="10-01 (1)" sheetId="15" r:id="rId11"/>
+    <sheet name="11-01 " sheetId="16" r:id="rId12"/>
+    <sheet name="12-01" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -409,6 +411,12 @@
   <si>
     <t>KHÔNG ĐI LÀM</t>
   </si>
+  <si>
+    <t>DOANH THU 11/01/2026</t>
+  </si>
+  <si>
+    <t>Nghỉ luôn sau 11-01</t>
+  </si>
 </sst>
 </file>
 
@@ -633,7 +641,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +722,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -849,7 +863,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1178,6 +1192,19 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,6 +1232,13 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3995,32 +4029,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -4591,20 +4625,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="119" t="s">
+      <c r="H25" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="119"/>
+      <c r="I25" s="124"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -4681,6 +4715,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -4725,32 +4760,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5408,20 +5443,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28869000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17311000</v>
@@ -5534,10 +5569,1018 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9E8C80-CBE2-48BF-843C-1350BA3E0031}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="98">
+        <v>1</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="101">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="102">
+        <v>1890000</v>
+      </c>
+      <c r="I7" s="102">
+        <v>1135000</v>
+      </c>
+      <c r="J7" s="102">
+        <v>1135000</v>
+      </c>
+      <c r="K7" s="108">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="128"/>
+      <c r="B8" s="70">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="72">
+        <v>91088020664</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="74">
+        <v>750000</v>
+      </c>
+      <c r="I8" s="74">
+        <f>H8*$N$4</f>
+        <v>450000</v>
+      </c>
+      <c r="J8" s="74">
+        <v>450000</v>
+      </c>
+      <c r="K8" s="108">
+        <f t="shared" ref="K8:K26" si="0">I8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="79"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="128"/>
+      <c r="B9" s="64">
+        <f t="shared" ref="B9:B12" si="1">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="68">
+        <v>1550000</v>
+      </c>
+      <c r="I9" s="68">
+        <f>H9*$N$4</f>
+        <v>930000</v>
+      </c>
+      <c r="J9" s="74">
+        <v>930000</v>
+      </c>
+      <c r="K9" s="108">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="128"/>
+      <c r="B10" s="70">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="111">
+        <v>38085004911</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112">
+        <f>H10*$N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="115"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="128"/>
+      <c r="B11" s="64">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="68">
+        <v>1550000</v>
+      </c>
+      <c r="I11" s="68">
+        <f>H11*$N$4</f>
+        <v>930000</v>
+      </c>
+      <c r="J11" s="74">
+        <v>930000</v>
+      </c>
+      <c r="K11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="83"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="128"/>
+      <c r="B12" s="70">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="74">
+        <v>1800000</v>
+      </c>
+      <c r="I12" s="74">
+        <f>H12*$N$4</f>
+        <v>1080000</v>
+      </c>
+      <c r="J12" s="74">
+        <v>1080000</v>
+      </c>
+      <c r="K12" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="84"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="128"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="129"/>
+      <c r="B16" s="64">
+        <v>1</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="68">
+        <v>2060000</v>
+      </c>
+      <c r="I16" s="68">
+        <v>1230000</v>
+      </c>
+      <c r="J16" s="68">
+        <v>1230000</v>
+      </c>
+      <c r="K16" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="129"/>
+      <c r="B17" s="64">
+        <f>B16+1</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="68">
+        <v>1810000</v>
+      </c>
+      <c r="I17" s="68">
+        <v>1086000</v>
+      </c>
+      <c r="J17" s="68">
+        <v>1086000</v>
+      </c>
+      <c r="K17" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="129"/>
+      <c r="B18" s="64">
+        <f t="shared" ref="B18:B26" si="2">B17+1</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="74">
+        <v>2980000</v>
+      </c>
+      <c r="I18" s="74">
+        <v>1788000</v>
+      </c>
+      <c r="J18" s="74">
+        <v>1788000</v>
+      </c>
+      <c r="K18" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="129"/>
+      <c r="B19" s="64">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="75">
+        <v>89082022656</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="68">
+        <v>1630000</v>
+      </c>
+      <c r="I19" s="68">
+        <v>978000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>978000</v>
+      </c>
+      <c r="K19" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="76"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="129"/>
+      <c r="B20" s="64">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="68">
+        <v>1960000</v>
+      </c>
+      <c r="I20" s="68">
+        <v>1176000</v>
+      </c>
+      <c r="J20" s="74">
+        <v>1176000</v>
+      </c>
+      <c r="K20" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="129"/>
+      <c r="B21" s="64">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="68">
+        <v>3249000</v>
+      </c>
+      <c r="I21" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="J21" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="K21" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="129"/>
+      <c r="B22" s="64">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="75">
+        <v>93097001330</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="68">
+        <v>1800000</v>
+      </c>
+      <c r="I22" s="68">
+        <v>1080000</v>
+      </c>
+      <c r="J22" s="74">
+        <v>1080000</v>
+      </c>
+      <c r="K22" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="129"/>
+      <c r="B23" s="64">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F23" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="I23" s="68">
+        <v>1170000</v>
+      </c>
+      <c r="J23" s="74">
+        <v>1170000</v>
+      </c>
+      <c r="K23" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="80"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="129"/>
+      <c r="B24" s="64">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="68">
+        <v>1780000</v>
+      </c>
+      <c r="I24" s="68">
+        <v>1068000</v>
+      </c>
+      <c r="J24" s="74">
+        <v>1068000</v>
+      </c>
+      <c r="K24" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="129"/>
+      <c r="B25" s="64">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="68">
+        <v>2110000</v>
+      </c>
+      <c r="I25" s="68">
+        <v>1260000</v>
+      </c>
+      <c r="J25" s="68">
+        <v>1260000</v>
+      </c>
+      <c r="K25" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="83"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="129"/>
+      <c r="B26" s="64">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="74">
+        <v>700000</v>
+      </c>
+      <c r="I26" s="74">
+        <f>H26*$N$4</f>
+        <v>420000</v>
+      </c>
+      <c r="J26" s="74">
+        <v>420000</v>
+      </c>
+      <c r="K26" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="84"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="125" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="126"/>
+      <c r="J28" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>29569000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="126"/>
+      <c r="J29" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>17731000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="126"/>
+      <c r="J30" s="63">
+        <f>SUM(J7:J26)</f>
+        <v>17731000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="7">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="H28:I28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB60DAD-28C5-4E7E-A3E5-3D266A1857D5}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,58 +6615,46 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="B3" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="1"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="H4" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="1"/>
       <c r="M4" s="23" t="s">
         <v>65</v>
@@ -5699,265 +6730,241 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="64">
         <v>1</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="67">
         <v>91203011680</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="102">
-        <v>1890000</v>
-      </c>
-      <c r="I7" s="102">
-        <v>1135000</v>
-      </c>
-      <c r="J7" s="102">
-        <v>1135000</v>
-      </c>
-      <c r="K7" s="108">
+      <c r="H7" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="I7" s="68">
+        <f>H7*N$4</f>
+        <v>1170000</v>
+      </c>
+      <c r="J7" s="68">
+        <v>1170000</v>
+      </c>
+      <c r="K7" s="68">
         <f>I7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
       <c r="O7" s="1"/>
       <c r="P7" s="88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="70">
+      <c r="A8" s="128"/>
+      <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="72">
-        <v>91088020664</v>
-      </c>
-      <c r="F8" s="73" t="s">
+      <c r="C8" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="74">
-        <v>750000</v>
-      </c>
-      <c r="I8" s="74">
-        <f>H8*$N$4</f>
-        <v>450000</v>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="68">
+        <v>1860000</v>
+      </c>
+      <c r="I8" s="68">
+        <f t="shared" ref="I8:I11" si="0">H8*N$4</f>
+        <v>1116000</v>
       </c>
       <c r="J8" s="74">
-        <v>450000</v>
-      </c>
-      <c r="K8" s="108">
-        <f t="shared" ref="K8:K26" si="0">I8-J8</f>
+        <v>1116000</v>
+      </c>
+      <c r="K8" s="68">
+        <f>I8-J8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
       <c r="O8" s="1"/>
       <c r="P8" s="82" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="64">
-        <f t="shared" ref="B9:B12" si="1">B8+1</f>
+      <c r="A9" s="128"/>
+      <c r="B9" s="70">
+        <f>B8+1</f>
         <v>3</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="75">
-        <v>42094001136</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="68">
-        <v>1550000</v>
-      </c>
-      <c r="I9" s="68">
-        <f>H9*$N$4</f>
-        <v>930000</v>
-      </c>
-      <c r="J9" s="74">
-        <v>930000</v>
-      </c>
-      <c r="K9" s="108">
+      <c r="C9" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="111">
+        <v>38085004911</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="112"/>
+      <c r="I9" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="112"/>
+      <c r="K9" s="119">
         <f>I9-J9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
+      <c r="L9" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="115"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="70">
-        <f t="shared" si="1"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="64">
+        <f>B9+1</f>
         <v>4</v>
       </c>
-      <c r="C10" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="111">
-        <v>38085004911</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112">
-        <f>H10*$N$4</f>
+      <c r="C10" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="68">
+        <v>1500000</v>
+      </c>
+      <c r="I10" s="68">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="J10" s="74">
+        <v>900000</v>
+      </c>
+      <c r="K10" s="68">
+        <f>I10-J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="M10" s="115"/>
-      <c r="N10" s="79"/>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="64">
-        <f t="shared" si="1"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="70">
+        <f>B10+1</f>
         <v>5</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="66">
-        <v>70081001153</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="68">
-        <v>1550000</v>
+      <c r="C11" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="74">
+        <v>1650000</v>
       </c>
       <c r="I11" s="68">
-        <f>H11*$N$4</f>
-        <v>930000</v>
+        <f t="shared" si="0"/>
+        <v>990000</v>
       </c>
       <c r="J11" s="74">
-        <v>930000</v>
-      </c>
-      <c r="K11" s="108">
-        <f t="shared" si="0"/>
+        <v>990000</v>
+      </c>
+      <c r="K11" s="68">
+        <f>I11-J11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="76"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="70">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="73">
-        <v>27068001194</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="74">
-        <v>1800000</v>
-      </c>
-      <c r="I12" s="74">
-        <f>H12*$N$4</f>
-        <v>1080000</v>
-      </c>
-      <c r="J12" s="74">
-        <v>1080000</v>
-      </c>
-      <c r="K12" s="108">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="84"/>
-      <c r="N12" s="79"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -5967,7 +6974,7 @@
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
       <c r="J13" s="74"/>
-      <c r="K13" s="108"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="76"/>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
@@ -5984,7 +6991,7 @@
       <c r="G14" s="93"/>
       <c r="H14" s="94"/>
       <c r="I14" s="94"/>
-      <c r="J14" s="95"/>
+      <c r="J14" s="97"/>
       <c r="K14" s="96"/>
       <c r="L14" s="96"/>
       <c r="M14" s="97"/>
@@ -5993,56 +7000,82 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="76"/>
+      <c r="B15" s="64">
+        <v>1</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="68">
+        <v>1800000</v>
+      </c>
+      <c r="I15" s="68">
+        <f t="shared" ref="I15:I25" si="1">H15*N$4</f>
+        <v>1080000</v>
+      </c>
+      <c r="J15" s="68">
+        <v>1080000</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" ref="K15:K23" si="2">I15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="76" t="s">
+        <v>69</v>
+      </c>
       <c r="M15" s="76"/>
       <c r="N15" s="76"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="64">
-        <v>1</v>
+        <f>B15+1</f>
+        <v>2</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="67">
-        <v>38096003688</v>
+        <v>89078016404</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" s="68">
-        <v>2060000</v>
+        <v>2400000</v>
       </c>
       <c r="I16" s="68">
-        <v>1230000</v>
+        <f t="shared" si="1"/>
+        <v>1440000</v>
       </c>
       <c r="J16" s="68">
-        <v>1230000</v>
-      </c>
-      <c r="K16" s="108">
-        <f t="shared" si="0"/>
+        <v>1440000</v>
+      </c>
+      <c r="K16" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="76" t="s">
@@ -6054,334 +7087,340 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="64">
-        <f>B16+1</f>
-        <v>2</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="67">
-        <v>89078016404</v>
-      </c>
-      <c r="F17" s="66" t="s">
+        <f t="shared" ref="B17:B26" si="3">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F17" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="68">
-        <v>1810000</v>
+      <c r="G17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="74">
+        <v>2910000</v>
       </c>
       <c r="I17" s="68">
-        <v>1086000</v>
-      </c>
-      <c r="J17" s="68">
-        <v>1086000</v>
-      </c>
-      <c r="K17" s="108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>1746000</v>
+      </c>
+      <c r="J17" s="74">
+        <v>1746000</v>
+      </c>
+      <c r="K17" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="64">
-        <f t="shared" ref="B18:B26" si="2">B17+1</f>
-        <v>3</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="72">
-        <v>89099008054</v>
-      </c>
-      <c r="F18" s="73" t="s">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="75">
+        <v>89082022656</v>
+      </c>
+      <c r="F18" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="74">
-        <v>2980000</v>
-      </c>
-      <c r="I18" s="74">
-        <v>1788000</v>
+      <c r="G18" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="68">
+        <v>2050000</v>
+      </c>
+      <c r="I18" s="68">
+        <f t="shared" si="1"/>
+        <v>1230000</v>
       </c>
       <c r="J18" s="74">
-        <v>1788000</v>
-      </c>
-      <c r="K18" s="108">
-        <f t="shared" si="0"/>
+        <v>1230000</v>
+      </c>
+      <c r="K18" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="85"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="I19" s="68">
+        <f t="shared" si="1"/>
+        <v>1170000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>1170000</v>
+      </c>
+      <c r="K19" s="68">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="75">
-        <v>89082022656</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="68">
-        <v>1630000</v>
-      </c>
-      <c r="I19" s="68">
-        <v>978000</v>
-      </c>
-      <c r="J19" s="74">
-        <v>978000</v>
-      </c>
-      <c r="K19" s="108">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="76" t="s">
         <v>69</v>
       </c>
       <c r="M19" s="76"/>
-      <c r="N19" s="85"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="64">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="68">
+        <v>1710000</v>
+      </c>
+      <c r="I20" s="68">
+        <f t="shared" si="1"/>
+        <v>1026000</v>
+      </c>
+      <c r="J20" s="68">
+        <v>1026000</v>
+      </c>
+      <c r="K20" s="68">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="75">
-        <v>42088019031</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="68">
-        <v>1960000</v>
-      </c>
-      <c r="I20" s="68">
-        <v>1176000</v>
-      </c>
-      <c r="J20" s="74">
-        <v>1176000</v>
-      </c>
-      <c r="K20" s="108">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="80" t="s">
+      <c r="L20" s="76" t="s">
         <v>69</v>
       </c>
       <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
+      <c r="N20" s="85"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="64">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E21" s="75">
-        <v>49202008987</v>
+        <v>93097001330</v>
       </c>
       <c r="F21" s="75" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G21" s="75" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H21" s="68">
-        <v>3249000</v>
+        <v>1830000</v>
       </c>
       <c r="I21" s="68">
-        <v>1950000</v>
-      </c>
-      <c r="J21" s="68">
-        <v>1950000</v>
-      </c>
-      <c r="K21" s="108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>1098000</v>
+      </c>
+      <c r="J21" s="74">
+        <v>1100000</v>
+      </c>
+      <c r="K21" s="68">
         <v>0</v>
       </c>
       <c r="L21" s="76" t="s">
         <v>69</v>
       </c>
       <c r="M21" s="76"/>
-      <c r="N21" s="85"/>
+      <c r="N21" s="76"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="64">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="68">
+        <v>1830000</v>
+      </c>
+      <c r="I22" s="68">
+        <f t="shared" si="1"/>
+        <v>1098000</v>
+      </c>
+      <c r="J22" s="74">
+        <v>1098000</v>
+      </c>
+      <c r="K22" s="68">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="75">
-        <v>93097001330</v>
-      </c>
-      <c r="F22" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="68">
-        <v>1800000</v>
-      </c>
-      <c r="I22" s="68">
-        <v>1080000</v>
-      </c>
-      <c r="J22" s="74">
-        <v>1080000</v>
-      </c>
-      <c r="K22" s="108">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="76"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="76"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="64">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="68">
+        <v>1700000</v>
+      </c>
+      <c r="I23" s="68">
+        <f t="shared" si="1"/>
+        <v>1020000</v>
+      </c>
+      <c r="J23" s="74">
+        <v>1020000</v>
+      </c>
+      <c r="K23" s="68">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="75">
-        <v>95095009661</v>
-      </c>
-      <c r="F23" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="68">
-        <v>1950000</v>
-      </c>
-      <c r="I23" s="68">
-        <v>1170000</v>
-      </c>
-      <c r="J23" s="74">
-        <v>1170000</v>
-      </c>
-      <c r="K23" s="108">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="76" t="s">
+      <c r="L23" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="80"/>
+      <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="64">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="81">
-        <v>91085001515</v>
-      </c>
-      <c r="F24" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="H24" s="68">
-        <v>1780000</v>
+        <v>2090000</v>
       </c>
       <c r="I24" s="68">
-        <v>1068000</v>
-      </c>
-      <c r="J24" s="74">
-        <v>1068000</v>
-      </c>
-      <c r="K24" s="108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>1254000</v>
+      </c>
+      <c r="J24" s="68">
+        <v>1260000</v>
+      </c>
+      <c r="K24" s="68">
         <v>0</v>
       </c>
-      <c r="L24" s="76" t="s">
+      <c r="L24" s="80" t="s">
         <v>69</v>
       </c>
       <c r="M24" s="76"/>
@@ -6390,87 +7429,68 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="64">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="68">
-        <v>2110000</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="74">
+        <v>2750000</v>
       </c>
       <c r="I25" s="68">
-        <v>1260000</v>
-      </c>
-      <c r="J25" s="68">
-        <v>1260000</v>
-      </c>
-      <c r="K25" s="108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>1650000</v>
+      </c>
+      <c r="J25" s="74">
+        <v>1650000</v>
+      </c>
+      <c r="K25" s="68">
+        <f>I25-J25</f>
         <v>0</v>
       </c>
       <c r="L25" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="76"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="64">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="74">
-        <v>700000</v>
-      </c>
-      <c r="I26" s="74">
-        <f>H26*$N$4</f>
-        <v>420000</v>
-      </c>
-      <c r="J26" s="74">
-        <v>420000</v>
-      </c>
-      <c r="K26" s="108">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="84"/>
-      <c r="N26" s="79"/>
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -6480,33 +7500,33 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="120" t="s">
+      <c r="H28" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="121"/>
+      <c r="I28" s="126"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
-        <v>29569000</v>
+        <v>29980000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="120" t="s">
+      <c r="H29" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="121"/>
+      <c r="I29" s="126"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>17731000</v>
+        <v>17988000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="120" t="s">
+      <c r="H30" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="121"/>
+      <c r="I30" s="126"/>
       <c r="J30" s="63">
-        <f>SUM(J7:J26)</f>
-        <v>17731000</v>
+        <f>SUM(J7:J25)</f>
+        <v>17996000</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
@@ -6522,14 +7542,900 @@
       <c r="H42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F00563F-BA9E-4000-9267-941A5F5EE0B2}">
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="H4" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="67">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68">
+        <f>H7*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="130"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="128"/>
+      <c r="B8" s="64">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68">
+        <f t="shared" ref="I8:I11" si="0">H8*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="74"/>
+      <c r="K8" s="68">
+        <f>I8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="130"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="128"/>
+      <c r="B9" s="70">
+        <f>B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="111">
+        <v>38085004911</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="112"/>
+      <c r="I9" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="112"/>
+      <c r="K9" s="119">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="131"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="128"/>
+      <c r="B10" s="64">
+        <f>B9+1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="74"/>
+      <c r="K10" s="68">
+        <f>I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="130"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="128"/>
+      <c r="B11" s="70">
+        <f>B10+1</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="68">
+        <f>I11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="130"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="128"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="128"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="64">
+        <v>1</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68">
+        <f t="shared" ref="I15:I25" si="1">H15*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68">
+        <f t="shared" ref="K15:K23" si="2">I15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="129"/>
+      <c r="B16" s="64">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="129"/>
+      <c r="B17" s="64">
+        <f t="shared" ref="B17:B26" si="3">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="74"/>
+      <c r="I17" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="74"/>
+      <c r="K17" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="76"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="129"/>
+      <c r="B18" s="64">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="75">
+        <v>89082022656</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="74"/>
+      <c r="K18" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="129"/>
+      <c r="B19" s="64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="74"/>
+      <c r="K19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="129"/>
+      <c r="B20" s="64">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="129"/>
+      <c r="B21" s="64">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="75">
+        <v>93097001330</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="74"/>
+      <c r="K21" s="68">
+        <v>0</v>
+      </c>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="129"/>
+      <c r="B22" s="64">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="74"/>
+      <c r="K22" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="76"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="129"/>
+      <c r="B23" s="64">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="74"/>
+      <c r="K23" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="80"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="129"/>
+      <c r="B24" s="64">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68">
+        <v>0</v>
+      </c>
+      <c r="L24" s="80"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="129"/>
+      <c r="B25" s="64">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="74"/>
+      <c r="I25" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="74"/>
+      <c r="K25" s="68">
+        <f>I25-J25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="80"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="129"/>
+      <c r="B26" s="64">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="125" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="126"/>
+      <c r="J28" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="126"/>
+      <c r="J29" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="126"/>
+      <c r="J30" s="63">
+        <f>SUM(J7:J25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="H28:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6563,32 +8469,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -7257,20 +9163,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -7352,6 +9258,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -7396,32 +9303,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -8086,20 +9993,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -8181,6 +10088,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -8224,32 +10132,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -8901,20 +10809,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -8996,6 +10904,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -9039,32 +10948,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -9711,20 +11620,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -9809,6 +11718,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -9852,32 +11762,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -10530,20 +12440,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -10628,6 +12538,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -10671,32 +12582,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -11346,20 +13257,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18612000</v>
@@ -11444,6 +13355,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -11489,32 +13401,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -12176,20 +14088,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -12285,6 +14197,7 @@
     </row>
     <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -12330,32 +14243,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -13022,20 +14935,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="119" t="s">
+      <c r="H26" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="119"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="119" t="s">
+      <c r="H27" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="119"/>
+      <c r="I27" s="124"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>16918000</v>
@@ -13131,6 +15044,7 @@
     </row>
     <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53654D15-6217-472D-B228-0AC127CC50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE6CD48-4F46-43D0-BF28-F10048517E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="126">
   <si>
     <t>STT</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>Nghỉ luôn sau 11-01</t>
+  </si>
+  <si>
+    <t>DOANH THU 12/01/2026</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>thay 4 bóng đèn</t>
   </si>
 </sst>
 </file>
@@ -863,7 +872,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1205,6 +1214,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,13 +1242,6 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -4029,32 +4032,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -4625,20 +4628,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="124" t="s">
+      <c r="H25" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="124"/>
+      <c r="I25" s="125"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -4760,32 +4763,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5443,20 +5446,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28869000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17311000</v>
@@ -5573,7 +5576,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J7" sqref="J7:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5610,18 +5613,18 @@
     </row>
     <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -5630,18 +5633,18 @@
     </row>
     <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -5735,7 +5738,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="128" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="98">
@@ -5780,7 +5783,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="70">
         <f>B7+1</f>
         <v>2</v>
@@ -5827,7 +5830,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B12" si="1">B8+1</f>
         <v>3</v>
@@ -5870,7 +5873,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5909,7 +5912,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5952,7 +5955,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5995,7 +5998,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -6031,7 +6034,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="130" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64"/>
@@ -6051,7 +6054,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="64">
         <v>1</v>
       </c>
@@ -6092,7 +6095,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="64">
         <f>B16+1</f>
         <v>2</v>
@@ -6134,7 +6137,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="64">
         <f t="shared" ref="B18:B26" si="2">B17+1</f>
         <v>3</v>
@@ -6176,7 +6179,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6218,7 +6221,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="64">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6260,7 +6263,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6302,7 +6305,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6344,7 +6347,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -6386,7 +6389,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="64">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6428,7 +6431,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6470,7 +6473,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="64">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -6518,30 +6521,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="126"/>
+      <c r="I28" s="127"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29569000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="126"/>
+      <c r="I29" s="127"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17731000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="125" t="s">
+      <c r="H30" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="126"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17731000</v>
@@ -6580,7 +6583,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J11" activeCellId="1" sqref="H11 J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6625,18 +6628,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -6730,7 +6733,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="128" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -6776,7 +6779,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -6821,7 +6824,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -6860,7 +6863,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -6903,7 +6906,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -6946,7 +6949,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -6964,7 +6967,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -7000,7 +7003,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="130" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -7044,7 +7047,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -7087,7 +7090,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -7130,7 +7133,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7173,7 +7176,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7216,7 +7219,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7259,7 +7262,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7301,7 +7304,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7344,7 +7347,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7387,7 +7390,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -7429,7 +7432,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -7472,7 +7475,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -7500,30 +7503,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="126"/>
+      <c r="I28" s="127"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29980000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="126"/>
+      <c r="I29" s="127"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17988000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="125" t="s">
+      <c r="H30" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="126"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>17996000</v>
@@ -7556,10 +7559,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F00563F-BA9E-4000-9267-941A5F5EE0B2}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="A7" sqref="A7:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7604,18 +7608,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -7629,7 +7633,7 @@
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
       <c r="H4" s="116" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I4" s="117"/>
       <c r="J4" s="117"/>
@@ -7709,7 +7713,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="128" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -7730,17 +7734,23 @@
       <c r="G7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="68"/>
+      <c r="H7" s="68">
+        <v>2050000</v>
+      </c>
       <c r="I7" s="68">
         <f>H7*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="68"/>
+        <v>1230000</v>
+      </c>
+      <c r="J7" s="68">
+        <v>1230000</v>
+      </c>
       <c r="K7" s="68">
         <f>I7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="130"/>
+      <c r="L7" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M7" s="76"/>
       <c r="N7" s="76"/>
       <c r="O7" s="1"/>
@@ -7749,7 +7759,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -7769,17 +7779,23 @@
       <c r="G8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="68">
+        <v>1850000</v>
+      </c>
       <c r="I8" s="68">
         <f t="shared" ref="I8:I11" si="0">H8*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="74"/>
+        <v>1110000</v>
+      </c>
+      <c r="J8" s="74">
+        <v>1110000</v>
+      </c>
       <c r="K8" s="68">
         <f>I8-J8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="130"/>
+      <c r="L8" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="1"/>
@@ -7788,7 +7804,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -7818,14 +7834,16 @@
         <f>I9-J9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="131"/>
+      <c r="L9" s="118" t="s">
+        <v>120</v>
+      </c>
       <c r="M9" s="115"/>
       <c r="N9" s="79"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -7845,24 +7863,30 @@
       <c r="G10" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="68"/>
+      <c r="H10" s="68">
+        <v>1250000</v>
+      </c>
       <c r="I10" s="68">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="74"/>
+        <v>750000</v>
+      </c>
+      <c r="J10" s="74">
+        <v>750000</v>
+      </c>
       <c r="K10" s="68">
         <f>I10-J10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="130"/>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -7882,24 +7906,32 @@
       <c r="G11" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="74">
+        <v>1450000</v>
+      </c>
       <c r="I11" s="68">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="74"/>
+        <v>870000</v>
+      </c>
+      <c r="J11" s="74">
+        <v>870000</v>
+      </c>
       <c r="K11" s="68">
         <f>I11-J11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="130"/>
-      <c r="M11" s="79"/>
+      <c r="L11" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="79" t="s">
+        <v>125</v>
+      </c>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -7910,14 +7942,14 @@
       <c r="I12" s="105"/>
       <c r="J12" s="105"/>
       <c r="K12" s="120"/>
-      <c r="L12" s="132"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="105"/>
       <c r="N12" s="105"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -7953,7 +7985,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="130" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -7974,24 +8006,30 @@
       <c r="G15" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="68"/>
+      <c r="H15" s="68">
+        <v>3000000</v>
+      </c>
       <c r="I15" s="68">
-        <f t="shared" ref="I15:I25" si="1">H15*N$4</f>
+        <f t="shared" ref="I15:I26" si="1">H15*N$4</f>
+        <v>1800000</v>
+      </c>
+      <c r="J15" s="68">
+        <v>1800000</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" ref="K15:K26" si="2">I15-J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68">
-        <f t="shared" ref="K15:K23" si="2">I15-J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="76"/>
+      <c r="L15" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M15" s="76"/>
       <c r="N15" s="76"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -8011,24 +8049,30 @@
       <c r="G16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="68"/>
+      <c r="H16" s="68">
+        <v>1940000</v>
+      </c>
       <c r="I16" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="68"/>
+        <v>1164000</v>
+      </c>
+      <c r="J16" s="68">
+        <v>1164000</v>
+      </c>
       <c r="K16" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="76"/>
+      <c r="L16" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M16" s="76"/>
       <c r="N16" s="76"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -8048,24 +8092,30 @@
       <c r="G17" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="74"/>
+      <c r="H17" s="74">
+        <v>2770000</v>
+      </c>
       <c r="I17" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="74"/>
+        <v>1662000</v>
+      </c>
+      <c r="J17" s="74">
+        <v>1662000</v>
+      </c>
       <c r="K17" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="76"/>
+      <c r="L17" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M17" s="79"/>
       <c r="N17" s="79"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8085,24 +8135,30 @@
       <c r="G18" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="68"/>
+      <c r="H18" s="68">
+        <v>2140000</v>
+      </c>
       <c r="I18" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="74"/>
+        <v>1284000</v>
+      </c>
+      <c r="J18" s="74">
+        <v>1284000</v>
+      </c>
       <c r="K18" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="76"/>
+      <c r="L18" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M18" s="76"/>
       <c r="N18" s="85"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8122,24 +8178,30 @@
       <c r="G19" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="68"/>
+      <c r="H19" s="68">
+        <v>2520000</v>
+      </c>
       <c r="I19" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="74"/>
+        <v>1512000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>1512000</v>
+      </c>
       <c r="K19" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="76"/>
+      <c r="L19" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8159,24 +8221,30 @@
       <c r="G20" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="68">
+        <v>2360000</v>
+      </c>
       <c r="I20" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="68"/>
+        <v>1416000</v>
+      </c>
+      <c r="J20" s="68">
+        <v>1416000</v>
+      </c>
       <c r="K20" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="76"/>
+      <c r="L20" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M20" s="76"/>
       <c r="N20" s="85"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8196,23 +8264,30 @@
       <c r="G21" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="68"/>
+      <c r="H21" s="68">
+        <v>1780000</v>
+      </c>
       <c r="I21" s="68">
         <f t="shared" si="1"/>
+        <v>1068000</v>
+      </c>
+      <c r="J21" s="74">
+        <v>1068000</v>
+      </c>
+      <c r="K21" s="68">
+        <f>I21-J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="68">
-        <v>0</v>
-      </c>
-      <c r="L21" s="76"/>
+      <c r="L21" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8232,24 +8307,30 @@
       <c r="G22" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="68"/>
+      <c r="H22" s="68">
+        <v>1990000</v>
+      </c>
       <c r="I22" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="74"/>
+        <v>1194000</v>
+      </c>
+      <c r="J22" s="74">
+        <v>1194000</v>
+      </c>
       <c r="K22" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="76"/>
+      <c r="L22" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M22" s="80"/>
       <c r="N22" s="76"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8269,24 +8350,30 @@
       <c r="G23" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="68"/>
+      <c r="H23" s="68">
+        <v>1000000</v>
+      </c>
       <c r="I23" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="74"/>
+        <v>600000</v>
+      </c>
+      <c r="J23" s="74">
+        <v>600000</v>
+      </c>
       <c r="K23" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="80"/>
+      <c r="L23" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8306,23 +8393,30 @@
       <c r="G24" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="68"/>
+      <c r="H24" s="68">
+        <v>2050000</v>
+      </c>
       <c r="I24" s="68">
         <f t="shared" si="1"/>
+        <v>1230000</v>
+      </c>
+      <c r="J24" s="68">
+        <v>1230000</v>
+      </c>
+      <c r="K24" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68">
-        <v>0</v>
-      </c>
-      <c r="L24" s="80"/>
+      <c r="L24" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -8342,24 +8436,30 @@
       <c r="G25" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="74"/>
+      <c r="H25" s="74">
+        <v>3500000</v>
+      </c>
       <c r="I25" s="68">
         <f t="shared" si="1"/>
+        <v>2100000</v>
+      </c>
+      <c r="J25" s="74">
+        <v>2100000</v>
+      </c>
+      <c r="K25" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="74"/>
-      <c r="K25" s="68">
-        <f>I25-J25</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="80"/>
+      <c r="L25" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M25" s="79"/>
       <c r="N25" s="79"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -8372,11 +8472,19 @@
         <v>19</v>
       </c>
       <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="I26" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
+      <c r="K26" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
+      <c r="M26" s="121" t="s">
+        <v>124</v>
+      </c>
       <c r="N26" s="105"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -8387,33 +8495,33 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="126"/>
+      <c r="I28" s="127"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
-        <v>0</v>
+        <v>31650000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="126"/>
+      <c r="I29" s="127"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>0</v>
+        <v>18990000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="125" t="s">
+      <c r="H30" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="126"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
-        <v>0</v>
+        <v>18990000</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
@@ -8429,13 +8537,14 @@
       <c r="H42" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A15:A26"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8469,32 +8578,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -9163,20 +9272,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -9303,32 +9412,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -9993,20 +10102,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -10132,32 +10241,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -10809,20 +10918,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -10948,32 +11057,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -11620,20 +11729,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -11762,32 +11871,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -12440,20 +12549,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -12582,32 +12691,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -13257,20 +13366,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18612000</v>
@@ -13401,32 +13510,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -14088,20 +14197,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -14243,32 +14352,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -14935,20 +15044,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="124"/>
+      <c r="I26" s="125"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="124" t="s">
+      <c r="H27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="124"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>16918000</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE6CD48-4F46-43D0-BF28-F10048517E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D484D1-4089-4F67-95D8-3CDB40100C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="10-01 (1)" sheetId="15" r:id="rId11"/>
     <sheet name="11-01 " sheetId="16" r:id="rId12"/>
     <sheet name="12-01" sheetId="17" r:id="rId13"/>
+    <sheet name="13-01" sheetId="18" r:id="rId14"/>
+    <sheet name="14-01" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="131">
   <si>
     <t>STT</t>
   </si>
@@ -425,6 +427,21 @@
   </si>
   <si>
     <t>thay 4 bóng đèn</t>
+  </si>
+  <si>
+    <t>DOANH THU 13/01/2026</t>
+  </si>
+  <si>
+    <t>HOÀNG</t>
+  </si>
+  <si>
+    <t>CHUYỂN CHO BÁC KIM</t>
+  </si>
+  <si>
+    <t>bác kim nhận</t>
+  </si>
+  <si>
+    <t>DOANH THU 14/01/2026</t>
   </si>
 </sst>
 </file>
@@ -872,7 +889,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1215,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1241,6 +1261,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4010,7 +4033,7 @@
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4032,32 +4055,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -4628,20 +4651,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="125" t="s">
+      <c r="H25" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="125"/>
+      <c r="I25" s="126"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -4763,32 +4786,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5446,20 +5469,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28869000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17311000</v>
@@ -5576,7 +5599,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5613,18 +5636,18 @@
     </row>
     <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -5633,18 +5656,18 @@
     </row>
     <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -5738,7 +5761,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="129" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="98">
@@ -5783,7 +5806,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="70">
         <f>B7+1</f>
         <v>2</v>
@@ -5830,7 +5853,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B12" si="1">B8+1</f>
         <v>3</v>
@@ -5873,7 +5896,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5912,7 +5935,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5955,7 +5978,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5998,7 +6021,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -6034,7 +6057,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="131" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64"/>
@@ -6054,7 +6077,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="64">
         <v>1</v>
       </c>
@@ -6095,7 +6118,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="64">
         <f>B16+1</f>
         <v>2</v>
@@ -6137,7 +6160,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="64">
         <f t="shared" ref="B18:B26" si="2">B17+1</f>
         <v>3</v>
@@ -6179,7 +6202,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6221,7 +6244,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="64">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6263,7 +6286,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6305,7 +6328,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6347,7 +6370,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -6389,7 +6412,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="64">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6431,7 +6454,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6473,7 +6496,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="64">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -6521,30 +6544,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="126" t="s">
+      <c r="H28" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29569000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="126" t="s">
+      <c r="H29" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="127"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17731000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="126" t="s">
+      <c r="H30" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="127"/>
+      <c r="I30" s="128"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17731000</v>
@@ -6582,7 +6605,1984 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="H4" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="67">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="I7" s="68">
+        <f>H7*N$4</f>
+        <v>1170000</v>
+      </c>
+      <c r="J7" s="68">
+        <v>1170000</v>
+      </c>
+      <c r="K7" s="68">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="130"/>
+      <c r="B8" s="64">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="68">
+        <v>1860000</v>
+      </c>
+      <c r="I8" s="68">
+        <f t="shared" ref="I8:I11" si="0">H8*N$4</f>
+        <v>1116000</v>
+      </c>
+      <c r="J8" s="74">
+        <v>1116000</v>
+      </c>
+      <c r="K8" s="68">
+        <f>I8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="130"/>
+      <c r="B9" s="70">
+        <f>B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="111">
+        <v>38085004911</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="112"/>
+      <c r="I9" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="112"/>
+      <c r="K9" s="119">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="115"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="130"/>
+      <c r="B10" s="64">
+        <f>B9+1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="68">
+        <v>1500000</v>
+      </c>
+      <c r="I10" s="68">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="J10" s="74">
+        <v>900000</v>
+      </c>
+      <c r="K10" s="68">
+        <f>I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="130"/>
+      <c r="B11" s="70">
+        <f>B10+1</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="74">
+        <v>1650000</v>
+      </c>
+      <c r="I11" s="68">
+        <f t="shared" si="0"/>
+        <v>990000</v>
+      </c>
+      <c r="J11" s="74">
+        <v>990000</v>
+      </c>
+      <c r="K11" s="68">
+        <f>I11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="130"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="130"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="64">
+        <v>1</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="68">
+        <v>1800000</v>
+      </c>
+      <c r="I15" s="68">
+        <f t="shared" ref="I15:I25" si="1">H15*N$4</f>
+        <v>1080000</v>
+      </c>
+      <c r="J15" s="68">
+        <v>1080000</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" ref="K15:K23" si="2">I15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="131"/>
+      <c r="B16" s="64">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="68">
+        <v>2400000</v>
+      </c>
+      <c r="I16" s="68">
+        <f t="shared" si="1"/>
+        <v>1440000</v>
+      </c>
+      <c r="J16" s="68">
+        <v>1440000</v>
+      </c>
+      <c r="K16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="131"/>
+      <c r="B17" s="64">
+        <f t="shared" ref="B17:B26" si="3">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="74">
+        <v>2910000</v>
+      </c>
+      <c r="I17" s="68">
+        <f t="shared" si="1"/>
+        <v>1746000</v>
+      </c>
+      <c r="J17" s="74">
+        <v>1746000</v>
+      </c>
+      <c r="K17" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="131"/>
+      <c r="B18" s="64">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="75">
+        <v>89082022656</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="68">
+        <v>2050000</v>
+      </c>
+      <c r="I18" s="68">
+        <f t="shared" si="1"/>
+        <v>1230000</v>
+      </c>
+      <c r="J18" s="74">
+        <v>1230000</v>
+      </c>
+      <c r="K18" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="76"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="131"/>
+      <c r="B19" s="64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="68">
+        <v>1950000</v>
+      </c>
+      <c r="I19" s="68">
+        <f t="shared" si="1"/>
+        <v>1170000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>1170000</v>
+      </c>
+      <c r="K19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="131"/>
+      <c r="B20" s="64">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="68">
+        <v>1710000</v>
+      </c>
+      <c r="I20" s="68">
+        <f t="shared" si="1"/>
+        <v>1026000</v>
+      </c>
+      <c r="J20" s="68">
+        <v>1026000</v>
+      </c>
+      <c r="K20" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="76"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="131"/>
+      <c r="B21" s="64">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="75">
+        <v>93097001330</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="68">
+        <v>1830000</v>
+      </c>
+      <c r="I21" s="68">
+        <f t="shared" si="1"/>
+        <v>1098000</v>
+      </c>
+      <c r="J21" s="74">
+        <v>1100000</v>
+      </c>
+      <c r="K21" s="68">
+        <v>0</v>
+      </c>
+      <c r="L21" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="76"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="131"/>
+      <c r="B22" s="64">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="68">
+        <v>1830000</v>
+      </c>
+      <c r="I22" s="68">
+        <f t="shared" si="1"/>
+        <v>1098000</v>
+      </c>
+      <c r="J22" s="74">
+        <v>1098000</v>
+      </c>
+      <c r="K22" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="80"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="131"/>
+      <c r="B23" s="64">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="68">
+        <v>1700000</v>
+      </c>
+      <c r="I23" s="68">
+        <f t="shared" si="1"/>
+        <v>1020000</v>
+      </c>
+      <c r="J23" s="74">
+        <v>1020000</v>
+      </c>
+      <c r="K23" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="131"/>
+      <c r="B24" s="64">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="68">
+        <v>2090000</v>
+      </c>
+      <c r="I24" s="68">
+        <f t="shared" si="1"/>
+        <v>1254000</v>
+      </c>
+      <c r="J24" s="68">
+        <v>1260000</v>
+      </c>
+      <c r="K24" s="68">
+        <v>0</v>
+      </c>
+      <c r="L24" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="131"/>
+      <c r="B25" s="64">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="74">
+        <v>2750000</v>
+      </c>
+      <c r="I25" s="68">
+        <f t="shared" si="1"/>
+        <v>1650000</v>
+      </c>
+      <c r="J25" s="74">
+        <v>1650000</v>
+      </c>
+      <c r="K25" s="68">
+        <f>I25-J25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="131"/>
+      <c r="B26" s="64">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="128"/>
+      <c r="J28" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>29980000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="128"/>
+      <c r="J29" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>17988000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="128"/>
+      <c r="J30" s="63">
+        <f>SUM(J7:J25)</f>
+        <v>17996000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F00563F-BA9E-4000-9267-941A5F5EE0B2}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="H4" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="67">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="68">
+        <v>2050000</v>
+      </c>
+      <c r="I7" s="68">
+        <f>H7*N$4</f>
+        <v>1230000</v>
+      </c>
+      <c r="J7" s="68">
+        <v>1230000</v>
+      </c>
+      <c r="K7" s="68">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="130"/>
+      <c r="B8" s="64">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="68">
+        <v>1850000</v>
+      </c>
+      <c r="I8" s="68">
+        <f t="shared" ref="I8:I11" si="0">H8*N$4</f>
+        <v>1110000</v>
+      </c>
+      <c r="J8" s="74">
+        <v>1110000</v>
+      </c>
+      <c r="K8" s="68">
+        <f>I8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="130"/>
+      <c r="B9" s="70">
+        <f>B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="111">
+        <v>38085004911</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="112"/>
+      <c r="I9" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="112"/>
+      <c r="K9" s="119">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="115"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="130"/>
+      <c r="B10" s="64">
+        <f>B9+1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="68">
+        <v>1250000</v>
+      </c>
+      <c r="I10" s="68">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+      <c r="J10" s="74">
+        <v>750000</v>
+      </c>
+      <c r="K10" s="68">
+        <f>I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="130"/>
+      <c r="B11" s="70">
+        <f>B10+1</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="74">
+        <v>1450000</v>
+      </c>
+      <c r="I11" s="68">
+        <f t="shared" si="0"/>
+        <v>870000</v>
+      </c>
+      <c r="J11" s="74">
+        <v>870000</v>
+      </c>
+      <c r="K11" s="68">
+        <f>I11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="79"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="130"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="130"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="64">
+        <v>1</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="68">
+        <v>3000000</v>
+      </c>
+      <c r="I15" s="68">
+        <f t="shared" ref="I15:I26" si="1">H15*N$4</f>
+        <v>1800000</v>
+      </c>
+      <c r="J15" s="68">
+        <v>1800000</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" ref="K15:K26" si="2">I15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="131"/>
+      <c r="B16" s="64">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="68">
+        <v>1940000</v>
+      </c>
+      <c r="I16" s="68">
+        <f t="shared" si="1"/>
+        <v>1164000</v>
+      </c>
+      <c r="J16" s="68">
+        <v>1164000</v>
+      </c>
+      <c r="K16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="131"/>
+      <c r="B17" s="64">
+        <f t="shared" ref="B17:B26" si="3">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="74">
+        <v>2770000</v>
+      </c>
+      <c r="I17" s="68">
+        <f t="shared" si="1"/>
+        <v>1662000</v>
+      </c>
+      <c r="J17" s="74">
+        <v>1662000</v>
+      </c>
+      <c r="K17" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="131"/>
+      <c r="B18" s="64">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="75">
+        <v>89082022656</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="68">
+        <v>2140000</v>
+      </c>
+      <c r="I18" s="68">
+        <f t="shared" si="1"/>
+        <v>1284000</v>
+      </c>
+      <c r="J18" s="74">
+        <v>1284000</v>
+      </c>
+      <c r="K18" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="76"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="131"/>
+      <c r="B19" s="64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="68">
+        <v>2520000</v>
+      </c>
+      <c r="I19" s="68">
+        <f t="shared" si="1"/>
+        <v>1512000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>1512000</v>
+      </c>
+      <c r="K19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="131"/>
+      <c r="B20" s="64">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="68">
+        <v>2360000</v>
+      </c>
+      <c r="I20" s="68">
+        <f t="shared" si="1"/>
+        <v>1416000</v>
+      </c>
+      <c r="J20" s="68">
+        <v>1416000</v>
+      </c>
+      <c r="K20" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="76"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="131"/>
+      <c r="B21" s="64">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="75">
+        <v>93097001330</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="68">
+        <v>1780000</v>
+      </c>
+      <c r="I21" s="68">
+        <f t="shared" si="1"/>
+        <v>1068000</v>
+      </c>
+      <c r="J21" s="74">
+        <v>1068000</v>
+      </c>
+      <c r="K21" s="68">
+        <f>I21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="131"/>
+      <c r="B22" s="64">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="68">
+        <v>1990000</v>
+      </c>
+      <c r="I22" s="68">
+        <f t="shared" si="1"/>
+        <v>1194000</v>
+      </c>
+      <c r="J22" s="74">
+        <v>1194000</v>
+      </c>
+      <c r="K22" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="80"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="131"/>
+      <c r="B23" s="64">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="68">
+        <v>1000000</v>
+      </c>
+      <c r="I23" s="68">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="J23" s="74">
+        <v>600000</v>
+      </c>
+      <c r="K23" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="131"/>
+      <c r="B24" s="64">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="68">
+        <v>2050000</v>
+      </c>
+      <c r="I24" s="68">
+        <f t="shared" si="1"/>
+        <v>1230000</v>
+      </c>
+      <c r="J24" s="68">
+        <v>1230000</v>
+      </c>
+      <c r="K24" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="131"/>
+      <c r="B25" s="64">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="74">
+        <v>3500000</v>
+      </c>
+      <c r="I25" s="68">
+        <f t="shared" si="1"/>
+        <v>2100000</v>
+      </c>
+      <c r="J25" s="74">
+        <v>2100000</v>
+      </c>
+      <c r="K25" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="131"/>
+      <c r="B26" s="64">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="105"/>
+      <c r="I26" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="105"/>
+      <c r="K26" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="105"/>
+      <c r="M26" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" s="105"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="128"/>
+      <c r="J28" s="9">
+        <f>SUM(H7:H1001)</f>
+        <v>31650000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="128"/>
+      <c r="J29" s="9">
+        <f>SUM(I7:I1001)</f>
+        <v>18990000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="128"/>
+      <c r="J30" s="63">
+        <f>SUM(J7:J25)</f>
+        <v>18990000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB05EDF3-4F46-4E80-BC67-B215736C9FA5}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J11" activeCellId="1" sqref="H11 J11"/>
     </sheetView>
   </sheetViews>
@@ -6628,18 +8628,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -6653,7 +8653,7 @@
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
       <c r="H4" s="116" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I4" s="117"/>
       <c r="J4" s="117"/>
@@ -6733,7 +8733,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="129" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -6779,7 +8779,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -6800,14 +8800,14 @@
         <v>36</v>
       </c>
       <c r="H8" s="68">
-        <v>1860000</v>
+        <v>1200000</v>
       </c>
       <c r="I8" s="68">
         <f t="shared" ref="I8:I11" si="0">H8*N$4</f>
-        <v>1116000</v>
+        <v>720000</v>
       </c>
       <c r="J8" s="74">
-        <v>1116000</v>
+        <v>720000</v>
       </c>
       <c r="K8" s="68">
         <f>I8-J8</f>
@@ -6824,7 +8824,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -6863,7 +8863,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -6884,14 +8884,14 @@
         <v>83</v>
       </c>
       <c r="H10" s="68">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="I10" s="68">
         <f t="shared" si="0"/>
-        <v>900000</v>
+        <v>600000</v>
       </c>
       <c r="J10" s="74">
-        <v>900000</v>
+        <v>600000</v>
       </c>
       <c r="K10" s="68">
         <f>I10-J10</f>
@@ -6906,7 +8906,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -6927,14 +8927,14 @@
         <v>82</v>
       </c>
       <c r="H11" s="74">
-        <v>1650000</v>
+        <v>1350000</v>
       </c>
       <c r="I11" s="68">
         <f t="shared" si="0"/>
-        <v>990000</v>
+        <v>810000</v>
       </c>
       <c r="J11" s="74">
-        <v>990000</v>
+        <v>810000</v>
       </c>
       <c r="K11" s="68">
         <f>I11-J11</f>
@@ -6949,7 +8949,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -6967,7 +8967,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -7003,7 +9003,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="131" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -7025,20 +9025,19 @@
         <v>14</v>
       </c>
       <c r="H15" s="68">
-        <v>1800000</v>
+        <v>2230000</v>
       </c>
       <c r="I15" s="68">
-        <f t="shared" ref="I15:I25" si="1">H15*N$4</f>
-        <v>1080000</v>
+        <f t="shared" ref="I15:I26" si="1">H15*N$4</f>
+        <v>1338000</v>
       </c>
       <c r="J15" s="68">
-        <v>1080000</v>
+        <v>1340000</v>
       </c>
       <c r="K15" s="68">
-        <f t="shared" ref="K15:K23" si="2">I15-J15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="76" t="s">
+      <c r="L15" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M15" s="76"/>
@@ -7047,7 +9046,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -7068,20 +9067,20 @@
         <v>17</v>
       </c>
       <c r="H16" s="68">
-        <v>2400000</v>
+        <v>1460000</v>
       </c>
       <c r="I16" s="68">
         <f t="shared" si="1"/>
-        <v>1440000</v>
+        <v>876000</v>
       </c>
       <c r="J16" s="68">
-        <v>1440000</v>
+        <v>876000</v>
       </c>
       <c r="K16" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K16:K26" si="2">I16-J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="76" t="s">
+      <c r="L16" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M16" s="76"/>
@@ -7090,7 +9089,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -7111,20 +9110,20 @@
         <v>48</v>
       </c>
       <c r="H17" s="74">
-        <v>2910000</v>
+        <v>2075000</v>
       </c>
       <c r="I17" s="68">
         <f t="shared" si="1"/>
-        <v>1746000</v>
+        <v>1245000</v>
       </c>
       <c r="J17" s="74">
-        <v>1746000</v>
+        <v>1245000</v>
       </c>
       <c r="K17" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="76" t="s">
+      <c r="L17" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M17" s="79"/>
@@ -7133,7 +9132,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7154,20 +9153,20 @@
         <v>56</v>
       </c>
       <c r="H18" s="68">
-        <v>2050000</v>
+        <v>2020000</v>
       </c>
       <c r="I18" s="68">
         <f t="shared" si="1"/>
-        <v>1230000</v>
+        <v>1212000</v>
       </c>
       <c r="J18" s="74">
-        <v>1230000</v>
+        <v>1212000</v>
       </c>
       <c r="K18" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="76" t="s">
+      <c r="L18" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M18" s="76"/>
@@ -7176,7 +9175,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7197,20 +9196,20 @@
         <v>22</v>
       </c>
       <c r="H19" s="68">
-        <v>1950000</v>
+        <v>1910000</v>
       </c>
       <c r="I19" s="68">
         <f t="shared" si="1"/>
-        <v>1170000</v>
+        <v>1146000</v>
       </c>
       <c r="J19" s="74">
-        <v>1170000</v>
+        <v>1146000</v>
       </c>
       <c r="K19" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="76" t="s">
+      <c r="L19" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M19" s="76"/>
@@ -7219,7 +9218,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7240,20 +9239,20 @@
         <v>32</v>
       </c>
       <c r="H20" s="68">
-        <v>1710000</v>
+        <v>1250000</v>
       </c>
       <c r="I20" s="68">
         <f t="shared" si="1"/>
-        <v>1026000</v>
+        <v>750000</v>
       </c>
       <c r="J20" s="68">
-        <v>1026000</v>
+        <v>750000</v>
       </c>
       <c r="K20" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="76" t="s">
+      <c r="L20" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M20" s="76"/>
@@ -7262,7 +9261,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7283,28 +9282,31 @@
         <v>25</v>
       </c>
       <c r="H21" s="68">
-        <v>1830000</v>
+        <v>2280000</v>
       </c>
       <c r="I21" s="68">
         <f t="shared" si="1"/>
-        <v>1098000</v>
+        <v>1368000</v>
       </c>
       <c r="J21" s="74">
-        <v>1100000</v>
+        <v>1368000</v>
       </c>
       <c r="K21" s="68">
+        <f>I21-J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="76" t="s">
+      <c r="L21" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="76"/>
+      <c r="M21" s="76" t="s">
+        <v>129</v>
+      </c>
       <c r="N21" s="76"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7325,20 +9327,19 @@
         <v>27</v>
       </c>
       <c r="H22" s="68">
-        <v>1830000</v>
+        <v>1942000</v>
       </c>
       <c r="I22" s="68">
         <f t="shared" si="1"/>
-        <v>1098000</v>
+        <v>1165200</v>
       </c>
       <c r="J22" s="74">
-        <v>1098000</v>
+        <v>1165000</v>
       </c>
       <c r="K22" s="68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="76" t="s">
+      <c r="L22" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M22" s="80"/>
@@ -7347,7 +9348,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7368,20 +9369,20 @@
         <v>57</v>
       </c>
       <c r="H23" s="68">
-        <v>1700000</v>
+        <v>1935000</v>
       </c>
       <c r="I23" s="68">
         <f t="shared" si="1"/>
-        <v>1020000</v>
+        <v>1161000</v>
       </c>
       <c r="J23" s="74">
-        <v>1020000</v>
+        <v>1161000</v>
       </c>
       <c r="K23" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="80" t="s">
+      <c r="L23" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M23" s="76"/>
@@ -7390,7 +9391,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -7411,19 +9412,20 @@
         <v>35</v>
       </c>
       <c r="H24" s="68">
-        <v>2090000</v>
+        <v>1900000</v>
       </c>
       <c r="I24" s="68">
         <f t="shared" si="1"/>
-        <v>1254000</v>
+        <v>1140000</v>
       </c>
       <c r="J24" s="68">
-        <v>1260000</v>
+        <v>1140000</v>
       </c>
       <c r="K24" s="68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="80" t="s">
+      <c r="L24" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M24" s="76"/>
@@ -7432,7 +9434,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -7449,24 +9451,24 @@
       <c r="F25" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="86" t="s">
-        <v>93</v>
+      <c r="G25" s="64" t="s">
+        <v>19</v>
       </c>
       <c r="H25" s="74">
-        <v>2750000</v>
+        <v>2970000</v>
       </c>
       <c r="I25" s="68">
         <f t="shared" si="1"/>
-        <v>1650000</v>
+        <v>1782000</v>
       </c>
       <c r="J25" s="74">
-        <v>1650000</v>
+        <v>1782000</v>
       </c>
       <c r="K25" s="68">
-        <f>I25-J25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="80" t="s">
+      <c r="L25" s="87" t="s">
         <v>69</v>
       </c>
       <c r="M25" s="79"/>
@@ -7475,24 +9477,40 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C26" s="105"/>
+      <c r="C26" s="78" t="s">
+        <v>127</v>
+      </c>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
       <c r="F26" s="105"/>
-      <c r="G26" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
+      <c r="G26" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="74">
+        <v>1890000</v>
+      </c>
+      <c r="I26" s="68">
+        <f t="shared" si="1"/>
+        <v>1134000</v>
+      </c>
+      <c r="J26" s="74">
+        <v>1134000</v>
+      </c>
+      <c r="K26" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="121" t="s">
+        <v>124</v>
+      </c>
       <c r="N26" s="105"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -7503,33 +9521,33 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="126" t="s">
+      <c r="H28" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
-        <v>29980000</v>
+        <v>29362000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="126" t="s">
+      <c r="H29" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="127"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>17988000</v>
+        <v>17617200</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="126" t="s">
+      <c r="H30" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="127"/>
+      <c r="I30" s="128"/>
       <c r="J30" s="63">
-        <f>SUM(J7:J25)</f>
-        <v>17996000</v>
+        <f>SUM(J7:J26)</f>
+        <v>17619000</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
@@ -7554,16 +9572,16 @@
     <mergeCell ref="H29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F00563F-BA9E-4000-9267-941A5F5EE0B2}">
-  <sheetPr codeName="Sheet13"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A39B4-5C0D-4EFA-A7E5-D8070A5BFD8F}">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7608,18 +9626,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -7633,7 +9651,7 @@
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
       <c r="H4" s="116" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I4" s="117"/>
       <c r="J4" s="117"/>
@@ -7713,7 +9731,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="129" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -7734,23 +9752,17 @@
       <c r="G7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="68">
-        <v>2050000</v>
-      </c>
+      <c r="H7" s="68"/>
       <c r="I7" s="68">
         <f>H7*N$4</f>
-        <v>1230000</v>
-      </c>
-      <c r="J7" s="68">
-        <v>1230000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" s="68"/>
       <c r="K7" s="68">
         <f>I7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="88" t="s">
-        <v>26</v>
-      </c>
+      <c r="L7" s="69"/>
       <c r="M7" s="76"/>
       <c r="N7" s="76"/>
       <c r="O7" s="1"/>
@@ -7759,7 +9771,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -7779,23 +9791,17 @@
       <c r="G8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="68">
-        <v>1850000</v>
-      </c>
+      <c r="H8" s="68"/>
       <c r="I8" s="68">
         <f t="shared" ref="I8:I11" si="0">H8*N$4</f>
-        <v>1110000</v>
-      </c>
-      <c r="J8" s="74">
-        <v>1110000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" s="74"/>
       <c r="K8" s="68">
         <f>I8-J8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="88" t="s">
-        <v>26</v>
-      </c>
+      <c r="L8" s="69"/>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="1"/>
@@ -7804,7 +9810,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -7834,16 +9840,14 @@
         <f>I9-J9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="118" t="s">
-        <v>120</v>
-      </c>
+      <c r="L9" s="132"/>
       <c r="M9" s="115"/>
       <c r="N9" s="79"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -7863,30 +9867,24 @@
       <c r="G10" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="68">
-        <v>1250000</v>
-      </c>
+      <c r="H10" s="68"/>
       <c r="I10" s="68">
         <f t="shared" si="0"/>
-        <v>750000</v>
-      </c>
-      <c r="J10" s="74">
-        <v>750000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" s="74"/>
       <c r="K10" s="68">
         <f>I10-J10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="88" t="s">
-        <v>26</v>
-      </c>
+      <c r="L10" s="69"/>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -7906,32 +9904,24 @@
       <c r="G11" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="74">
-        <v>1450000</v>
-      </c>
+      <c r="H11" s="74"/>
       <c r="I11" s="68">
         <f t="shared" si="0"/>
-        <v>870000</v>
-      </c>
-      <c r="J11" s="74">
-        <v>870000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" s="74"/>
       <c r="K11" s="68">
         <f>I11-J11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="79" t="s">
-        <v>125</v>
-      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -7949,7 +9939,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -7985,7 +9975,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="131" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -8006,30 +9996,23 @@
       <c r="G15" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="68">
-        <v>3000000</v>
-      </c>
+      <c r="H15" s="68"/>
       <c r="I15" s="68">
         <f t="shared" ref="I15:I26" si="1">H15*N$4</f>
-        <v>1800000</v>
-      </c>
-      <c r="J15" s="68">
-        <v>1800000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" s="68"/>
       <c r="K15" s="68">
-        <f t="shared" ref="K15:K26" si="2">I15-J15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L15" s="87"/>
       <c r="M15" s="76"/>
       <c r="N15" s="76"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -8049,30 +10032,24 @@
       <c r="G16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="68">
-        <v>1940000</v>
-      </c>
+      <c r="H16" s="68"/>
       <c r="I16" s="68">
         <f t="shared" si="1"/>
-        <v>1164000</v>
-      </c>
-      <c r="J16" s="68">
-        <v>1164000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" s="68"/>
       <c r="K16" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K16:K26" si="2">I16-J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L16" s="87"/>
       <c r="M16" s="76"/>
       <c r="N16" s="76"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -8092,30 +10069,24 @@
       <c r="G17" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="74">
-        <v>2770000</v>
-      </c>
+      <c r="H17" s="74"/>
       <c r="I17" s="68">
         <f t="shared" si="1"/>
-        <v>1662000</v>
-      </c>
-      <c r="J17" s="74">
-        <v>1662000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" s="74"/>
       <c r="K17" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L17" s="87"/>
       <c r="M17" s="79"/>
       <c r="N17" s="79"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8135,30 +10106,24 @@
       <c r="G18" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="68">
-        <v>2140000</v>
-      </c>
+      <c r="H18" s="68"/>
       <c r="I18" s="68">
         <f t="shared" si="1"/>
-        <v>1284000</v>
-      </c>
-      <c r="J18" s="74">
-        <v>1284000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" s="74"/>
       <c r="K18" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L18" s="87"/>
       <c r="M18" s="76"/>
       <c r="N18" s="85"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8178,30 +10143,24 @@
       <c r="G19" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="68">
-        <v>2520000</v>
-      </c>
+      <c r="H19" s="68"/>
       <c r="I19" s="68">
         <f t="shared" si="1"/>
-        <v>1512000</v>
-      </c>
-      <c r="J19" s="74">
-        <v>1512000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" s="74"/>
       <c r="K19" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L19" s="87"/>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8221,30 +10180,24 @@
       <c r="G20" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="68">
-        <v>2360000</v>
-      </c>
+      <c r="H20" s="68"/>
       <c r="I20" s="68">
         <f t="shared" si="1"/>
-        <v>1416000</v>
-      </c>
-      <c r="J20" s="68">
-        <v>1416000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" s="68"/>
       <c r="K20" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L20" s="87"/>
       <c r="M20" s="76"/>
       <c r="N20" s="85"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8264,30 +10217,24 @@
       <c r="G21" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="68">
-        <v>1780000</v>
-      </c>
+      <c r="H21" s="68"/>
       <c r="I21" s="68">
         <f t="shared" si="1"/>
-        <v>1068000</v>
-      </c>
-      <c r="J21" s="74">
-        <v>1068000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" s="74"/>
       <c r="K21" s="68">
         <f>I21-J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L21" s="87"/>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8307,30 +10254,23 @@
       <c r="G22" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="68">
-        <v>1990000</v>
-      </c>
+      <c r="H22" s="68"/>
       <c r="I22" s="68">
         <f t="shared" si="1"/>
-        <v>1194000</v>
-      </c>
-      <c r="J22" s="74">
-        <v>1194000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" s="74"/>
       <c r="K22" s="68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L22" s="87"/>
       <c r="M22" s="80"/>
       <c r="N22" s="76"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8350,30 +10290,24 @@
       <c r="G23" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="68">
-        <v>1000000</v>
-      </c>
+      <c r="H23" s="68"/>
       <c r="I23" s="68">
         <f t="shared" si="1"/>
-        <v>600000</v>
-      </c>
-      <c r="J23" s="74">
-        <v>600000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" s="74"/>
       <c r="K23" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L23" s="87"/>
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8393,30 +10327,24 @@
       <c r="G24" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="68">
-        <v>2050000</v>
-      </c>
+      <c r="H24" s="68"/>
       <c r="I24" s="68">
         <f t="shared" si="1"/>
-        <v>1230000</v>
-      </c>
-      <c r="J24" s="68">
-        <v>1230000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" s="68"/>
       <c r="K24" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L24" s="87"/>
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -8433,55 +10361,51 @@
       <c r="F25" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="74">
-        <v>3500000</v>
-      </c>
+      <c r="G25" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="74"/>
       <c r="I25" s="68">
         <f t="shared" si="1"/>
-        <v>2100000</v>
-      </c>
-      <c r="J25" s="74">
-        <v>2100000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" s="74"/>
       <c r="K25" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="87" t="s">
-        <v>69</v>
-      </c>
+      <c r="L25" s="87"/>
       <c r="M25" s="79"/>
       <c r="N25" s="79"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C26" s="105"/>
+      <c r="C26" s="78" t="s">
+        <v>127</v>
+      </c>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
       <c r="F26" s="105"/>
-      <c r="G26" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="105"/>
+      <c r="G26" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="74"/>
       <c r="I26" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="105"/>
+      <c r="J26" s="74"/>
       <c r="K26" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L26" s="105"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="121" t="s">
         <v>124</v>
       </c>
@@ -8495,33 +10419,33 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="126" t="s">
+      <c r="H28" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
-        <v>31650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="126" t="s">
+      <c r="H29" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="127"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>18990000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="126" t="s">
+      <c r="H30" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="127"/>
+      <c r="I30" s="128"/>
       <c r="J30" s="63">
-        <f>SUM(J7:J25)</f>
-        <v>18990000</v>
+        <f>SUM(J7:J26)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
@@ -8537,16 +10461,16 @@
       <c r="H42" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A15:A26"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8578,32 +10502,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -9272,20 +11196,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -9412,32 +11336,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -10102,20 +12026,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -10241,32 +12165,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -10918,20 +12842,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -11035,7 +12959,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11057,32 +12981,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -11729,20 +13653,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -11871,32 +13795,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -12549,20 +14473,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -12669,7 +14593,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12691,32 +14615,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -13366,20 +15290,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18612000</v>
@@ -13486,7 +15410,7 @@
   <dimension ref="A2:P59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13510,32 +15434,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -14197,20 +16121,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -14328,7 +16252,7 @@
   <dimension ref="A2:P59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14352,32 +16276,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -15044,20 +16968,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>16918000</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D484D1-4089-4F67-95D8-3CDB40100C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C829F9FD-FC89-4713-8254-14137CB93F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="12-01" sheetId="17" r:id="rId13"/>
     <sheet name="13-01" sheetId="18" r:id="rId14"/>
     <sheet name="14-01" sheetId="19" r:id="rId15"/>
+    <sheet name="15-01" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="146">
   <si>
     <t>STT</t>
   </si>
@@ -443,6 +444,51 @@
   <si>
     <t>DOANH THU 14/01/2026</t>
   </si>
+  <si>
+    <t>PHAN HOÀNG EM (Sun)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRƯƠNG VŨ CA (VŨ LINH) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUANG HÀ </t>
+  </si>
+  <si>
+    <t>MAI BÁ ĐẠT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN VĂN THẠO </t>
+  </si>
+  <si>
+    <t>DƯƠNG ĐÔNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68HC 001.91 </t>
+  </si>
+  <si>
+    <t>HOÀNG ANH TUẤN</t>
+  </si>
+  <si>
+    <t>VŨ ĐỨC HẠNH (HUY)</t>
+  </si>
+  <si>
+    <t>Xe 189.doanh thu 1828-731 tài =1097-600 sửa tăng tốc =497k</t>
+  </si>
+  <si>
+    <t>Xe 171 doanh thu 1540-616 tiền tài=924</t>
+  </si>
+  <si>
+    <t>DỰ KIẾN CTY NHẬN</t>
+  </si>
+  <si>
+    <t>TỔNG DỰ KIẾN CTY NHẬN</t>
+  </si>
+  <si>
+    <t>DOANH THU 15/01/2026</t>
+  </si>
+  <si>
+    <t>nhận thêm 100k ngày 15</t>
+  </si>
 </sst>
 </file>
 
@@ -667,7 +713,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,8 +802,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -882,6 +940,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -889,7 +971,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1235,6 +1317,50 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="14" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,8 +1388,35 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4055,32 +4208,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -4651,20 +4804,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="126" t="s">
+      <c r="H25" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="126"/>
+      <c r="I25" s="142"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -4786,32 +4939,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5469,20 +5622,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28869000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17311000</v>
@@ -5636,18 +5789,18 @@
     </row>
     <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -5656,18 +5809,18 @@
     </row>
     <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -5761,7 +5914,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="145" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="98">
@@ -5806,7 +5959,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="70">
         <f>B7+1</f>
         <v>2</v>
@@ -5853,7 +6006,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B12" si="1">B8+1</f>
         <v>3</v>
@@ -5896,7 +6049,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5935,7 +6088,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5978,7 +6131,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6021,7 +6174,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -6057,7 +6210,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="147" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64"/>
@@ -6077,7 +6230,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="64">
         <v>1</v>
       </c>
@@ -6118,7 +6271,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="64">
         <f>B16+1</f>
         <v>2</v>
@@ -6160,7 +6313,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="64">
         <f t="shared" ref="B18:B26" si="2">B17+1</f>
         <v>3</v>
@@ -6202,7 +6355,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6244,7 +6397,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="64">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6286,7 +6439,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6328,7 +6481,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6370,7 +6523,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -6412,7 +6565,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="64">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6454,7 +6607,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6496,7 +6649,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="64">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -6544,30 +6697,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="144"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29569000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="127" t="s">
+      <c r="H29" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="144"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17731000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="127" t="s">
+      <c r="H30" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="128"/>
+      <c r="I30" s="144"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17731000</v>
@@ -6653,18 +6806,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -6758,7 +6911,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="145" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -6804,7 +6957,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -6849,7 +7002,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -6888,7 +7041,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -6931,7 +7084,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -6974,7 +7127,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -6992,7 +7145,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -7028,7 +7181,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="147" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -7072,7 +7225,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -7115,7 +7268,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -7158,7 +7311,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7201,7 +7354,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7244,7 +7397,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7287,7 +7440,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7331,7 +7484,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7374,7 +7527,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7417,7 +7570,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -7459,7 +7612,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -7502,7 +7655,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -7530,30 +7683,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="144"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29980000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="127" t="s">
+      <c r="H29" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="144"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17988000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="127" t="s">
+      <c r="H30" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="128"/>
+      <c r="I30" s="144"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>17996000</v>
@@ -7635,18 +7788,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -7740,7 +7893,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="145" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -7786,7 +7939,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -7831,7 +7984,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -7870,7 +8023,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -7913,7 +8066,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -7958,7 +8111,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -7976,7 +8129,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -8012,7 +8165,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="147" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -8056,7 +8209,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -8099,7 +8252,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -8142,7 +8295,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8185,7 +8338,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8228,7 +8381,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8271,7 +8424,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8314,7 +8467,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8357,7 +8510,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8400,7 +8553,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8443,7 +8596,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -8486,7 +8639,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -8522,30 +8675,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="144"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31650000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="127" t="s">
+      <c r="H29" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="144"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18990000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="127" t="s">
+      <c r="H30" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="128"/>
+      <c r="I30" s="144"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>18990000</v>
@@ -8628,18 +8781,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -8733,7 +8886,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="145" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -8779,7 +8932,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -8824,7 +8977,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -8863,7 +9016,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -8906,7 +9059,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -8949,7 +9102,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -8967,7 +9120,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -9003,7 +9156,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="147" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -9046,7 +9199,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -9089,7 +9242,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -9132,7 +9285,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9175,7 +9328,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9218,7 +9371,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9261,7 +9414,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9306,7 +9459,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9348,7 +9501,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -9391,7 +9544,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9434,7 +9587,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -9477,7 +9630,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -9521,30 +9674,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="144"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29362000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="127" t="s">
+      <c r="H29" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="144"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17617200</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="127" t="s">
+      <c r="H30" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="128"/>
+      <c r="I30" s="144"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17619000</v>
@@ -9578,27 +9731,31 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A39B4-5C0D-4EFA-A7E5-D8070A5BFD8F}">
-  <dimension ref="A1:P42"/>
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="12" width="19.42578125" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9616,7 +9773,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -9624,27 +9781,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -9666,7 +9823,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9684,45 +9841,45 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105"/>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="H6" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="106" t="s">
+      <c r="I6" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="L6" s="106" t="s">
+      <c r="L6" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="106" t="s">
+      <c r="M6" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="106" t="s">
+      <c r="N6" s="137" t="s">
         <v>51</v>
       </c>
       <c r="O6" s="1"/>
@@ -9730,15 +9887,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="153" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
         <v>1</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>9</v>
@@ -9752,17 +9909,23 @@
       <c r="G7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="68"/>
+      <c r="H7" s="68">
+        <v>1300000</v>
+      </c>
       <c r="I7" s="68">
         <f>H7*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="68"/>
+        <v>780000</v>
+      </c>
+      <c r="J7" s="68">
+        <v>780000</v>
+      </c>
       <c r="K7" s="68">
         <f>I7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="69"/>
+      <c r="L7" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M7" s="76"/>
       <c r="N7" s="76"/>
       <c r="O7" s="1"/>
@@ -9770,14 +9933,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="154"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D8" s="75" t="s">
         <v>28</v>
@@ -9791,17 +9954,1098 @@
       <c r="G8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="68">
+        <v>2400000</v>
+      </c>
       <c r="I8" s="68">
         <f t="shared" ref="I8:I11" si="0">H8*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="74"/>
+        <v>1440000</v>
+      </c>
+      <c r="J8" s="74">
+        <v>1440000</v>
+      </c>
       <c r="K8" s="68">
         <f>I8-J8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69"/>
+      <c r="L8" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="76"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="154"/>
+      <c r="B9" s="70">
+        <f>B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="111">
+        <v>38085004911</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="127"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="154"/>
+      <c r="B10" s="64">
+        <f>B9+1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="68">
+        <v>1000000</v>
+      </c>
+      <c r="I10" s="68">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="J10" s="74">
+        <v>600000</v>
+      </c>
+      <c r="K10" s="68">
+        <f>I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="151">
+        <f>SUM(H7:H999)</f>
+        <v>28468000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="155"/>
+      <c r="B11" s="70">
+        <f>B10+1</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="74">
+        <v>500000</v>
+      </c>
+      <c r="I11" s="68">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="J11" s="74">
+        <v>300000</v>
+      </c>
+      <c r="K11" s="68">
+        <f>I11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="151"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="151">
+        <f>SUM(I7:I999)</f>
+        <v>17080800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="147" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="64">
+        <v>1</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="68">
+        <v>1850000</v>
+      </c>
+      <c r="I13" s="68">
+        <f>H13*N$4</f>
+        <v>1110000</v>
+      </c>
+      <c r="J13" s="68">
+        <v>1110000</v>
+      </c>
+      <c r="K13" s="68">
+        <f t="shared" ref="K13:K27" si="1">I13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="151"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="147"/>
+      <c r="B14" s="64">
+        <f>B13+1</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="68">
+        <v>2490000</v>
+      </c>
+      <c r="I14" s="68">
+        <f t="shared" ref="I14:I27" si="2">H14*N$4</f>
+        <v>1494000</v>
+      </c>
+      <c r="J14" s="68">
+        <v>1494000</v>
+      </c>
+      <c r="K14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="151"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="147"/>
+      <c r="B15" s="64">
+        <f t="shared" ref="B15:B24" si="3">B14+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="74">
+        <v>1410000</v>
+      </c>
+      <c r="I15" s="68">
+        <f t="shared" si="2"/>
+        <v>846000</v>
+      </c>
+      <c r="J15" s="74">
+        <v>846000</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="130">
+        <f>SUM(J7:J98)</f>
+        <v>15460200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="147"/>
+      <c r="B16" s="64">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="75">
+        <v>89082022656</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="68">
+        <v>1740000</v>
+      </c>
+      <c r="I16" s="68">
+        <f t="shared" si="2"/>
+        <v>1044000</v>
+      </c>
+      <c r="J16" s="74">
+        <v>1044000</v>
+      </c>
+      <c r="K16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="147"/>
+      <c r="B17" s="64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="68">
+        <v>1710000</v>
+      </c>
+      <c r="I17" s="68">
+        <f t="shared" si="2"/>
+        <v>1026000</v>
+      </c>
+      <c r="J17" s="74"/>
+      <c r="K17" s="68">
+        <f t="shared" si="1"/>
+        <v>1026000</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="147"/>
+      <c r="B18" s="64">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="68">
+        <v>1460000</v>
+      </c>
+      <c r="I18" s="68">
+        <f t="shared" si="2"/>
+        <v>876000</v>
+      </c>
+      <c r="J18" s="68">
+        <v>876000</v>
+      </c>
+      <c r="K18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="76"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="147"/>
+      <c r="B19" s="64">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="75">
+        <v>93097001330</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="75"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="74"/>
+      <c r="K19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="147"/>
+      <c r="B20" s="64">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="68">
+        <v>1720000</v>
+      </c>
+      <c r="I20" s="68">
+        <f t="shared" si="2"/>
+        <v>1032000</v>
+      </c>
+      <c r="J20" s="74">
+        <v>1032000</v>
+      </c>
+      <c r="K20" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="80"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="147"/>
+      <c r="B21" s="64">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="68">
+        <v>1910000</v>
+      </c>
+      <c r="I21" s="68">
+        <f t="shared" si="2"/>
+        <v>1146000</v>
+      </c>
+      <c r="J21" s="74">
+        <v>1146000</v>
+      </c>
+      <c r="K21" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="147"/>
+      <c r="B22" s="64">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="68">
+        <v>1990000</v>
+      </c>
+      <c r="I22" s="68">
+        <f t="shared" si="2"/>
+        <v>1194000</v>
+      </c>
+      <c r="J22" s="68">
+        <v>1200000</v>
+      </c>
+      <c r="K22" s="68">
+        <v>0</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="147"/>
+      <c r="B23" s="64">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="74">
+        <v>1752000</v>
+      </c>
+      <c r="I23" s="68">
+        <f t="shared" si="2"/>
+        <v>1051200</v>
+      </c>
+      <c r="J23" s="68">
+        <v>1051200</v>
+      </c>
+      <c r="K23" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="147"/>
+      <c r="B24" s="64">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="74">
+        <v>1868000</v>
+      </c>
+      <c r="I24" s="68">
+        <f t="shared" si="2"/>
+        <v>1120800</v>
+      </c>
+      <c r="J24" s="74">
+        <v>1120000</v>
+      </c>
+      <c r="K24" s="68">
+        <v>0</v>
+      </c>
+      <c r="L24" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="105"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="128"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="64">
+        <v>1</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="134">
+        <v>1828000</v>
+      </c>
+      <c r="I26" s="132">
+        <f t="shared" si="2"/>
+        <v>1096800</v>
+      </c>
+      <c r="J26" s="132">
+        <v>497000</v>
+      </c>
+      <c r="K26" s="132">
+        <v>0</v>
+      </c>
+      <c r="L26" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="N26" s="76"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="149"/>
+      <c r="B27" s="64">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="134">
+        <v>1540000</v>
+      </c>
+      <c r="I27" s="132">
+        <f t="shared" si="2"/>
+        <v>924000</v>
+      </c>
+      <c r="J27" s="133">
+        <v>924000</v>
+      </c>
+      <c r="K27" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="136" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" s="76"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="149"/>
+      <c r="B28" s="70">
+        <f>B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="125"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="79"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="149"/>
+      <c r="B29" s="64">
+        <f>B28+1</f>
+        <v>4</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="149"/>
+      <c r="B30" s="70">
+        <f>B29+1</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="P12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CE20F8-2946-4A89-B604-2D931ED8F90F}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="H4" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="137" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="153" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="67">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68">
+        <f>H7*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="154"/>
+      <c r="B8" s="64">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="82" t="s">
+        <v>72</v>
+      </c>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="1"/>
@@ -9809,15 +11053,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="154"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
       </c>
-      <c r="C9" s="109" t="s">
-        <v>80</v>
-      </c>
+      <c r="C9" s="125"/>
       <c r="D9" s="110" t="s">
         <v>75</v>
       </c>
@@ -9827,33 +11069,25 @@
       <c r="F9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="119">
-        <f>I9-J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="132"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="124"/>
       <c r="M9" s="115"/>
       <c r="N9" s="79"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="154"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>101</v>
@@ -9869,7 +11103,7 @@
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I8:I11" si="0">H10*N$4</f>
         <v>0</v>
       </c>
       <c r="J10" s="74"/>
@@ -9877,20 +11111,29 @@
         <f>I10-J10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="69"/>
+      <c r="L10" s="82" t="s">
+        <v>72</v>
+      </c>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="P10" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="151">
+        <f>SUM(H7:H999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="155"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>106</v>
@@ -9901,8 +11144,8 @@
       <c r="F11" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="73" t="s">
-        <v>82</v>
+      <c r="G11" s="127" t="s">
+        <v>73</v>
       </c>
       <c r="H11" s="74"/>
       <c r="I11" s="68">
@@ -9914,560 +11157,675 @@
         <f>I11-J11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="69"/>
+      <c r="L11" s="82" t="s">
+        <v>72</v>
+      </c>
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="151"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="P12" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="151">
+        <f>SUM(I7:I999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="147" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="64">
+        <v>1</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>14</v>
+      </c>
       <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="76"/>
+      <c r="I13" s="68">
+        <f>H13*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68">
+        <f t="shared" ref="K13:K27" si="1">I13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>72</v>
+      </c>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="151"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="147"/>
+      <c r="B14" s="64">
+        <f>B13+1</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68">
+        <f t="shared" ref="I14:I27" si="2">H14*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
-        <v>118</v>
-      </c>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="151"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="147"/>
       <c r="B15" s="64">
-        <v>1</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="67">
-        <v>38096003688</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="68"/>
+        <f t="shared" ref="B15:B24" si="3">B14+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="74"/>
       <c r="I15" s="68">
-        <f t="shared" ref="I15:I26" si="1">H15*N$4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="68">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="87"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
+      <c r="L15" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
+      <c r="P15" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="130">
+        <f>SUM(J7:J98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="147"/>
       <c r="B16" s="64">
-        <f>B15+1</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="67">
-        <v>89078016404</v>
-      </c>
-      <c r="F16" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="75">
+        <v>89082022656</v>
+      </c>
+      <c r="F16" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="66" t="s">
-        <v>17</v>
+      <c r="G16" s="75" t="s">
+        <v>56</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="74"/>
+      <c r="K16" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68">
-        <f t="shared" ref="K16:K26" si="2">I16-J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="87"/>
+      <c r="L16" s="82" t="s">
+        <v>72</v>
+      </c>
       <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
+      <c r="N16" s="85"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="64">
-        <f t="shared" ref="B17:B26" si="3">B16+1</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="72">
-        <v>89099008054</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="74"/>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="68"/>
       <c r="I17" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="74"/>
+      <c r="K17" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="68">
+      <c r="L17" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="147"/>
+      <c r="B18" s="64">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="87"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
-      <c r="B18" s="64">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="75">
-        <v>89082022656</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68">
+      <c r="J18" s="68"/>
+      <c r="K18" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="87"/>
+      <c r="L18" s="82" t="s">
+        <v>72</v>
+      </c>
       <c r="M18" s="76"/>
       <c r="N18" s="85"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>43</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C19" s="77"/>
       <c r="D19" s="75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="75">
-        <v>42088019031</v>
+        <v>93097001330</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>22</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G19" s="75"/>
       <c r="H19" s="68"/>
       <c r="I19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="74"/>
+      <c r="K19" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="87"/>
+      <c r="L19" s="76"/>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E20" s="75">
-        <v>49202008987</v>
+        <v>95095009661</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="74"/>
+      <c r="K20" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68">
+      <c r="L20" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="80"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="147"/>
+      <c r="B21" s="64">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="87"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
-      <c r="B21" s="64">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="75">
-        <v>93097001330</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68">
+      <c r="J21" s="74"/>
+      <c r="K21" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="68">
-        <f>I21-J21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="82" t="s">
+        <v>72</v>
+      </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="75">
-        <v>95095009661</v>
-      </c>
-      <c r="F22" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="75" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="H22" s="68"/>
       <c r="I22" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="74"/>
+      <c r="J22" s="68"/>
       <c r="K22" s="68">
         <v>0</v>
       </c>
-      <c r="L22" s="87"/>
-      <c r="M22" s="80"/>
+      <c r="L22" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="81">
-        <v>91085001515</v>
-      </c>
-      <c r="F23" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="68"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="74"/>
       <c r="I23" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="68">
+      <c r="L23" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="147"/>
+      <c r="B24" s="64">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="74"/>
+      <c r="I24" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="87"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
-      <c r="B24" s="64">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68">
+      <c r="J24" s="74"/>
+      <c r="K24" s="68">
+        <v>0</v>
+      </c>
+      <c r="L24" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="105"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="128"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="64">
+        <v>1</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="134"/>
+      <c r="I26" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132">
+        <v>0</v>
+      </c>
+      <c r="L26" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="136"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="149"/>
+      <c r="B27" s="64">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="134"/>
+      <c r="I27" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="133"/>
+      <c r="K27" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="87"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
-      <c r="B25" s="64">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="74"/>
-      <c r="K25" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="87"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
-      <c r="B26" s="64">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="122" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="87"/>
-      <c r="M26" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="N26" s="105"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="L27" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="136"/>
+      <c r="N27" s="76"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="128"/>
-      <c r="J28" s="9">
-        <f>SUM(H7:H1001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="128"/>
-      <c r="J29" s="9">
-        <f>SUM(I7:I1001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="128"/>
-      <c r="J30" s="63">
-        <f>SUM(J7:J26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="1"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="149"/>
+      <c r="B28" s="70">
+        <f>B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="125"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="79"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="149"/>
+      <c r="B29" s="64">
+        <f>B28+1</f>
+        <v>4</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="149"/>
+      <c r="B30" s="70">
+        <f>B29+1</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="P12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10502,32 +11860,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -11196,20 +12554,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -11336,32 +12694,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -12026,20 +13384,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -12165,32 +13523,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -12842,20 +14200,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -12981,32 +14339,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -13653,20 +15011,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -13795,32 +15153,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -14473,20 +15831,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -14615,32 +15973,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -15290,20 +16648,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18612000</v>
@@ -15434,32 +16792,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -16121,20 +17479,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -16276,32 +17634,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -16968,20 +18326,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="126"/>
+      <c r="I27" s="142"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>16918000</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C829F9FD-FC89-4713-8254-14137CB93F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04E7B6-51E0-4054-84F3-BC9770F194DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="439" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -35,21 +35,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="146">
   <si>
     <t>STT</t>
   </si>
@@ -1361,6 +1352,9 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,9 +1408,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4189,56 +4180,56 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +4267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -4310,7 +4301,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -4343,7 +4334,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4377,7 +4368,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4411,7 +4402,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4445,7 +4436,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4479,7 +4470,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4512,7 +4503,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4546,7 +4537,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4580,7 +4571,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4614,7 +4605,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4648,7 +4639,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4682,7 +4673,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4716,7 +4707,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4733,7 +4724,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4750,7 +4741,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4772,7 +4763,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4794,7 +4785,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="25" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D25" s="23" t="s">
         <v>65</v>
       </c>
@@ -4804,20 +4795,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="142" t="s">
+      <c r="H25" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="142"/>
+      <c r="I25" s="143"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="142" t="s">
+    <row r="26" spans="2:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H26" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -4828,67 +4819,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
         <v>35</v>
       </c>
@@ -4918,58 +4909,58 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -5045,7 +5036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -5083,7 +5074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5117,7 +5108,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5151,7 +5142,7 @@
       <c r="L10" s="62"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10 +1</f>
         <v>5</v>
@@ -5187,7 +5178,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5221,7 +5212,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5257,7 +5248,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5290,7 +5281,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5324,7 +5315,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5358,7 +5349,7 @@
       <c r="L16" s="16"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5392,7 +5383,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5428,7 +5419,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5461,7 +5452,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -5494,7 +5485,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -5527,7 +5518,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5561,7 +5552,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5595,7 +5586,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5612,7 +5603,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="C26" s="23" t="s">
         <v>65</v>
       </c>
@@ -5622,20 +5613,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28869000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17311000</v>
@@ -5651,17 +5642,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
@@ -5669,67 +5660,67 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
@@ -5755,21 +5746,21 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5787,47 +5778,47 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5849,7 +5840,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5867,7 +5858,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="105"/>
       <c r="B6" s="106" t="s">
         <v>0</v>
@@ -5913,8 +5904,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+    <row r="7" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="146" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="98">
@@ -5958,8 +5949,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
       <c r="B8" s="70">
         <f>B7+1</f>
         <v>2</v>
@@ -6005,8 +5996,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B12" si="1">B8+1</f>
         <v>3</v>
@@ -6048,8 +6039,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="147"/>
       <c r="B10" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6087,8 +6078,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="147"/>
       <c r="B11" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6130,8 +6121,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
       <c r="B12" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6173,8 +6164,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -6191,7 +6182,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A14" s="107"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -6209,8 +6200,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+    <row r="15" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="148" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64"/>
@@ -6229,8 +6220,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="148"/>
       <c r="B16" s="64">
         <v>1</v>
       </c>
@@ -6270,8 +6261,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
       <c r="B17" s="64">
         <f>B16+1</f>
         <v>2</v>
@@ -6312,8 +6303,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
       <c r="B18" s="64">
         <f t="shared" ref="B18:B26" si="2">B17+1</f>
         <v>3</v>
@@ -6354,8 +6345,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
       <c r="B19" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6396,8 +6387,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
       <c r="B20" s="64">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6438,8 +6429,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
+    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
       <c r="B21" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6480,8 +6471,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
+    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
       <c r="B22" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6522,8 +6513,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
+    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
       <c r="B23" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -6564,8 +6555,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
+    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="148"/>
       <c r="B24" s="64">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6606,8 +6597,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
+    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="148"/>
       <c r="B25" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6648,8 +6639,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
+    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="148"/>
       <c r="B26" s="64">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -6691,47 +6682,47 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="143" t="s">
+    <row r="28" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H28" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29569000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="143" t="s">
+    <row r="29" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H29" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17731000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="143" t="s">
+    <row r="30" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H30" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17731000</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="G41" s="25"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -6762,23 +6753,23 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6796,7 +6787,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -6804,27 +6795,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -6846,7 +6837,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6864,7 +6855,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="105"/>
       <c r="B6" s="106" t="s">
         <v>0</v>
@@ -6910,8 +6901,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+    <row r="7" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="146" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -6956,8 +6947,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -7001,8 +6992,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -7040,8 +7031,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="147"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -7083,8 +7074,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="147"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -7126,8 +7117,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -7144,8 +7135,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -7162,7 +7153,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A14" s="107"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -7180,8 +7171,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+    <row r="15" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="148" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -7224,8 +7215,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="148"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -7267,8 +7258,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -7310,8 +7301,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7353,8 +7344,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7396,8 +7387,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7439,8 +7430,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
+    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7483,8 +7474,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
+    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7526,8 +7517,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
+    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7569,8 +7560,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
+    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="148"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -7611,8 +7602,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
+    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="148"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -7654,8 +7645,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
+    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="148"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -7677,47 +7668,47 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="143" t="s">
+    <row r="28" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H28" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29980000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="143" t="s">
+    <row r="29" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H29" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17988000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="143" t="s">
+    <row r="30" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H30" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>17996000</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="G41" s="25"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -7746,21 +7737,21 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7778,7 +7769,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -7786,27 +7777,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -7828,7 +7819,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7846,7 +7837,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="105"/>
       <c r="B6" s="106" t="s">
         <v>0</v>
@@ -7892,8 +7883,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+    <row r="7" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="146" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -7938,8 +7929,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -7983,8 +7974,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -8022,8 +8013,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="147"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -8065,8 +8056,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="147"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -8110,8 +8101,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -8128,8 +8119,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -8146,7 +8137,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A14" s="107"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -8164,8 +8155,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+    <row r="15" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="148" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -8208,8 +8199,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="148"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -8251,8 +8242,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -8294,8 +8285,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8337,8 +8328,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8380,8 +8371,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8423,8 +8414,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
+    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8466,8 +8457,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
+    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8509,8 +8500,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
+    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8552,8 +8543,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
+    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="148"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8595,8 +8586,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
+    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="148"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -8638,8 +8629,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
+    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="148"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -8669,47 +8660,47 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="143" t="s">
+    <row r="28" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H28" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31650000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="143" t="s">
+    <row r="29" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H29" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18990000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="143" t="s">
+    <row r="30" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H30" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>18990000</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="G41" s="25"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -8739,21 +8730,21 @@
       <selection activeCell="J11" activeCellId="1" sqref="H11 J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8771,7 +8762,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -8779,27 +8770,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -8821,7 +8812,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8839,7 +8830,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="105"/>
       <c r="B6" s="106" t="s">
         <v>0</v>
@@ -8885,8 +8876,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+    <row r="7" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="146" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -8931,8 +8922,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -8976,8 +8967,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -9015,8 +9006,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="147"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -9058,8 +9049,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="147"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -9101,8 +9092,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -9119,8 +9110,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -9137,7 +9128,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A14" s="107"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -9155,8 +9146,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+    <row r="15" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="148" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -9198,8 +9189,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="148"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -9241,8 +9232,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -9284,8 +9275,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9327,8 +9318,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9370,8 +9361,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9413,8 +9404,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
+    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9458,8 +9449,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
+    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9500,8 +9491,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
+    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -9543,8 +9534,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
+    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="148"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9586,8 +9577,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
+    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="148"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -9629,8 +9620,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
+    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="148"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -9668,47 +9659,47 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="143" t="s">
+    <row r="28" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H28" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="144"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29362000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="143" t="s">
+    <row r="29" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H29" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="144"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17617200</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="143" t="s">
+    <row r="30" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H30" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="144"/>
+      <c r="I30" s="145"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17619000</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="G41" s="25"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -9734,28 +9725,28 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9773,7 +9764,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -9781,27 +9772,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -9823,7 +9814,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9841,7 +9832,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="105"/>
       <c r="B6" s="137" t="s">
         <v>0</v>
@@ -9887,8 +9878,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="154" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -9933,8 +9924,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="155"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -9980,8 +9971,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="155"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -10002,13 +9993,13 @@
       <c r="J9" s="126"/>
       <c r="K9" s="126"/>
       <c r="L9" s="124"/>
-      <c r="M9" s="157"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="79"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154"/>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="155"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -10048,17 +10039,17 @@
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="156" t="s">
+      <c r="P10" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="151">
+      <c r="Q10" s="157"/>
+      <c r="R10" s="152">
         <f>SUM(H7:H999)</f>
         <v>28468000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="156"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -10098,11 +10089,11 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="151"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="152"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="107"/>
       <c r="B12" s="89"/>
       <c r="C12" s="90"/>
@@ -10118,17 +10109,17 @@
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="150" t="s">
+      <c r="P12" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="151">
+      <c r="Q12" s="151"/>
+      <c r="R12" s="152">
         <f>SUM(I7:I999)</f>
         <v>17080800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="147" t="s">
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="148" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="64">
@@ -10169,12 +10160,12 @@
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="151"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="152"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="148"/>
       <c r="B14" s="64">
         <f>B13+1</f>
         <v>2</v>
@@ -10214,12 +10205,12 @@
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="151"/>
-    </row>
-    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="152"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="148"/>
       <c r="B15" s="64">
         <f t="shared" ref="B15:B24" si="3">B14+1</f>
         <v>3</v>
@@ -10259,17 +10250,17 @@
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="152" t="s">
+      <c r="P15" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="152"/>
+      <c r="Q15" s="153"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
-        <v>15460200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+        <v>16486200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="148"/>
       <c r="B16" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10311,8 +10302,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
       <c r="B17" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -10339,21 +10330,23 @@
         <f t="shared" si="2"/>
         <v>1026000</v>
       </c>
-      <c r="J17" s="74"/>
+      <c r="J17" s="74">
+        <v>1026000</v>
+      </c>
       <c r="K17" s="68">
         <f t="shared" si="1"/>
-        <v>1026000</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="L17" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M17" s="76"/>
       <c r="N17" s="76"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -10395,8 +10388,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -10428,8 +10421,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -10471,8 +10464,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
+    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -10514,8 +10507,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
+    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -10556,8 +10549,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
+    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -10599,8 +10592,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
+    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="148"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -10637,7 +10630,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="128"/>
       <c r="B25" s="129"/>
       <c r="C25" s="129"/>
@@ -10655,8 +10648,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="148" t="s">
+    <row r="26" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="149" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="64">
@@ -10694,8 +10687,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
+    <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="150"/>
       <c r="B27" s="64">
         <f>B26+1</f>
         <v>2</v>
@@ -10733,8 +10726,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="149"/>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="150"/>
       <c r="B28" s="70">
         <f>B27+1</f>
         <v>3</v>
@@ -10752,8 +10745,8 @@
       <c r="M28" s="115"/>
       <c r="N28" s="79"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="149"/>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="150"/>
       <c r="B29" s="64">
         <f>B28+1</f>
         <v>4</v>
@@ -10771,8 +10764,8 @@
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="149"/>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="150"/>
       <c r="B30" s="70">
         <f>B29+1</f>
         <v>5</v>
@@ -10790,14 +10783,14 @@
       <c r="M30" s="79"/>
       <c r="N30" s="79"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="G39" s="25"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -10825,28 +10818,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CE20F8-2946-4A89-B604-2D931ED8F90F}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10864,7 +10857,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -10872,27 +10865,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -10914,7 +10907,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -10932,7 +10925,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="105"/>
       <c r="B6" s="137" t="s">
         <v>0</v>
@@ -10978,8 +10971,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="154" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -11000,15 +10993,17 @@
       <c r="G7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="68"/>
+      <c r="H7" s="68">
+        <v>1900000</v>
+      </c>
       <c r="I7" s="68">
         <f>H7*N$4</f>
-        <v>0</v>
+        <v>1140000</v>
       </c>
       <c r="J7" s="68"/>
       <c r="K7" s="68">
         <f>I7-J7</f>
-        <v>0</v>
+        <v>1140000</v>
       </c>
       <c r="L7" s="82" t="s">
         <v>72</v>
@@ -11020,8 +11015,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="155"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -11043,9 +11038,7 @@
       <c r="I8" s="68"/>
       <c r="J8" s="74"/>
       <c r="K8" s="68"/>
-      <c r="L8" s="82" t="s">
-        <v>72</v>
-      </c>
+      <c r="L8" s="131"/>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="1"/>
@@ -11053,8 +11046,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="155"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -11080,8 +11073,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154"/>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="155"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -11101,15 +11094,17 @@
       <c r="G10" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="68"/>
+      <c r="H10" s="68">
+        <v>1150000</v>
+      </c>
       <c r="I10" s="68">
-        <f t="shared" ref="I8:I11" si="0">H10*N$4</f>
-        <v>0</v>
+        <f t="shared" ref="I10:I11" si="0">H10*N$4</f>
+        <v>690000</v>
       </c>
       <c r="J10" s="74"/>
       <c r="K10" s="68">
         <f>I10-J10</f>
-        <v>0</v>
+        <v>690000</v>
       </c>
       <c r="L10" s="82" t="s">
         <v>72</v>
@@ -11117,17 +11112,17 @@
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="156" t="s">
+      <c r="P10" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="151">
+      <c r="Q10" s="157"/>
+      <c r="R10" s="152">
         <f>SUM(H7:H999)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+        <v>11965000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="156"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -11147,15 +11142,17 @@
       <c r="G11" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="74">
+        <v>1050000</v>
+      </c>
       <c r="I11" s="68">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>630000</v>
       </c>
       <c r="J11" s="74"/>
       <c r="K11" s="68">
         <f>I11-J11</f>
-        <v>0</v>
+        <v>630000</v>
       </c>
       <c r="L11" s="82" t="s">
         <v>72</v>
@@ -11163,11 +11160,11 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="151"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="152"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="107"/>
       <c r="B12" s="89"/>
       <c r="C12" s="90"/>
@@ -11183,17 +11180,17 @@
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="150" t="s">
+      <c r="P12" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="151">
+      <c r="Q12" s="151"/>
+      <c r="R12" s="152">
         <f>SUM(I7:I999)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="147" t="s">
+        <v>7179000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="148" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="64">
@@ -11230,12 +11227,12 @@
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="151"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="152"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="148"/>
       <c r="B14" s="64">
         <f>B13+1</f>
         <v>2</v>
@@ -11255,28 +11252,32 @@
       <c r="G14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="68">
+        <v>1630000</v>
+      </c>
       <c r="I14" s="68">
         <f t="shared" ref="I14:I27" si="2">H14*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="68"/>
+        <v>978000</v>
+      </c>
+      <c r="J14" s="68">
+        <v>978000</v>
+      </c>
       <c r="K14" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="82" t="s">
-        <v>72</v>
+      <c r="L14" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="151"/>
-    </row>
-    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="152"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="148"/>
       <c r="B15" s="64">
         <f t="shared" ref="B15:B24" si="3">B14+1</f>
         <v>3</v>
@@ -11296,33 +11297,37 @@
       <c r="G15" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="74"/>
+      <c r="H15" s="74">
+        <v>1490000</v>
+      </c>
       <c r="I15" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="74"/>
+        <v>894000</v>
+      </c>
+      <c r="J15" s="74">
+        <v>894000</v>
+      </c>
       <c r="K15" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="82" t="s">
-        <v>72</v>
+      <c r="L15" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="152" t="s">
+      <c r="P15" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="152"/>
+      <c r="Q15" s="153"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+        <v>3897000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="148"/>
       <c r="B16" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -11360,8 +11365,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
       <c r="B17" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -11399,8 +11404,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -11438,8 +11443,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="148"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -11471,8 +11476,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -11492,26 +11497,30 @@
       <c r="G20" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="68">
+        <v>1650000</v>
+      </c>
       <c r="I20" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="74"/>
+        <v>990000</v>
+      </c>
+      <c r="J20" s="74">
+        <v>990000</v>
+      </c>
       <c r="K20" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="82" t="s">
-        <v>72</v>
+      <c r="L20" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M20" s="80"/>
       <c r="N20" s="76"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
+    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -11549,8 +11558,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
+    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -11587,8 +11596,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
+    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -11626,8 +11635,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
+    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="148"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -11641,14 +11650,17 @@
       <c r="G24" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="74"/>
+      <c r="H24" s="74">
+        <v>1370000</v>
+      </c>
       <c r="I24" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>822000</v>
       </c>
       <c r="J24" s="74"/>
       <c r="K24" s="68">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>822000</v>
       </c>
       <c r="L24" s="82" t="s">
         <v>72</v>
@@ -11660,7 +11672,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="128"/>
       <c r="B25" s="129"/>
       <c r="C25" s="129"/>
@@ -11678,8 +11690,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="148" t="s">
+    <row r="26" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="149" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="64">
@@ -11711,8 +11723,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
+    <row r="27" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="150"/>
       <c r="B27" s="64">
         <f>B26+1</f>
         <v>2</v>
@@ -11726,26 +11738,30 @@
       <c r="G27" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="134"/>
+      <c r="H27" s="134">
+        <v>1725000</v>
+      </c>
       <c r="I27" s="132">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="133"/>
+        <v>1035000</v>
+      </c>
+      <c r="J27" s="133">
+        <v>1035000</v>
+      </c>
       <c r="K27" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="82" t="s">
-        <v>72</v>
+      <c r="L27" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M27" s="136"/>
       <c r="N27" s="76"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="149"/>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="150"/>
       <c r="B28" s="70">
         <f>B27+1</f>
         <v>3</v>
@@ -11763,8 +11779,8 @@
       <c r="M28" s="115"/>
       <c r="N28" s="79"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="149"/>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="150"/>
       <c r="B29" s="64">
         <f>B28+1</f>
         <v>4</v>
@@ -11782,8 +11798,8 @@
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="149"/>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="150"/>
       <c r="B30" s="70">
         <f>B29+1</f>
         <v>5</v>
@@ -11801,14 +11817,14 @@
       <c r="M30" s="79"/>
       <c r="N30" s="79"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="G39" s="25"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -11841,56 +11857,56 @@
       <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -11928,7 +11944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -11960,7 +11976,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -11996,7 +12012,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -12029,7 +12045,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -12063,7 +12079,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12099,7 +12115,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12133,7 +12149,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12169,7 +12185,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12203,7 +12219,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12237,7 +12253,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12271,7 +12287,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12304,7 +12320,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12339,7 +12355,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12372,7 +12388,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>71</v>
       </c>
@@ -12408,7 +12424,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>71</v>
       </c>
@@ -12445,7 +12461,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12478,7 +12494,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12511,7 +12527,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12544,7 +12560,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -12554,20 +12570,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -12583,67 +12599,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -12675,56 +12691,56 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -12762,7 +12778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -12794,7 +12810,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -12829,7 +12845,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -12862,7 +12878,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -12898,7 +12914,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12934,7 +12950,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12968,7 +12984,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13004,7 +13020,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13037,7 +13053,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13071,7 +13087,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13105,7 +13121,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13139,7 +13155,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -13174,7 +13190,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13207,7 +13223,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -13241,7 +13257,7 @@
       <c r="L20" s="43"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -13275,7 +13291,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13308,7 +13324,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13341,7 +13357,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13374,7 +13390,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -13384,20 +13400,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -13413,67 +13429,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -13504,56 +13520,56 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -13591,7 +13607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -13624,7 +13640,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -13660,7 +13676,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -13693,7 +13709,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B23" si="0">B9 +1</f>
         <v>4</v>
@@ -13728,7 +13744,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13764,7 +13780,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13798,7 +13814,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13834,7 +13850,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13868,7 +13884,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13902,7 +13918,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13936,7 +13952,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13970,7 +13986,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14008,7 +14024,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14042,7 +14058,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -14076,7 +14092,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -14110,7 +14126,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14143,7 +14159,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14176,7 +14192,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -14190,7 +14206,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -14200,20 +14216,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -14229,67 +14245,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -14320,56 +14336,56 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -14407,7 +14423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -14439,7 +14455,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -14475,7 +14491,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -14508,7 +14524,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14544,7 +14560,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14580,7 +14596,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14614,7 +14630,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14649,7 +14665,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14683,7 +14699,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14717,7 +14733,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14750,7 +14766,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14784,7 +14800,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14819,7 +14835,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14852,7 +14868,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -14886,7 +14902,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -14921,7 +14937,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14954,7 +14970,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14987,7 +15003,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -15001,7 +15017,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -15011,20 +15027,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -15040,22 +15056,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -15063,47 +15079,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -15134,56 +15150,56 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -15221,7 +15237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -15254,7 +15270,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -15290,7 +15306,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -15324,7 +15340,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -15360,7 +15376,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15396,7 +15412,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -15430,7 +15446,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -15466,7 +15482,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -15500,7 +15516,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -15534,7 +15550,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -15568,7 +15584,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -15603,7 +15619,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -15639,7 +15655,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15672,7 +15688,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -15706,7 +15722,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -15741,7 +15757,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15774,7 +15790,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15807,7 +15823,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -15821,7 +15837,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -15831,20 +15847,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -15860,22 +15876,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -15883,47 +15899,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -15954,56 +15970,56 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -16041,7 +16057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -16073,7 +16089,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -16109,7 +16125,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -16143,7 +16159,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -16179,7 +16195,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -16215,7 +16231,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -16249,7 +16265,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -16285,7 +16301,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -16319,7 +16335,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -16353,7 +16369,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -16387,7 +16403,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -16419,7 +16435,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -16455,7 +16471,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -16489,7 +16505,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -16523,7 +16539,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -16558,7 +16574,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -16591,7 +16607,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -16624,7 +16640,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -16638,7 +16654,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -16648,20 +16664,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18612000</v>
@@ -16677,22 +16693,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -16700,47 +16716,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -16771,58 +16787,58 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -16863,7 +16879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -16898,7 +16914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -16937,7 +16953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -16971,7 +16987,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -17007,7 +17023,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -17043,7 +17059,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -17077,7 +17093,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -17113,7 +17129,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -17147,7 +17163,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -17181,7 +17197,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -17215,7 +17231,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -17248,7 +17264,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -17284,7 +17300,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -17318,7 +17334,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -17352,7 +17368,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -17387,7 +17403,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -17421,7 +17437,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -17455,7 +17471,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -17469,7 +17485,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -17479,20 +17495,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -17508,22 +17524,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -17531,62 +17547,62 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
@@ -17613,58 +17629,58 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -17705,7 +17721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -17740,7 +17756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -17779,7 +17795,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -17813,7 +17829,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -17849,7 +17865,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -17885,7 +17901,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -17919,7 +17935,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -17955,7 +17971,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -17989,7 +18005,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18023,7 +18039,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18057,7 +18073,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18091,7 +18107,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18127,7 +18143,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18161,7 +18177,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -18197,7 +18213,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -18232,7 +18248,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18265,7 +18281,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18299,7 +18315,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -18316,7 +18332,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -18326,20 +18342,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28500000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="142" t="s">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="H27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>16918000</v>
@@ -18355,22 +18371,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -18378,62 +18394,62 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Theo dõi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04E7B6-51E0-4054-84F3-BC9770F194DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35BABC1-1E4A-41EE-AFAD-16C25B2F828D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="439" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -29,18 +29,28 @@
     <sheet name="13-01" sheetId="18" r:id="rId14"/>
     <sheet name="14-01" sheetId="19" r:id="rId15"/>
     <sheet name="15-01" sheetId="20" r:id="rId16"/>
+    <sheet name="16-01" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -480,6 +490,15 @@
   <si>
     <t>nhận thêm 100k ngày 15</t>
   </si>
+  <si>
+    <t>Nghỉ chịu tang</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐĂNG KHÁNH</t>
+  </si>
 </sst>
 </file>
 
@@ -704,7 +723,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +822,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -962,7 +993,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1355,6 +1386,22 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1407,6 +1454,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4177,59 +4227,59 @@
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -4301,7 +4351,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -4334,7 +4384,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4368,7 +4418,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4402,7 +4452,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4436,7 +4486,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4470,7 +4520,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4503,7 +4553,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4537,7 +4587,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4571,7 +4621,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4605,7 +4655,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4639,7 +4689,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4673,7 +4723,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4707,7 +4757,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4724,7 +4774,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4741,7 +4791,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4763,7 +4813,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4785,7 +4835,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="25" spans="2:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D25" s="23" t="s">
         <v>65</v>
       </c>
@@ -4795,20 +4845,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="143" t="s">
+      <c r="H25" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="143"/>
+      <c r="I25" s="149"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H26" s="143" t="s">
+    <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H26" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -4819,67 +4869,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
         <v>35</v>
       </c>
@@ -4909,58 +4959,58 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +5051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -5036,7 +5086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -5074,7 +5124,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5108,7 +5158,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5142,7 +5192,7 @@
       <c r="L10" s="62"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10 +1</f>
         <v>5</v>
@@ -5178,7 +5228,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5212,7 +5262,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5248,7 +5298,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5281,7 +5331,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5315,7 +5365,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5349,7 +5399,7 @@
       <c r="L16" s="16"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5383,7 +5433,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5419,7 +5469,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5452,7 +5502,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -5485,7 +5535,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -5518,7 +5568,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5552,7 +5602,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5586,7 +5636,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5603,7 +5653,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="C26" s="23" t="s">
         <v>65</v>
       </c>
@@ -5613,20 +5663,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28869000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17311000</v>
@@ -5642,17 +5692,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
@@ -5660,67 +5710,67 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
@@ -5746,21 +5796,21 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5778,47 +5828,47 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5840,7 +5890,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5858,7 +5908,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="105"/>
       <c r="B6" s="106" t="s">
         <v>0</v>
@@ -5904,8 +5954,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="146" t="s">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="152" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="98">
@@ -5949,8 +5999,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="153"/>
       <c r="B8" s="70">
         <f>B7+1</f>
         <v>2</v>
@@ -5996,8 +6046,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="153"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B12" si="1">B8+1</f>
         <v>3</v>
@@ -6039,8 +6089,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="153"/>
       <c r="B10" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6078,8 +6128,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="153"/>
       <c r="B11" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6121,8 +6171,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="153"/>
       <c r="B12" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6164,8 +6214,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="153"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -6182,7 +6232,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="107"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -6200,8 +6250,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="148" t="s">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="154" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64"/>
@@ -6220,8 +6270,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154"/>
       <c r="B16" s="64">
         <v>1</v>
       </c>
@@ -6261,8 +6311,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154"/>
       <c r="B17" s="64">
         <f>B16+1</f>
         <v>2</v>
@@ -6303,8 +6353,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
       <c r="B18" s="64">
         <f t="shared" ref="B18:B26" si="2">B17+1</f>
         <v>3</v>
@@ -6345,8 +6395,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154"/>
       <c r="B19" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6387,8 +6437,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154"/>
       <c r="B20" s="64">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6429,8 +6479,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154"/>
       <c r="B21" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6471,8 +6521,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
       <c r="B22" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6513,8 +6563,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
       <c r="B23" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -6555,8 +6605,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
       <c r="B24" s="64">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6597,8 +6647,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="154"/>
       <c r="B25" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6639,8 +6689,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="148"/>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="154"/>
       <c r="B26" s="64">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -6682,47 +6732,47 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H28" s="144" t="s">
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="145"/>
+      <c r="I28" s="151"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29569000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H29" s="144" t="s">
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="145"/>
+      <c r="I29" s="151"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17731000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H30" s="144" t="s">
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="145"/>
+      <c r="I30" s="151"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17731000</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="G41" s="25"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -6753,23 +6803,23 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="25.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6787,7 +6837,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -6795,27 +6845,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -6837,7 +6887,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6855,7 +6905,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="105"/>
       <c r="B6" s="106" t="s">
         <v>0</v>
@@ -6901,8 +6951,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="146" t="s">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="152" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -6947,8 +6997,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="153"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -6992,8 +7042,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="153"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -7031,8 +7081,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="153"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -7074,8 +7124,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="153"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -7117,8 +7167,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="153"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -7135,8 +7185,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="153"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -7153,7 +7203,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="107"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -7171,8 +7221,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="148" t="s">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="154" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -7215,8 +7265,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -7258,8 +7308,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -7301,8 +7351,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7344,8 +7394,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7387,8 +7437,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7430,8 +7480,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7474,8 +7524,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7517,8 +7567,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7560,8 +7610,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -7602,8 +7652,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="154"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -7645,8 +7695,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="148"/>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="154"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -7668,47 +7718,47 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H28" s="144" t="s">
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="145"/>
+      <c r="I28" s="151"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29980000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H29" s="144" t="s">
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="145"/>
+      <c r="I29" s="151"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17988000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H30" s="144" t="s">
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="145"/>
+      <c r="I30" s="151"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>17996000</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="G41" s="25"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -7733,25 +7783,25 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7769,7 +7819,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -7777,27 +7827,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -7819,7 +7869,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7837,7 +7887,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="105"/>
       <c r="B6" s="106" t="s">
         <v>0</v>
@@ -7883,8 +7933,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="146" t="s">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="152" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -7929,8 +7979,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="153"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -7974,8 +8024,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="153"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -8013,8 +8063,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="153"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -8056,8 +8106,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="153"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -8101,8 +8151,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="153"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -8119,8 +8169,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="153"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -8137,7 +8187,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="107"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -8155,8 +8205,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="148" t="s">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="154" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -8199,8 +8249,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -8242,8 +8292,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -8285,8 +8335,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8328,8 +8378,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8371,8 +8421,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8414,8 +8464,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8457,8 +8507,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8500,8 +8550,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8543,8 +8593,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8586,8 +8636,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="154"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -8629,8 +8679,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="148"/>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="154"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -8660,47 +8710,47 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H28" s="144" t="s">
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="145"/>
+      <c r="I28" s="151"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31650000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H29" s="144" t="s">
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="145"/>
+      <c r="I29" s="151"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18990000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H30" s="144" t="s">
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="145"/>
+      <c r="I30" s="151"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>18990000</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="G41" s="25"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -8727,24 +8777,24 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" activeCellId="1" sqref="H11 J11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8762,7 +8812,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -8770,27 +8820,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -8812,7 +8862,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8830,7 +8880,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="105"/>
       <c r="B6" s="106" t="s">
         <v>0</v>
@@ -8876,8 +8926,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="146" t="s">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="152" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -8922,8 +8972,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="153"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -8967,8 +9017,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="153"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -9006,8 +9056,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="153"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -9049,8 +9099,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="153"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -9092,8 +9142,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="153"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -9110,8 +9160,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="153"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -9128,7 +9178,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="107"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
@@ -9146,8 +9196,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="148" t="s">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="154" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -9189,8 +9239,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -9232,8 +9282,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -9275,8 +9325,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9318,8 +9368,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9361,8 +9411,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9404,8 +9454,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9449,8 +9499,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9491,8 +9541,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -9534,8 +9584,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9577,8 +9627,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="154"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -9620,8 +9670,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="148"/>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="154"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -9659,47 +9709,47 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H28" s="144" t="s">
+    <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="145"/>
+      <c r="I28" s="151"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29362000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H29" s="144" t="s">
+    <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="145"/>
+      <c r="I29" s="151"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17617200</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H30" s="144" t="s">
+    <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="145"/>
+      <c r="I30" s="151"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17619000</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
       <c r="G41" s="25"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -9725,28 +9775,28 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" activeCellId="1" sqref="H11 J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" customWidth="1"/>
-    <col min="17" max="17" width="22.5546875" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9764,7 +9814,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -9772,27 +9822,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -9814,7 +9864,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9832,7 +9882,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105"/>
       <c r="B6" s="137" t="s">
         <v>0</v>
@@ -9878,8 +9928,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154" t="s">
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="160" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -9924,8 +9974,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="155"/>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="161"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -9971,8 +10021,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="161"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -9998,8 +10048,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="161"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -10039,17 +10089,17 @@
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="157" t="s">
+      <c r="P10" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="152">
+      <c r="Q10" s="163"/>
+      <c r="R10" s="158">
         <f>SUM(H7:H999)</f>
         <v>28468000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="156"/>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="162"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -10089,11 +10139,11 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="152"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="158"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107"/>
       <c r="B12" s="89"/>
       <c r="C12" s="90"/>
@@ -10109,17 +10159,17 @@
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="151" t="s">
+      <c r="P12" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="152">
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158">
         <f>SUM(I7:I999)</f>
         <v>17080800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148" t="s">
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="154" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="64">
@@ -10160,12 +10210,12 @@
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="152"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="148"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="158"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="154"/>
       <c r="B14" s="64">
         <f>B13+1</f>
         <v>2</v>
@@ -10205,12 +10255,12 @@
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="152"/>
-    </row>
-    <row r="15" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="148"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="154"/>
       <c r="B15" s="64">
         <f t="shared" ref="B15:B24" si="3">B14+1</f>
         <v>3</v>
@@ -10250,17 +10300,17 @@
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="153" t="s">
+      <c r="P15" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="153"/>
+      <c r="Q15" s="159"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
         <v>16486200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154"/>
       <c r="B16" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10302,8 +10352,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154"/>
       <c r="B17" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -10345,8 +10395,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -10388,8 +10438,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -10421,8 +10471,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -10464,8 +10514,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -10507,8 +10557,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -10549,8 +10599,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -10592,8 +10642,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -10630,7 +10680,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="128"/>
       <c r="B25" s="129"/>
       <c r="C25" s="129"/>
@@ -10648,8 +10698,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="149" t="s">
+    <row r="26" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="155" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="64">
@@ -10687,8 +10737,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="150"/>
+    <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="156"/>
       <c r="B27" s="64">
         <f>B26+1</f>
         <v>2</v>
@@ -10726,8 +10776,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="150"/>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="156"/>
       <c r="B28" s="70">
         <f>B27+1</f>
         <v>3</v>
@@ -10745,8 +10795,8 @@
       <c r="M28" s="115"/>
       <c r="N28" s="79"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="150"/>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="156"/>
       <c r="B29" s="64">
         <f>B28+1</f>
         <v>4</v>
@@ -10764,8 +10814,8 @@
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150"/>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="156"/>
       <c r="B30" s="70">
         <f>B29+1</f>
         <v>5</v>
@@ -10783,14 +10833,14 @@
       <c r="M30" s="79"/>
       <c r="N30" s="79"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="G39" s="25"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -10818,28 +10868,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CE20F8-2946-4A89-B604-2D931ED8F90F}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" customWidth="1"/>
-    <col min="17" max="17" width="22.5546875" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10857,7 +10907,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -10865,27 +10915,27 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -10907,7 +10957,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -10925,7 +10975,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105"/>
       <c r="B6" s="137" t="s">
         <v>0</v>
@@ -10971,8 +11021,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154" t="s">
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="160" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -11000,13 +11050,15 @@
         <f>H7*N$4</f>
         <v>1140000</v>
       </c>
-      <c r="J7" s="68"/>
+      <c r="J7" s="68">
+        <v>1140000</v>
+      </c>
       <c r="K7" s="68">
         <f>I7-J7</f>
-        <v>1140000</v>
-      </c>
-      <c r="L7" s="82" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>26</v>
       </c>
       <c r="M7" s="76"/>
       <c r="N7" s="76"/>
@@ -11015,13 +11067,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="155"/>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="161"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="80" t="s">
+        <v>147</v>
+      </c>
       <c r="D8" s="75" t="s">
         <v>28</v>
       </c>
@@ -11034,11 +11088,21 @@
       <c r="G8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="131"/>
+      <c r="H8" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="80" t="s">
+        <v>147</v>
+      </c>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="1"/>
@@ -11046,125 +11110,109 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
-      <c r="B9" s="70">
-        <f>B8+1</f>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="161"/>
+      <c r="B9" s="64">
+        <f t="shared" ref="B9:B10" si="0">B8+1</f>
         <v>3</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="111">
-        <v>38085004911</v>
-      </c>
-      <c r="F9" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="124"/>
+      <c r="C9" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="68">
+        <v>1150000</v>
+      </c>
+      <c r="I9" s="68">
+        <f>H9*N$4</f>
+        <v>690000</v>
+      </c>
+      <c r="J9" s="74">
+        <v>690000</v>
+      </c>
+      <c r="K9" s="68">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M9" s="115"/>
       <c r="N9" s="79"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="161"/>
       <c r="B10" s="64">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="66">
-        <v>70081001153</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="68">
-        <v>1150000</v>
+      <c r="C10" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="74">
+        <v>1050000</v>
       </c>
       <c r="I10" s="68">
-        <f t="shared" ref="I10:I11" si="0">H10*N$4</f>
-        <v>690000</v>
-      </c>
-      <c r="J10" s="74"/>
+        <f>H10*N$4</f>
+        <v>630000</v>
+      </c>
+      <c r="J10" s="74">
+        <v>630000</v>
+      </c>
       <c r="K10" s="68">
         <f>I10-J10</f>
-        <v>690000</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
       </c>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="157" t="s">
+      <c r="P10" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="152">
+      <c r="Q10" s="163"/>
+      <c r="R10" s="158">
         <f>SUM(H7:H999)</f>
-        <v>11965000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="156"/>
-      <c r="B11" s="70">
-        <f>B10+1</f>
-        <v>5</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="73">
-        <v>27068001194</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="74">
-        <v>1050000</v>
-      </c>
-      <c r="I11" s="68">
-        <f t="shared" si="0"/>
-        <v>630000</v>
-      </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="68">
-        <f>I11-J11</f>
-        <v>630000</v>
-      </c>
-      <c r="L11" s="82" t="s">
-        <v>72</v>
-      </c>
+        <v>20755000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="162"/>
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="152"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="158"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107"/>
       <c r="B12" s="89"/>
       <c r="C12" s="90"/>
@@ -11180,17 +11228,17 @@
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="151" t="s">
+      <c r="P12" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="152">
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158">
         <f>SUM(I7:I999)</f>
-        <v>7179000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148" t="s">
+        <v>12453000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="154" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="64">
@@ -11211,28 +11259,32 @@
       <c r="G13" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="68">
+        <v>2060000</v>
+      </c>
       <c r="I13" s="68">
         <f>H13*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="68"/>
+        <v>1236000</v>
+      </c>
+      <c r="J13" s="68">
+        <v>1236000</v>
+      </c>
       <c r="K13" s="68">
         <f t="shared" ref="K13:K27" si="1">I13-J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="82" t="s">
-        <v>72</v>
+      <c r="L13" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="152"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="148"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="158"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="154"/>
       <c r="B14" s="64">
         <f>B13+1</f>
         <v>2</v>
@@ -11272,12 +11324,12 @@
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="152"/>
-    </row>
-    <row r="15" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="148"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="154"/>
       <c r="B15" s="64">
         <f t="shared" ref="B15:B24" si="3">B14+1</f>
         <v>3</v>
@@ -11317,362 +11369,350 @@
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="153" t="s">
+      <c r="P15" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="153"/>
+      <c r="Q15" s="159"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
-        <v>3897000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+        <v>12451000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154"/>
       <c r="B16" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="75">
-        <v>89082022656</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68">
-        <f t="shared" si="2"/>
+      <c r="C16" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="142">
+        <v>42088019031</v>
+      </c>
+      <c r="F16" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143">
+        <f t="shared" ref="I16:I22" si="4">H16*N$4</f>
         <v>0</v>
       </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="68">
-        <f t="shared" si="1"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="143">
+        <f>I16-J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="82" t="s">
-        <v>72</v>
+      <c r="L16" s="140" t="s">
+        <v>146</v>
       </c>
       <c r="M16" s="76"/>
       <c r="N16" s="85"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154"/>
       <c r="B17" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E17" s="75">
-        <v>42088019031</v>
+        <v>49202008987</v>
       </c>
       <c r="F17" s="75" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G17" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="68"/>
+        <v>32</v>
+      </c>
+      <c r="H17" s="68">
+        <v>1280000</v>
+      </c>
       <c r="I17" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>768000</v>
+      </c>
+      <c r="J17" s="68">
+        <v>768000</v>
+      </c>
+      <c r="K17" s="68">
+        <f>I17-J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>72</v>
+      <c r="L17" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M17" s="76"/>
       <c r="N17" s="76"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E18" s="75">
-        <v>49202008987</v>
+        <v>95095009661</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="G18" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="68"/>
+        <v>27</v>
+      </c>
+      <c r="H18" s="68">
+        <v>1650000</v>
+      </c>
       <c r="I18" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>990000</v>
+      </c>
+      <c r="J18" s="74">
+        <v>990000</v>
+      </c>
+      <c r="K18" s="68">
+        <f>I18-J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="76"/>
+      <c r="L18" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="80"/>
       <c r="N18" s="85"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C19" s="77"/>
+      <c r="C19" s="77" t="s">
+        <v>98</v>
+      </c>
       <c r="D19" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="75">
-        <v>93097001330</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="68"/>
+        <v>63</v>
+      </c>
+      <c r="E19" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="68">
+        <v>1700000</v>
+      </c>
       <c r="I19" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>1020000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>1020000</v>
+      </c>
+      <c r="K19" s="68">
+        <f>I19-J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="76"/>
+      <c r="L19" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="75">
-        <v>95095009661</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="H20" s="68">
-        <v>1650000</v>
+        <v>920000</v>
       </c>
       <c r="I20" s="68">
-        <f t="shared" si="2"/>
-        <v>990000</v>
-      </c>
-      <c r="J20" s="74">
-        <v>990000</v>
+        <f t="shared" si="4"/>
+        <v>552000</v>
+      </c>
+      <c r="J20" s="68">
+        <v>550000</v>
       </c>
       <c r="K20" s="68">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L20" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="80"/>
+      <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C21" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="81">
-        <v>91085001515</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="68"/>
+      <c r="C21" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="74">
+        <v>1700000</v>
+      </c>
       <c r="I21" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>1020000</v>
+      </c>
+      <c r="J21" s="68">
+        <v>1020000</v>
+      </c>
+      <c r="K21" s="68">
+        <f>I21-J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="76"/>
+      <c r="L21" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="79"/>
       <c r="N21" s="76"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C22" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="68"/>
+      <c r="C22" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="74">
+        <v>1370000</v>
+      </c>
       <c r="I22" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>822000</v>
+      </c>
+      <c r="J22" s="74">
+        <v>822000</v>
+      </c>
+      <c r="K22" s="68">
+        <f>I22-J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68">
-        <v>0</v>
-      </c>
-      <c r="L22" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="76"/>
+      <c r="L22" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="121" t="s">
+        <v>124</v>
+      </c>
       <c r="N22" s="76"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C23" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="74"/>
-      <c r="I23" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="79"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
       <c r="N23" s="79"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C24" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="122" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="74">
-        <v>1370000</v>
-      </c>
-      <c r="I24" s="68">
-        <f t="shared" si="2"/>
-        <v>822000</v>
-      </c>
-      <c r="J24" s="74"/>
-      <c r="K24" s="68">
-        <f t="shared" si="1"/>
-        <v>822000</v>
-      </c>
-      <c r="L24" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="121" t="s">
-        <v>124</v>
-      </c>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
       <c r="N24" s="105"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="128"/>
       <c r="B25" s="129"/>
       <c r="C25" s="129"/>
@@ -11690,8 +11730,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="149" t="s">
+    <row r="26" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="155" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="64">
@@ -11706,25 +11746,29 @@
       <c r="G26" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="134"/>
+      <c r="H26" s="134">
+        <v>1130000</v>
+      </c>
       <c r="I26" s="132">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="132"/>
+        <v>678000</v>
+      </c>
+      <c r="J26" s="132">
+        <v>678000</v>
+      </c>
       <c r="K26" s="132">
         <v>0</v>
       </c>
-      <c r="L26" s="82" t="s">
-        <v>72</v>
+      <c r="L26" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M26" s="136"/>
       <c r="N26" s="76"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="150"/>
+    <row r="27" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="156"/>
       <c r="B27" s="64">
         <f>B26+1</f>
         <v>2</v>
@@ -11760,27 +11804,41 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="150"/>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="156"/>
       <c r="B28" s="70">
         <f>B27+1</f>
         <v>3</v>
       </c>
-      <c r="C28" s="125"/>
+      <c r="C28" s="80" t="s">
+        <v>147</v>
+      </c>
       <c r="D28" s="110"/>
       <c r="E28" s="111"/>
       <c r="F28" s="111"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="131"/>
+      <c r="G28" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="80" t="s">
+        <v>147</v>
+      </c>
       <c r="M28" s="115"/>
       <c r="N28" s="79"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="150"/>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="156"/>
       <c r="B29" s="64">
         <f>B28+1</f>
         <v>4</v>
@@ -11798,8 +11856,8 @@
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150"/>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="156"/>
       <c r="B30" s="70">
         <f>B29+1</f>
         <v>5</v>
@@ -11817,14 +11875,978 @@
       <c r="M30" s="79"/>
       <c r="N30" s="79"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="G39" s="25"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="P12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="P15:Q15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540556B5-660E-4D44-A6A1-DA5AA95CAC2A}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="H4" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="137" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="160" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="67">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68">
+        <f>H7*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="69"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="161"/>
+      <c r="B8" s="64">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="80"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="161"/>
+      <c r="B9" s="64">
+        <f t="shared" ref="B9:B10" si="0">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68">
+        <f>H9*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="74"/>
+      <c r="K9" s="68">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="161"/>
+      <c r="B10" s="64">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="68">
+        <f>H10*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="74"/>
+      <c r="K10" s="68">
+        <f>I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="69"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="158">
+        <f>SUM(H7:H999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="162"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="158"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158">
+        <f>SUM(I7:I999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="64">
+        <v>1</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68">
+        <f>H13*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68">
+        <f t="shared" ref="K13:K29" si="1">I13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="87"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="158"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="154"/>
+      <c r="B14" s="64">
+        <f>B13+1</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68">
+        <f t="shared" ref="I14:I29" si="2">H14*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="87"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="154"/>
+      <c r="B15" s="64">
+        <f t="shared" ref="B15:B24" si="3">B14+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="74"/>
+      <c r="K15" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="130">
+        <f>SUM(J7:J98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154"/>
+      <c r="B16" s="64">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="74"/>
+      <c r="K16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="164"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154"/>
+      <c r="B17" s="64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68">
+        <f t="shared" ref="K17:K22" si="4">I17-J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="87"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
+      <c r="B18" s="64">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="74"/>
+      <c r="K18" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="87"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154"/>
+      <c r="B19" s="64">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="74"/>
+      <c r="K19" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="87"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154"/>
+      <c r="B20" s="64">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="87"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154"/>
+      <c r="B21" s="64">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="87"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
+      <c r="B22" s="64">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="74"/>
+      <c r="K22" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="87"/>
+      <c r="M22" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
+      <c r="B23" s="64">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
+      <c r="B24" s="64">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="128"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="64">
+        <v>1</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="134"/>
+      <c r="I26" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="87"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="156"/>
+      <c r="B27" s="64">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="134"/>
+      <c r="I27" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="133"/>
+      <c r="K27" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="87"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="156"/>
+      <c r="B28" s="70">
+        <f>B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="80"/>
+      <c r="I28" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="80"/>
+      <c r="K28" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="80"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="79"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="156"/>
+      <c r="B29" s="64">
+        <f>B28+1</f>
+        <v>4</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="135"/>
+      <c r="I29" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="133"/>
+      <c r="K29" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="131"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="156"/>
+      <c r="B30" s="70">
+        <f>B29+1</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -11857,56 +12879,56 @@
       <selection activeCell="I8" sqref="I8:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -11944,7 +12966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -11976,7 +12998,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -12012,7 +13034,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -12045,7 +13067,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -12079,7 +13101,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12115,7 +13137,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12149,7 +13171,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12185,7 +13207,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12219,7 +13241,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12253,7 +13275,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12287,7 +13309,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12320,7 +13342,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12355,7 +13377,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12388,7 +13410,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>71</v>
       </c>
@@ -12424,7 +13446,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>71</v>
       </c>
@@ -12461,7 +13483,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12494,7 +13516,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12527,7 +13549,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12560,7 +13582,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -12570,20 +13592,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -12599,67 +13621,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -12688,59 +13710,59 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -12778,7 +13800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -12810,7 +13832,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -12845,7 +13867,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -12878,7 +13900,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -12914,7 +13936,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12950,7 +13972,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12984,7 +14006,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13020,7 +14042,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13053,7 +14075,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13087,7 +14109,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13121,7 +14143,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13155,7 +14177,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -13190,7 +14212,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13223,7 +14245,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -13257,7 +14279,7 @@
       <c r="L20" s="43"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -13291,7 +14313,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13324,7 +14346,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13357,7 +14379,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13390,7 +14412,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -13400,20 +14422,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -13429,67 +14451,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -13520,56 +14542,56 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -13607,7 +14629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -13640,7 +14662,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>B7 +1</f>
         <v>2</v>
@@ -13676,7 +14698,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>B8 +1</f>
         <v>3</v>
@@ -13709,7 +14731,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B23" si="0">B9 +1</f>
         <v>4</v>
@@ -13744,7 +14766,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13780,7 +14802,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13814,7 +14836,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13850,7 +14872,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13884,7 +14906,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13918,7 +14940,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13952,7 +14974,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13986,7 +15008,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14024,7 +15046,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14058,7 +15080,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -14092,7 +15114,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f>B20 +1</f>
@@ -14126,7 +15148,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14159,7 +15181,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14192,7 +15214,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -14206,7 +15228,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -14216,20 +15238,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -14245,67 +15267,67 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -14336,56 +15358,56 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -14423,7 +15445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -14455,7 +15477,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -14491,7 +15513,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -14524,7 +15546,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14560,7 +15582,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14596,7 +15618,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14630,7 +15652,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14665,7 +15687,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14699,7 +15721,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14733,7 +15755,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14766,7 +15788,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14800,7 +15822,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14835,7 +15857,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14868,7 +15890,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -14902,7 +15924,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -14937,7 +15959,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14970,7 +15992,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15003,7 +16025,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -15017,7 +16039,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -15027,20 +16049,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -15056,22 +16078,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -15079,47 +16101,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -15147,59 +16169,59 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -15237,7 +16259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -15270,7 +16292,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -15306,7 +16328,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -15340,7 +16362,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -15376,7 +16398,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15412,7 +16434,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -15446,7 +16468,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -15482,7 +16504,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -15516,7 +16538,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -15550,7 +16572,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -15584,7 +16606,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -15619,7 +16641,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -15655,7 +16677,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15688,7 +16710,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -15722,7 +16744,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -15757,7 +16779,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15790,7 +16812,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15823,7 +16845,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -15837,7 +16859,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -15847,20 +16869,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -15876,22 +16898,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -15899,47 +16921,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -15970,56 +16992,56 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:13" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -16057,7 +17079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -16089,7 +17111,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -16125,7 +17147,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -16159,7 +17181,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -16195,7 +17217,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -16231,7 +17253,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -16265,7 +17287,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -16301,7 +17323,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -16335,7 +17357,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -16369,7 +17391,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -16403,7 +17425,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -16435,7 +17457,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -16471,7 +17493,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -16505,7 +17527,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -16539,7 +17561,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -16574,7 +17596,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -16607,7 +17629,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -16640,7 +17662,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -16654,7 +17676,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -16664,20 +17686,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18612000</v>
@@ -16693,22 +17715,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -16716,47 +17738,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
@@ -16784,61 +17806,61 @@
   <dimension ref="A2:P59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -16879,7 +17901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -16914,7 +17936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -16953,7 +17975,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -16987,7 +18009,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -17023,7 +18045,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -17059,7 +18081,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -17093,7 +18115,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -17129,7 +18151,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -17163,7 +18185,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -17197,7 +18219,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -17231,7 +18253,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -17264,7 +18286,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -17300,7 +18322,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -17334,7 +18356,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -17368,7 +18390,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -17403,7 +18425,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -17437,7 +18459,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -17471,7 +18493,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -17485,7 +18507,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -17495,20 +18517,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -17524,22 +18546,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -17547,62 +18569,62 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
@@ -17629,58 +18651,58 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-    </row>
-    <row r="3" spans="2:16" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+    </row>
+    <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
     </row>
-    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -17721,7 +18743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -17756,7 +18778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B23" si="0">B7 +1</f>
         <v>2</v>
@@ -17795,7 +18817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -17829,7 +18851,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -17865,7 +18887,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -17901,7 +18923,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -17935,7 +18957,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -17971,7 +18993,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18005,7 +19027,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18039,7 +19061,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18073,7 +19095,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18107,7 +19129,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18143,7 +19165,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18177,7 +19199,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -18213,7 +19235,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -18248,7 +19270,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18281,7 +19303,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18315,7 +19337,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -18332,7 +19354,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
@@ -18342,20 +19364,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28500000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="H27" s="143" t="s">
+    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="143"/>
+      <c r="I27" s="149"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>16918000</v>
@@ -18371,22 +19393,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>48</v>
       </c>
@@ -18394,62 +19416,62 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35BABC1-1E4A-41EE-AFAD-16C25B2F828D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000ABD58-B86A-468B-A302-8FB27AC91A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="14-01" sheetId="19" r:id="rId15"/>
     <sheet name="15-01" sheetId="20" r:id="rId16"/>
     <sheet name="16-01" sheetId="21" r:id="rId17"/>
+    <sheet name="17-01" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="152">
   <si>
     <t>STT</t>
   </si>
@@ -498,6 +499,15 @@
   </si>
   <si>
     <t>NGUYỄN ĐĂNG KHÁNH</t>
+  </si>
+  <si>
+    <t>DOANH THU 16/01/2026</t>
+  </si>
+  <si>
+    <t>Anh Thành</t>
+  </si>
+  <si>
+    <t>DOANH THU 17/01/2026</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1003,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1454,9 +1464,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5793,7 +5800,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6800,7 +6807,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7784,7 +7791,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G11"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8777,7 +8784,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9776,7 +9783,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" activeCellId="1" sqref="H11 J11"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10869,7 +10876,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11890,6 +11897,7 @@
       <c r="H40" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B3:K3"/>
@@ -11911,7 +11919,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11984,7 +11992,7 @@
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
       <c r="H4" s="116" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I4" s="117"/>
       <c r="J4" s="117"/>
@@ -12085,17 +12093,23 @@
       <c r="G7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="68"/>
+      <c r="H7" s="68">
+        <v>1700000</v>
+      </c>
       <c r="I7" s="68">
         <f>H7*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="68"/>
+        <v>1020000</v>
+      </c>
+      <c r="J7" s="68">
+        <v>1020000</v>
+      </c>
       <c r="K7" s="68">
         <f>I7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="69"/>
+      <c r="L7" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M7" s="76"/>
       <c r="N7" s="76"/>
       <c r="O7" s="1"/>
@@ -12110,7 +12124,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D8" s="75" t="s">
         <v>28</v>
@@ -12124,15 +12138,22 @@
       <c r="G8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="L8" s="80"/>
+      <c r="H8" s="68">
+        <v>1500000</v>
+      </c>
+      <c r="I8" s="68">
+        <f>H8*N$4</f>
+        <v>900000</v>
+      </c>
+      <c r="J8" s="68">
+        <v>750000</v>
+      </c>
+      <c r="K8" s="80">
+        <v>0</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="1"/>
@@ -12161,17 +12182,23 @@
       <c r="G9" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="68"/>
+      <c r="H9" s="68">
+        <v>1600000</v>
+      </c>
       <c r="I9" s="68">
         <f>H9*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="74"/>
+        <v>960000</v>
+      </c>
+      <c r="J9" s="74">
+        <v>960000</v>
+      </c>
       <c r="K9" s="68">
         <f>I9-J9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M9" s="115"/>
       <c r="N9" s="79"/>
       <c r="O9" s="1"/>
@@ -12198,17 +12225,23 @@
       <c r="G10" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="74">
+        <v>1300000</v>
+      </c>
       <c r="I10" s="68">
         <f>H10*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="74"/>
+        <v>780000</v>
+      </c>
+      <c r="J10" s="74">
+        <v>780000</v>
+      </c>
       <c r="K10" s="68">
         <f>I10-J10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="69"/>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
@@ -12218,7 +12251,7 @@
       <c r="Q10" s="163"/>
       <c r="R10" s="158">
         <f>SUM(H7:H999)</f>
-        <v>0</v>
+        <v>29815000</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12252,7 +12285,7 @@
       <c r="Q12" s="157"/>
       <c r="R12" s="158">
         <f>SUM(I7:I999)</f>
-        <v>0</v>
+        <v>17889000</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12277,17 +12310,23 @@
       <c r="G13" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="68">
+        <v>1630000</v>
+      </c>
       <c r="I13" s="68">
         <f>H13*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="68"/>
+        <v>978000</v>
+      </c>
+      <c r="J13" s="68">
+        <v>978000</v>
+      </c>
       <c r="K13" s="68">
         <f t="shared" ref="K13:K29" si="1">I13-J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="87"/>
+      <c r="L13" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
@@ -12301,32 +12340,16 @@
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="67">
-        <v>89078016404</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="66" t="s">
-        <v>17</v>
-      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="68"/>
-      <c r="I14" s="68">
-        <f t="shared" ref="I14:I29" si="2">H14*N$4</f>
-        <v>0</v>
-      </c>
+      <c r="I14" s="68"/>
       <c r="J14" s="68"/>
-      <c r="K14" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="87"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="76"/>
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
@@ -12337,7 +12360,7 @@
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="154"/>
       <c r="B15" s="64">
-        <f t="shared" ref="B15:B24" si="3">B14+1</f>
+        <f t="shared" ref="B15:B24" si="2">B14+1</f>
         <v>3</v>
       </c>
       <c r="C15" s="78" t="s">
@@ -12355,17 +12378,23 @@
       <c r="G15" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="74"/>
+      <c r="H15" s="74">
+        <v>1610000</v>
+      </c>
       <c r="I15" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="74"/>
+        <f t="shared" ref="I15:I29" si="3">H15*N$4</f>
+        <v>966000</v>
+      </c>
+      <c r="J15" s="74">
+        <v>966000</v>
+      </c>
       <c r="K15" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="87"/>
+      <c r="L15" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
@@ -12375,13 +12404,13 @@
       <c r="Q15" s="159"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
-        <v>0</v>
+        <v>17728000</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="154"/>
       <c r="B16" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C16" s="77" t="s">
@@ -12399,17 +12428,23 @@
       <c r="G16" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="68"/>
+      <c r="H16" s="68">
+        <v>1790000</v>
+      </c>
       <c r="I16" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="74"/>
+        <f t="shared" si="3"/>
+        <v>1074000</v>
+      </c>
+      <c r="J16" s="74">
+        <v>1074000</v>
+      </c>
       <c r="K16" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="164"/>
+      <c r="L16" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M16" s="76"/>
       <c r="N16" s="85"/>
       <c r="O16" s="1"/>
@@ -12418,7 +12453,7 @@
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="154"/>
       <c r="B17" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C17" s="77" t="s">
@@ -12436,17 +12471,23 @@
       <c r="G17" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="68"/>
+      <c r="H17" s="68">
+        <v>1010000</v>
+      </c>
       <c r="I17" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="68"/>
+        <f t="shared" si="3"/>
+        <v>606000</v>
+      </c>
+      <c r="J17" s="68">
+        <v>606000</v>
+      </c>
       <c r="K17" s="68">
         <f t="shared" ref="K17:K22" si="4">I17-J17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="87"/>
+      <c r="L17" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M17" s="76"/>
       <c r="N17" s="76"/>
       <c r="O17" s="1"/>
@@ -12455,7 +12496,7 @@
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="154"/>
       <c r="B18" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C18" s="77" t="s">
@@ -12473,17 +12514,23 @@
       <c r="G18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="68"/>
+      <c r="H18" s="68">
+        <v>1750000</v>
+      </c>
       <c r="I18" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="74"/>
+        <f t="shared" si="3"/>
+        <v>1050000</v>
+      </c>
+      <c r="J18" s="74">
+        <v>1050000</v>
+      </c>
       <c r="K18" s="68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="87"/>
+      <c r="L18" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M18" s="80"/>
       <c r="N18" s="85"/>
       <c r="O18" s="1"/>
@@ -12492,7 +12539,7 @@
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="154"/>
       <c r="B19" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C19" s="77" t="s">
@@ -12510,17 +12557,23 @@
       <c r="G19" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="68"/>
+      <c r="H19" s="68">
+        <v>1800000</v>
+      </c>
       <c r="I19" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="74"/>
+        <f t="shared" si="3"/>
+        <v>1080000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>1080000</v>
+      </c>
       <c r="K19" s="68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="87"/>
+      <c r="L19" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="1"/>
@@ -12529,7 +12582,7 @@
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="154"/>
       <c r="B20" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C20" s="77" t="s">
@@ -12547,17 +12600,23 @@
       <c r="G20" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="68">
+        <v>1870000</v>
+      </c>
       <c r="I20" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="68"/>
+        <f t="shared" si="3"/>
+        <v>1122000</v>
+      </c>
+      <c r="J20" s="68">
+        <v>1120000</v>
+      </c>
       <c r="K20" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="87"/>
+        <v>2000</v>
+      </c>
+      <c r="L20" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="1"/>
@@ -12566,7 +12625,7 @@
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="154"/>
       <c r="B21" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C21" s="78" t="s">
@@ -12584,17 +12643,23 @@
       <c r="G21" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="74">
+        <v>3430000</v>
+      </c>
       <c r="I21" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="68"/>
+        <f t="shared" si="3"/>
+        <v>2058000</v>
+      </c>
+      <c r="J21" s="68">
+        <v>2058000</v>
+      </c>
       <c r="K21" s="68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M21" s="79"/>
       <c r="N21" s="76"/>
       <c r="O21" s="1"/>
@@ -12603,7 +12668,7 @@
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="154"/>
       <c r="B22" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C22" s="78" t="s">
@@ -12615,17 +12680,23 @@
       <c r="G22" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="74"/>
+      <c r="H22" s="74">
+        <v>1745000</v>
+      </c>
       <c r="I22" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="74"/>
+        <f t="shared" si="3"/>
+        <v>1047000</v>
+      </c>
+      <c r="J22" s="74">
+        <v>1047000</v>
+      </c>
       <c r="K22" s="68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="87"/>
+      <c r="L22" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M22" s="121" t="s">
         <v>124</v>
       </c>
@@ -12636,7 +12707,7 @@
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="154"/>
       <c r="B23" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C23" s="145"/>
@@ -12657,7 +12728,7 @@
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="154"/>
       <c r="B24" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C24" s="145"/>
@@ -12709,9 +12780,982 @@
       <c r="G26" s="75" t="s">
         <v>25</v>
       </c>
+      <c r="H26" s="134">
+        <v>1830000</v>
+      </c>
+      <c r="I26" s="132">
+        <f t="shared" si="3"/>
+        <v>1098000</v>
+      </c>
+      <c r="J26" s="132">
+        <v>1089000</v>
+      </c>
+      <c r="K26" s="132">
+        <v>9000</v>
+      </c>
+      <c r="L26" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="136"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="156"/>
+      <c r="B27" s="64">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="134">
+        <v>1960000</v>
+      </c>
+      <c r="I27" s="132">
+        <f t="shared" si="3"/>
+        <v>1176000</v>
+      </c>
+      <c r="J27" s="133">
+        <v>1176000</v>
+      </c>
+      <c r="K27" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="136"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="156"/>
+      <c r="B28" s="70">
+        <f>B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="68">
+        <v>1520000</v>
+      </c>
+      <c r="I28" s="132">
+        <f t="shared" si="3"/>
+        <v>912000</v>
+      </c>
+      <c r="J28" s="68">
+        <v>912000</v>
+      </c>
+      <c r="K28" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="115"/>
+      <c r="N28" s="79"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="156"/>
+      <c r="B29" s="64">
+        <f>B28+1</f>
+        <v>4</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="135">
+        <v>1770000</v>
+      </c>
+      <c r="I29" s="132">
+        <f t="shared" si="3"/>
+        <v>1062000</v>
+      </c>
+      <c r="J29" s="133">
+        <v>1062000</v>
+      </c>
+      <c r="K29" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="156"/>
+      <c r="B30" s="70">
+        <f>B29+1</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="P12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="P15:Q15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A2A59-A917-4AB1-8764-D9870B6B2836}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="H4" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="137" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="160" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="67">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68">
+        <f>H7*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="69"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="161"/>
+      <c r="B8" s="64">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68">
+        <f>H8*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="80">
+        <v>0</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="161"/>
+      <c r="B9" s="64">
+        <f t="shared" ref="B9:B10" si="0">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68">
+        <f>H9*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="74"/>
+      <c r="K9" s="68">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="161"/>
+      <c r="B10" s="64">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="68">
+        <f>H10*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="74"/>
+      <c r="K10" s="68">
+        <f>I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="69"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="158">
+        <f>SUM(H7:H999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="162"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="158"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158">
+        <f>SUM(I7:I999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="64">
+        <v>1</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68">
+        <f>H13*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68">
+        <f t="shared" ref="K13:K29" si="1">I13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="87"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="158"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="154"/>
+      <c r="B14" s="64">
+        <f>B13+1</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="154"/>
+      <c r="B15" s="64">
+        <f t="shared" ref="B15:B24" si="2">B14+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="68">
+        <f t="shared" ref="I15:I29" si="3">H15*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="74"/>
+      <c r="K15" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="130">
+        <f>SUM(J7:J98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154"/>
+      <c r="B16" s="64">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="74"/>
+      <c r="K16" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="87"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154"/>
+      <c r="B17" s="64">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="87"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154"/>
+      <c r="B18" s="64">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="74"/>
+      <c r="K18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="87"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154"/>
+      <c r="B19" s="64">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="74"/>
+      <c r="K19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="87"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154"/>
+      <c r="B20" s="64">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="87"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154"/>
+      <c r="B21" s="64">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="87"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154"/>
+      <c r="B22" s="64">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="74"/>
+      <c r="K22" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="87"/>
+      <c r="M22" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
+      <c r="B23" s="64">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
+      <c r="B24" s="64">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="128"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="64">
+        <v>1</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="75" t="s">
+        <v>25</v>
+      </c>
       <c r="H26" s="134"/>
       <c r="I26" s="132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J26" s="132"/>
@@ -12742,7 +13786,7 @@
       </c>
       <c r="H27" s="134"/>
       <c r="I27" s="132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="133"/>
@@ -12773,15 +13817,15 @@
       </c>
       <c r="H28" s="80"/>
       <c r="I28" s="132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J28" s="80"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="80"/>
+      <c r="L28" s="87"/>
       <c r="M28" s="115"/>
       <c r="N28" s="79"/>
     </row>
@@ -12808,7 +13852,7 @@
       </c>
       <c r="H29" s="135"/>
       <c r="I29" s="132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="133"/>
@@ -12816,7 +13860,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L29" s="131"/>
+      <c r="L29" s="87"/>
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
     </row>
@@ -13710,7 +14754,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14539,7 +15583,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15355,7 +16399,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16169,7 +17213,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16989,7 +18033,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17806,7 +18850,7 @@
   <dimension ref="A2:P59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18648,7 +19692,7 @@
   <dimension ref="A2:P59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000ABD58-B86A-468B-A302-8FB27AC91A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C7DD1B-11F1-475E-ABAC-95A24B527547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="2" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="152">
   <si>
     <t>STT</t>
   </si>
@@ -11918,8 +11918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540556B5-660E-4D44-A6A1-DA5AA95CAC2A}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12969,8 +12969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A2A59-A917-4AB1-8764-D9870B6B2836}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13168,7 +13168,7 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -13183,16 +13183,22 @@
       <c r="G8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="68">
+        <v>1800000</v>
+      </c>
       <c r="I8" s="68">
         <f>H8*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="68"/>
+        <v>1080000</v>
+      </c>
+      <c r="J8" s="68">
+        <v>900000</v>
+      </c>
       <c r="K8" s="80">
         <v>0</v>
       </c>
-      <c r="L8" s="69"/>
+      <c r="L8" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="1"/>
@@ -13278,7 +13284,7 @@
       <c r="Q10" s="163"/>
       <c r="R10" s="158">
         <f>SUM(H7:H999)</f>
-        <v>0</v>
+        <v>5135000</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13312,7 +13318,7 @@
       <c r="Q12" s="157"/>
       <c r="R12" s="158">
         <f>SUM(I7:I999)</f>
-        <v>0</v>
+        <v>3081000</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13419,7 +13425,7 @@
       <c r="Q15" s="159"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
-        <v>0</v>
+        <v>2034000</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -13517,17 +13523,23 @@
       <c r="G18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="68"/>
+      <c r="H18" s="68">
+        <v>1890000</v>
+      </c>
       <c r="I18" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="74"/>
+        <v>1134000</v>
+      </c>
+      <c r="J18" s="74">
+        <v>1134000</v>
+      </c>
       <c r="K18" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="87"/>
+      <c r="L18" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M18" s="80"/>
       <c r="N18" s="85"/>
       <c r="O18" s="1"/>
@@ -13659,17 +13671,21 @@
       <c r="G22" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="74"/>
+      <c r="H22" s="74">
+        <v>1445000</v>
+      </c>
       <c r="I22" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>867000</v>
       </c>
       <c r="J22" s="74"/>
       <c r="K22" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="87"/>
+        <v>867000</v>
+      </c>
+      <c r="L22" s="82" t="s">
+        <v>72</v>
+      </c>
       <c r="M22" s="121" t="s">
         <v>124</v>
       </c>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C7DD1B-11F1-475E-ABAC-95A24B527547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35654464-EE9C-4F47-91D4-BA1822DF8B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="2" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="15-01" sheetId="20" r:id="rId16"/>
     <sheet name="16-01" sheetId="21" r:id="rId17"/>
     <sheet name="17-01" sheetId="22" r:id="rId18"/>
+    <sheet name="18-01" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -508,6 +509,9 @@
   </si>
   <si>
     <t>DOANH THU 17/01/2026</t>
+  </si>
+  <si>
+    <t>DOANH THU 18/01/2026</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1007,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1412,6 +1416,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="16" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4256,32 +4266,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -4852,20 +4862,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="149" t="s">
+      <c r="H25" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="149"/>
+      <c r="I25" s="153"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -4987,32 +4997,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -5670,20 +5680,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28869000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17311000</v>
@@ -5837,18 +5847,18 @@
     </row>
     <row r="2" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -5857,18 +5867,18 @@
     </row>
     <row r="3" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -5962,7 +5972,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="156" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="98">
@@ -6007,7 +6017,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="70">
         <f>B7+1</f>
         <v>2</v>
@@ -6054,7 +6064,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B12" si="1">B8+1</f>
         <v>3</v>
@@ -6097,7 +6107,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6136,7 +6146,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6179,7 +6189,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6222,7 +6232,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -6258,7 +6268,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="158" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64"/>
@@ -6278,7 +6288,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="64">
         <v>1</v>
       </c>
@@ -6319,7 +6329,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="64">
         <f>B16+1</f>
         <v>2</v>
@@ -6361,7 +6371,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="64">
         <f t="shared" ref="B18:B26" si="2">B17+1</f>
         <v>3</v>
@@ -6403,7 +6413,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6445,7 +6455,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="64">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6487,7 +6497,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6529,7 +6539,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6571,7 +6581,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -6613,7 +6623,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="64">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6655,7 +6665,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6697,7 +6707,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="64">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -6745,30 +6755,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="150" t="s">
+      <c r="H28" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="151"/>
+      <c r="I28" s="155"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29569000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="150" t="s">
+      <c r="H29" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="151"/>
+      <c r="I29" s="155"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17731000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="150" t="s">
+      <c r="H30" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="151"/>
+      <c r="I30" s="155"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17731000</v>
@@ -6854,18 +6864,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -6959,7 +6969,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="156" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -7005,7 +7015,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -7050,7 +7060,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -7089,7 +7099,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -7132,7 +7142,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -7175,7 +7185,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -7193,7 +7203,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -7229,7 +7239,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="158" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -7273,7 +7283,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -7316,7 +7326,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -7359,7 +7369,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7402,7 +7412,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7445,7 +7455,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7488,7 +7498,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7532,7 +7542,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7575,7 +7585,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7618,7 +7628,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -7660,7 +7670,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -7703,7 +7713,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -7731,30 +7741,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="150" t="s">
+      <c r="H28" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="151"/>
+      <c r="I28" s="155"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29980000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="150" t="s">
+      <c r="H29" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="151"/>
+      <c r="I29" s="155"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17988000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="150" t="s">
+      <c r="H30" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="151"/>
+      <c r="I30" s="155"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>17996000</v>
@@ -7836,18 +7846,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -7941,7 +7951,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="156" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -7987,7 +7997,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -8032,7 +8042,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -8071,7 +8081,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -8114,7 +8124,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -8159,7 +8169,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -8177,7 +8187,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -8213,7 +8223,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="158" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -8257,7 +8267,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -8300,7 +8310,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -8343,7 +8353,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8386,7 +8396,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8429,7 +8439,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8472,7 +8482,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8515,7 +8525,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8558,7 +8568,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8601,7 +8611,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8644,7 +8654,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -8687,7 +8697,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -8723,30 +8733,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="150" t="s">
+      <c r="H28" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="151"/>
+      <c r="I28" s="155"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31650000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="150" t="s">
+      <c r="H29" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="151"/>
+      <c r="I29" s="155"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18990000</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="150" t="s">
+      <c r="H30" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="151"/>
+      <c r="I30" s="155"/>
       <c r="J30" s="63">
         <f>SUM(J7:J25)</f>
         <v>18990000</v>
@@ -8829,18 +8839,18 @@
     </row>
     <row r="3" spans="1:16" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -8934,7 +8944,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="156" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -8980,7 +8990,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -9025,7 +9035,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -9064,7 +9074,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -9107,7 +9117,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -9150,7 +9160,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -9168,7 +9178,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -9204,7 +9214,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="158" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="64">
@@ -9247,7 +9257,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="64">
         <f>B15+1</f>
         <v>2</v>
@@ -9290,7 +9300,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="64">
         <f t="shared" ref="B17:B26" si="3">B16+1</f>
         <v>3</v>
@@ -9333,7 +9343,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -9376,7 +9386,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -9419,7 +9429,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -9462,7 +9472,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -9507,7 +9517,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -9549,7 +9559,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -9592,7 +9602,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9635,7 +9645,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -9678,7 +9688,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -9722,30 +9732,30 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="150" t="s">
+      <c r="H28" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="151"/>
+      <c r="I28" s="155"/>
       <c r="J28" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29362000</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="150" t="s">
+      <c r="H29" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="151"/>
+      <c r="I29" s="155"/>
       <c r="J29" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17617200</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="150" t="s">
+      <c r="H30" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="151"/>
+      <c r="I30" s="155"/>
       <c r="J30" s="63">
         <f>SUM(J7:J26)</f>
         <v>17619000</v>
@@ -9831,18 +9841,18 @@
     </row>
     <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -9936,7 +9946,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="164" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -9982,7 +9992,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -10029,7 +10039,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="70">
         <f>B8+1</f>
         <v>3</v>
@@ -10056,7 +10066,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="64">
         <f>B9+1</f>
         <v>4</v>
@@ -10096,17 +10106,17 @@
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="163" t="s">
+      <c r="P10" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="158">
+      <c r="Q10" s="167"/>
+      <c r="R10" s="162">
         <f>SUM(H7:H999)</f>
         <v>28468000</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="70">
         <f>B10+1</f>
         <v>5</v>
@@ -10146,9 +10156,9 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="158"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="162"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107"/>
@@ -10166,17 +10176,17 @@
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="157" t="s">
+      <c r="P12" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158">
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162">
         <f>SUM(I7:I999)</f>
         <v>17080800</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="158" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="64">
@@ -10217,12 +10227,12 @@
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="64">
         <f>B13+1</f>
         <v>2</v>
@@ -10262,12 +10272,12 @@
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="154"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="64">
         <f t="shared" ref="B15:B24" si="3">B14+1</f>
         <v>3</v>
@@ -10307,17 +10317,17 @@
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="159" t="s">
+      <c r="P15" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="159"/>
+      <c r="Q15" s="163"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
         <v>16486200</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10360,7 +10370,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -10403,7 +10413,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -10446,7 +10456,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -10479,7 +10489,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -10522,7 +10532,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -10565,7 +10575,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -10607,7 +10617,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -10650,7 +10660,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -10706,7 +10716,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="159" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="64">
@@ -10745,7 +10755,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="64">
         <f>B26+1</f>
         <v>2</v>
@@ -10784,7 +10794,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="156"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="70">
         <f>B27+1</f>
         <v>3</v>
@@ -10803,7 +10813,7 @@
       <c r="N28" s="79"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="64">
         <f>B28+1</f>
         <v>4</v>
@@ -10822,7 +10832,7 @@
       <c r="N29" s="76"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="70">
         <f>B29+1</f>
         <v>5</v>
@@ -10876,7 +10886,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10924,18 +10934,18 @@
     </row>
     <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -11029,7 +11039,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="164" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -11075,7 +11085,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -11118,7 +11128,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B10" si="0">B8+1</f>
         <v>3</v>
@@ -11161,7 +11171,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -11201,23 +11211,23 @@
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="163" t="s">
+      <c r="P10" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="158">
+      <c r="Q10" s="167"/>
+      <c r="R10" s="162">
         <f>SUM(H7:H999)</f>
         <v>20755000</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="166"/>
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="158"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="162"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107"/>
@@ -11235,17 +11245,17 @@
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="157" t="s">
+      <c r="P12" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158">
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162">
         <f>SUM(I7:I999)</f>
         <v>12453000</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="158" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="64">
@@ -11286,12 +11296,12 @@
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="64">
         <f>B13+1</f>
         <v>2</v>
@@ -11331,12 +11341,12 @@
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="154"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="64">
         <f t="shared" ref="B15:B24" si="3">B14+1</f>
         <v>3</v>
@@ -11376,17 +11386,17 @@
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="159" t="s">
+      <c r="P15" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="159"/>
+      <c r="Q15" s="163"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
         <v>12451000</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="64">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -11425,7 +11435,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="64">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -11468,7 +11478,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="64">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -11511,7 +11521,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -11554,7 +11564,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="64">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -11596,7 +11606,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="64">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -11639,7 +11649,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="64">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -11678,7 +11688,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="64">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -11699,7 +11709,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="64">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -11738,7 +11748,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="159" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="64">
@@ -11775,7 +11785,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="64">
         <f>B26+1</f>
         <v>2</v>
@@ -11812,7 +11822,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="156"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="70">
         <f>B27+1</f>
         <v>3</v>
@@ -11845,7 +11855,7 @@
       <c r="N28" s="79"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="64">
         <f>B28+1</f>
         <v>4</v>
@@ -11864,7 +11874,7 @@
       <c r="N29" s="76"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="70">
         <f>B29+1</f>
         <v>5</v>
@@ -11967,18 +11977,18 @@
     </row>
     <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -12072,7 +12082,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="164" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -12118,7 +12128,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -12162,7 +12172,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B10" si="0">B8+1</f>
         <v>3</v>
@@ -12205,7 +12215,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12245,23 +12255,23 @@
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="163" t="s">
+      <c r="P10" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="158">
+      <c r="Q10" s="167"/>
+      <c r="R10" s="162">
         <f>SUM(H7:H999)</f>
         <v>29815000</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="166"/>
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="158"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="162"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107"/>
@@ -12279,17 +12289,17 @@
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="157" t="s">
+      <c r="P12" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158">
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162">
         <f>SUM(I7:I999)</f>
         <v>17889000</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="158" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="64">
@@ -12330,12 +12340,12 @@
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="64">
         <f>B13+1</f>
         <v>2</v>
@@ -12353,12 +12363,12 @@
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="154"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="64">
         <f t="shared" ref="B15:B24" si="2">B14+1</f>
         <v>3</v>
@@ -12398,17 +12408,17 @@
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="159" t="s">
+      <c r="P15" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="159"/>
+      <c r="Q15" s="163"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
         <v>17728000</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -12451,7 +12461,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="64">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -12494,7 +12504,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -12537,7 +12547,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -12580,7 +12590,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -12623,7 +12633,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="64">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -12666,7 +12676,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -12705,7 +12715,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="64">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -12726,7 +12736,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="64">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -12765,7 +12775,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="159" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="64">
@@ -12802,7 +12812,7 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="64">
         <f>B26+1</f>
         <v>2</v>
@@ -12839,7 +12849,7 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="156"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="70">
         <f>B27+1</f>
         <v>3</v>
@@ -12874,7 +12884,7 @@
       <c r="N28" s="79"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="64">
         <f>B28+1</f>
         <v>4</v>
@@ -12915,7 +12925,7 @@
       <c r="N29" s="76"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="70">
         <f>B29+1</f>
         <v>5</v>
@@ -12969,15 +12979,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A2A59-A917-4AB1-8764-D9870B6B2836}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
@@ -13018,18 +13030,18 @@
     </row>
     <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -13041,8 +13053,7 @@
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
       <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="H4" s="116" t="s">
+      <c r="F4" s="116" t="s">
         <v>151</v>
       </c>
       <c r="I4" s="117"/>
@@ -13123,7 +13134,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="164" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="64">
@@ -13144,17 +13155,23 @@
       <c r="G7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="68"/>
+      <c r="H7" s="68">
+        <v>1400000</v>
+      </c>
       <c r="I7" s="68">
         <f>H7*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="68"/>
+        <v>840000</v>
+      </c>
+      <c r="J7" s="68">
+        <v>840000</v>
+      </c>
       <c r="K7" s="68">
         <f>I7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="69"/>
+      <c r="L7" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M7" s="76"/>
       <c r="N7" s="76"/>
       <c r="O7" s="1"/>
@@ -13163,7 +13180,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="64">
         <f>B7+1</f>
         <v>2</v>
@@ -13193,7 +13210,7 @@
       <c r="J8" s="68">
         <v>900000</v>
       </c>
-      <c r="K8" s="80">
+      <c r="K8" s="68">
         <v>0</v>
       </c>
       <c r="L8" s="88" t="s">
@@ -13207,7 +13224,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="64">
         <f t="shared" ref="B9:B10" si="0">B8+1</f>
         <v>3</v>
@@ -13227,24 +13244,30 @@
       <c r="G9" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="68"/>
+      <c r="H9" s="68">
+        <v>1000000</v>
+      </c>
       <c r="I9" s="68">
         <f>H9*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="74"/>
+        <v>600000</v>
+      </c>
+      <c r="J9" s="74">
+        <v>600000</v>
+      </c>
       <c r="K9" s="68">
         <f>I9-J9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M9" s="115"/>
       <c r="N9" s="79"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13264,37 +13287,47 @@
       <c r="G10" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="74">
+        <v>1350000</v>
+      </c>
       <c r="I10" s="68">
         <f>H10*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="74"/>
+        <v>810000</v>
+      </c>
+      <c r="J10" s="74">
+        <v>810000</v>
+      </c>
       <c r="K10" s="68">
         <f>I10-J10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="69"/>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
+      </c>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="163" t="s">
+      <c r="P10" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="158">
+      <c r="Q10" s="167"/>
+      <c r="R10" s="162">
         <f>SUM(H7:H999)</f>
-        <v>5135000</v>
+        <v>29241000</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="166"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="158"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="162"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107"/>
@@ -13306,23 +13339,23 @@
       <c r="G12" s="93"/>
       <c r="H12" s="94"/>
       <c r="I12" s="94"/>
-      <c r="J12" s="97"/>
+      <c r="J12" s="147"/>
       <c r="K12" s="123"/>
       <c r="L12" s="96"/>
       <c r="M12" s="97"/>
       <c r="N12" s="97"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="157" t="s">
+      <c r="P12" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158">
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162">
         <f>SUM(I7:I999)</f>
-        <v>3081000</v>
+        <v>17544600</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="158" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="64">
@@ -13343,26 +13376,32 @@
       <c r="G13" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="68">
+        <v>900000</v>
+      </c>
       <c r="I13" s="68">
         <f>H13*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="68"/>
+        <v>540000</v>
+      </c>
+      <c r="J13" s="68">
+        <v>540000</v>
+      </c>
       <c r="K13" s="68">
         <f t="shared" ref="K13:K29" si="1">I13-J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="87"/>
+      <c r="L13" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="64">
         <f>B13+1</f>
         <v>2</v>
@@ -13380,12 +13419,12 @@
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="154"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="64">
         <f t="shared" ref="B15:B24" si="2">B14+1</f>
         <v>3</v>
@@ -13405,31 +13444,37 @@
       <c r="G15" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="74"/>
+      <c r="H15" s="74">
+        <v>1480000</v>
+      </c>
       <c r="I15" s="68">
         <f t="shared" ref="I15:I29" si="3">H15*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="74"/>
+        <v>888000</v>
+      </c>
+      <c r="J15" s="74">
+        <v>888000</v>
+      </c>
       <c r="K15" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="87"/>
+      <c r="L15" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="159" t="s">
+      <c r="P15" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="159"/>
+      <c r="Q15" s="163"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
-        <v>2034000</v>
+        <v>17384600</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -13449,24 +13494,30 @@
       <c r="G16" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="68"/>
+      <c r="H16" s="68">
+        <v>1850000</v>
+      </c>
       <c r="I16" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="74"/>
+        <v>1110000</v>
+      </c>
+      <c r="J16" s="74">
+        <v>1110000</v>
+      </c>
       <c r="K16" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="87"/>
+      <c r="L16" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M16" s="76"/>
       <c r="N16" s="85"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="64">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -13486,24 +13537,30 @@
       <c r="G17" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="68"/>
+      <c r="H17" s="68">
+        <v>1440000</v>
+      </c>
       <c r="I17" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="68"/>
+        <v>864000</v>
+      </c>
+      <c r="J17" s="68">
+        <v>864000</v>
+      </c>
       <c r="K17" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="87"/>
+      <c r="L17" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M17" s="76"/>
       <c r="N17" s="76"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13546,7 +13603,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13566,24 +13623,30 @@
       <c r="G19" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="68"/>
+      <c r="H19" s="68">
+        <v>1800000</v>
+      </c>
       <c r="I19" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="74"/>
+        <v>1080000</v>
+      </c>
+      <c r="J19" s="74">
+        <v>1080000</v>
+      </c>
       <c r="K19" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="87"/>
+      <c r="L19" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="154"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -13603,24 +13666,30 @@
       <c r="G20" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="68">
+        <v>1940000</v>
+      </c>
       <c r="I20" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="68"/>
+        <v>1164000</v>
+      </c>
+      <c r="J20" s="68">
+        <v>1164000</v>
+      </c>
       <c r="K20" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="87"/>
+      <c r="L20" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="64">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -13640,24 +13709,30 @@
       <c r="G21" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="74">
+        <v>4201000</v>
+      </c>
       <c r="I21" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="68"/>
+        <v>2520600</v>
+      </c>
+      <c r="J21" s="68">
+        <v>2520600</v>
+      </c>
       <c r="K21" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M21" s="79"/>
       <c r="N21" s="76"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -13678,13 +13753,15 @@
         <f t="shared" si="3"/>
         <v>867000</v>
       </c>
-      <c r="J22" s="74"/>
+      <c r="J22" s="74">
+        <v>867000</v>
+      </c>
       <c r="K22" s="68">
         <f t="shared" si="1"/>
-        <v>867000</v>
-      </c>
-      <c r="L22" s="82" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="M22" s="121" t="s">
         <v>124</v>
@@ -13694,7 +13771,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="64">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -13704,10 +13781,10 @@
       <c r="E23" s="145"/>
       <c r="F23" s="145"/>
       <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
       <c r="L23" s="145"/>
       <c r="M23" s="145"/>
       <c r="N23" s="79"/>
@@ -13715,7 +13792,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="64">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -13725,10 +13802,10 @@
       <c r="E24" s="145"/>
       <c r="F24" s="145"/>
       <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
       <c r="L24" s="145"/>
       <c r="M24" s="145"/>
       <c r="N24" s="105"/>
@@ -13743,10 +13820,10 @@
       <c r="E25" s="129"/>
       <c r="F25" s="129"/>
       <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
       <c r="L25" s="129"/>
       <c r="M25" s="129"/>
       <c r="N25" s="129"/>
@@ -13754,7 +13831,7 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="159" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="64">
@@ -13769,24 +13846,30 @@
       <c r="G26" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="134"/>
+      <c r="H26" s="134">
+        <v>1435000</v>
+      </c>
       <c r="I26" s="132">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="132"/>
+        <v>861000</v>
+      </c>
+      <c r="J26" s="132">
+        <v>861000</v>
+      </c>
       <c r="K26" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="87"/>
+      <c r="L26" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M26" s="136"/>
       <c r="N26" s="76"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="64">
         <f>B26+1</f>
         <v>2</v>
@@ -13800,24 +13883,30 @@
       <c r="G27" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="134"/>
+      <c r="H27" s="134">
+        <v>1725000</v>
+      </c>
       <c r="I27" s="132">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="133"/>
+        <v>1035000</v>
+      </c>
+      <c r="J27" s="133">
+        <v>1035000</v>
+      </c>
       <c r="K27" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="87"/>
+      <c r="L27" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M27" s="136"/>
       <c r="N27" s="76"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="156"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="70">
         <f>B27+1</f>
         <v>3</v>
@@ -13831,22 +13920,27 @@
       <c r="G28" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="80"/>
+      <c r="H28" s="68">
+        <v>1445000</v>
+      </c>
       <c r="I28" s="132">
         <f t="shared" si="3"/>
+        <v>867000</v>
+      </c>
+      <c r="J28" s="68">
+        <v>887000</v>
+      </c>
+      <c r="K28" s="132">
         <v>0</v>
       </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="132">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="87"/>
+      <c r="L28" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M28" s="115"/>
       <c r="N28" s="79"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="64">
         <f>B28+1</f>
         <v>4</v>
@@ -13866,22 +13960,1020 @@
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="135"/>
+      <c r="H29" s="135">
+        <v>2140000</v>
+      </c>
       <c r="I29" s="132">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="133"/>
+        <v>1284000</v>
+      </c>
+      <c r="J29" s="133">
+        <v>1284000</v>
+      </c>
       <c r="K29" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L29" s="87"/>
+      <c r="L29" s="87" t="s">
+        <v>69</v>
+      </c>
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="70">
+        <f>B29+1</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="P12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="P15:Q15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A650B2E1-7667-41FC-8D33-F9E95D5AE19F}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="H4" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="137" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="164" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="67">
+        <v>91203011680</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68">
+        <f>H7*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="165"/>
+      <c r="B8" s="64">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75">
+        <v>42094001136</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68">
+        <f>H8*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68">
+        <f t="shared" ref="K8:K10" si="0">I8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="165"/>
+      <c r="B9" s="64">
+        <f t="shared" ref="B9:B10" si="1">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="66">
+        <v>70081001153</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68">
+        <f>H9*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="74"/>
+      <c r="K9" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="115"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="165"/>
+      <c r="B10" s="64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="73">
+        <v>27068001194</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="68">
+        <f>H10*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="74"/>
+      <c r="K10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="162">
+        <f>SUM(H7:H999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="166"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="162"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162">
+        <f>SUM(I7:I999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="64">
+        <v>1</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="67">
+        <v>38096003688</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68">
+        <f>H13*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68">
+        <f t="shared" ref="K13:K29" si="2">I13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="158"/>
+      <c r="B14" s="64">
+        <f>B13+1</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="158"/>
+      <c r="B15" s="64">
+        <f t="shared" ref="B15:B24" si="3">B14+1</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="72">
+        <v>89099008054</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="68">
+        <f t="shared" ref="I15:I29" si="4">H15*N$4</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="74"/>
+      <c r="K15" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="130">
+        <f>SUM(J7:J98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="158"/>
+      <c r="B16" s="64">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="75">
+        <v>42088019031</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="74"/>
+      <c r="K16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="158"/>
+      <c r="B17" s="64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="75">
+        <v>49202008987</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="158"/>
+      <c r="B18" s="64">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="75">
+        <v>95095009661</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="74"/>
+      <c r="K18" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="80"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="158"/>
+      <c r="B19" s="64">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="81">
+        <v>91085001515</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="74"/>
+      <c r="K19" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="158"/>
+      <c r="B20" s="64">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="158"/>
+      <c r="B21" s="64">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="79"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="158"/>
+      <c r="B22" s="64">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="74"/>
+      <c r="K22" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="76"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="158"/>
+      <c r="B23" s="64">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="158"/>
+      <c r="B24" s="64">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="128"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="159" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="64">
+        <v>1</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="134"/>
+      <c r="I26" s="132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="136"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="160"/>
+      <c r="B27" s="64">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="134"/>
+      <c r="I27" s="132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="133"/>
+      <c r="K27" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="136"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="160"/>
+      <c r="B28" s="70">
+        <f>B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="68"/>
+      <c r="I28" s="132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="68"/>
+      <c r="K28" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="115"/>
+      <c r="N28" s="79"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="160"/>
+      <c r="B29" s="64">
+        <f>B28+1</f>
+        <v>4</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="67">
+        <v>89078016404</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="135"/>
+      <c r="I29" s="132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="133"/>
+      <c r="K29" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="160"/>
       <c r="B30" s="70">
         <f>B29+1</f>
         <v>5</v>
@@ -13958,32 +15050,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -14652,20 +15744,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -14792,32 +15884,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -15482,20 +16574,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19075000</v>
@@ -15621,32 +16713,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -16298,20 +17390,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30806000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18342000</v>
@@ -16437,32 +17529,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -17109,20 +18201,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>30762000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18280000</v>
@@ -17251,32 +18343,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -17929,20 +19021,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31566000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18200000</v>
@@ -18071,32 +19163,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -18746,20 +19838,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>31500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>18612000</v>
@@ -18890,32 +19982,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -19577,20 +20669,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>32130000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>19110000</v>
@@ -19732,32 +20824,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="2:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -20424,20 +21516,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="149"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>28500000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>16918000</v>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35654464-EE9C-4F47-91D4-BA1822DF8B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD3BFD4-452E-401C-8A24-D6B2569E3486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14035,7 +14035,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14220,8 +14220,8 @@
         <f>I7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="88" t="s">
-        <v>26</v>
+      <c r="L7" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M7" s="76"/>
       <c r="N7" s="76"/>
@@ -14251,14 +14251,17 @@
       <c r="G8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="68">
+        <v>1600000</v>
+      </c>
       <c r="I8" s="68">
         <f>H8*N$4</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="68"/>
+        <v>960000</v>
+      </c>
+      <c r="J8" s="68">
+        <v>800000</v>
+      </c>
       <c r="K8" s="68">
-        <f t="shared" ref="K8:K10" si="0">I8-J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="88" t="s">
@@ -14274,7 +14277,7 @@
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="165"/>
       <c r="B9" s="64">
-        <f t="shared" ref="B9:B10" si="1">B8+1</f>
+        <f t="shared" ref="B9:B10" si="0">B8+1</f>
         <v>3</v>
       </c>
       <c r="C9" s="65" t="s">
@@ -14299,11 +14302,11 @@
       </c>
       <c r="J9" s="74"/>
       <c r="K9" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K8:K10" si="1">I9-J9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="88" t="s">
-        <v>26</v>
+      <c r="L9" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M9" s="115"/>
       <c r="N9" s="79"/>
@@ -14313,7 +14316,7 @@
     <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="165"/>
       <c r="B10" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="71" t="s">
@@ -14338,11 +14341,11 @@
       </c>
       <c r="J10" s="74"/>
       <c r="K10" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="88" t="s">
-        <v>26</v>
+      <c r="L10" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
@@ -14353,7 +14356,7 @@
       <c r="Q10" s="167"/>
       <c r="R10" s="162">
         <f>SUM(H7:H999)</f>
-        <v>0</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14391,7 +14394,7 @@
       <c r="Q12" s="161"/>
       <c r="R12" s="162">
         <f>SUM(I7:I999)</f>
-        <v>0</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14426,8 +14429,8 @@
         <f t="shared" ref="K13:K29" si="2">I13-J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="87" t="s">
-        <v>69</v>
+      <c r="L13" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
@@ -14493,8 +14496,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="87" t="s">
-        <v>69</v>
+      <c r="L15" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
@@ -14505,7 +14508,7 @@
       <c r="Q15" s="163"/>
       <c r="R15" s="130">
         <f>SUM(J7:J98)</f>
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -14539,8 +14542,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="87" t="s">
-        <v>69</v>
+      <c r="L16" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M16" s="76"/>
       <c r="N16" s="85"/>
@@ -14578,8 +14581,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="87" t="s">
-        <v>69</v>
+      <c r="L17" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M17" s="76"/>
       <c r="N17" s="76"/>
@@ -14617,8 +14620,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="87" t="s">
-        <v>69</v>
+      <c r="L18" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M18" s="80"/>
       <c r="N18" s="85"/>
@@ -14656,8 +14659,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="87" t="s">
-        <v>69</v>
+      <c r="L19" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
@@ -14695,8 +14698,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="87" t="s">
-        <v>69</v>
+      <c r="L20" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
@@ -14734,8 +14737,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="87" t="s">
-        <v>69</v>
+      <c r="L21" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M21" s="79"/>
       <c r="N21" s="76"/>
@@ -14767,8 +14770,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="87" t="s">
-        <v>69</v>
+      <c r="L22" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M22" s="121" t="s">
         <v>124</v>
@@ -14863,8 +14866,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L26" s="87" t="s">
-        <v>69</v>
+      <c r="L26" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M26" s="136"/>
       <c r="N26" s="76"/>
@@ -14896,8 +14899,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="87" t="s">
-        <v>69</v>
+      <c r="L27" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M27" s="136"/>
       <c r="N27" s="76"/>
@@ -14929,8 +14932,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L28" s="87" t="s">
-        <v>69</v>
+      <c r="L28" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M28" s="115"/>
       <c r="N28" s="79"/>
@@ -14966,8 +14969,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L29" s="87" t="s">
-        <v>69</v>
+      <c r="L29" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>

--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD3BFD4-452E-401C-8A24-D6B2569E3486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709AE6E-BAF4-4E42-A008-223E1EFE3C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" firstSheet="4" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="5" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="16-01" sheetId="21" r:id="rId17"/>
     <sheet name="17-01" sheetId="22" r:id="rId18"/>
     <sheet name="18-01" sheetId="23" r:id="rId19"/>
+    <sheet name="19-01" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="157">
   <si>
     <t>STT</t>
   </si>
@@ -512,6 +513,18 @@
   </si>
   <si>
     <t>DOANH THU 18/01/2026</t>
+  </si>
+  <si>
+    <t>Thiếu 20k</t>
+  </si>
+  <si>
+    <t>ăn chia 5 5, thọt so với thực tế 160k</t>
+  </si>
+  <si>
+    <t>dư 2k</t>
+  </si>
+  <si>
+    <t>DOANH THU 19/01/2026</t>
   </si>
 </sst>
 </file>
@@ -14034,8 +14047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A650B2E1-7667-41FC-8D33-F9E95D5AE19F}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14050,7 +14063,7 @@
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="16" max="16" width="18.5703125" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" customWidth="1"/>
@@ -14210,20 +14223,26 @@
       <c r="G7" s="66" t=